--- a/게임 파일.xlsx
+++ b/게임 파일.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\Game Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YNC\Desktop\programming\_Private\Game Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA34C07-3733-4FAE-A901-1A7343DDEB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NIKKE DB" sheetId="3" r:id="rId1"/>
@@ -32,7 +31,7 @@
     <definedName name="ZZZ_캐릭터_경험치_50">'ZZZ 재화 상세'!$C$52</definedName>
     <definedName name="ZZZ_캐릭터_경험치_60">'ZZZ 재화 상세'!$C$62</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="532">
   <si>
     <t>진급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1501,43 +1500,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 도금제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라스틱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에테르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스털</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Bangboo 경험치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「Bangboo」 #</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어 패치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 컨트롤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2045,10 +2008,6 @@
   </si>
   <si>
     <t>레후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4단</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2127,13 +2086,111 @@
   </si>
   <si>
     <t>「Bangboo」 Lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치
+방부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「Bangboo」 알고리즘 모듈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「Bangboo」 시스템  컨트롤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에테르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬육성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 진급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 진급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화
+방부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="##\L\v"/>
@@ -3039,7 +3096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3320,6 +3377,102 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3344,6 +3497,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3392,6 +3551,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3404,209 +3665,32 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3924,47 +4008,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="7" customWidth="1"/>
     <col min="4" max="4" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.59765625" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.625" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="101"/>
+      <c r="C1" s="133"/>
       <c r="D1" s="7" t="s">
         <v>228</v>
       </c>
@@ -3978,36 +4062,36 @@
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
-    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="96"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-    </row>
-    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="132"/>
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
@@ -4055,7 +4139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4105,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4155,7 +4239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4205,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4255,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4305,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4355,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4405,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4455,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4505,7 +4589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4541,7 +4625,7 @@
       </c>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -4576,7 +4660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -4611,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -4646,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -4681,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -4716,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -4736,7 +4820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -4756,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -4776,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -4796,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -4816,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -4836,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -4856,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -4876,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -4896,7 +4980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -4916,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -4936,7 +5020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -4956,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -4976,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -4996,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -5016,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -5036,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -5056,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -5076,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -5096,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -5116,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -5136,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -5156,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -5176,7 +5260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -5196,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -5216,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -5236,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -5256,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -5276,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -5296,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -5316,7 +5400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -5336,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -5356,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -5376,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -5396,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -5416,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -5436,7 +5520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -5456,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -5476,7 +5560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -5496,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -5516,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -5537,7 +5621,7 @@
       </c>
       <c r="H59" s="28"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -5557,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -5577,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -5597,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -5617,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -5637,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -5657,7 +5741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -5677,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -5697,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -5717,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -5737,7 +5821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -5757,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -5777,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -5797,7 +5881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -5817,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -5837,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -5857,7 +5941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -5877,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -5897,7 +5981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -5917,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -5937,7 +6021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -5957,7 +6041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -5977,7 +6061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -5997,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -6017,7 +6101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -6037,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -6057,7 +6141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -6077,7 +6161,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -6097,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -6117,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -6137,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -6157,7 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -6177,7 +6261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -6197,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -6217,7 +6301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -6237,7 +6321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -6257,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -6277,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -6297,7 +6381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -6317,7 +6401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -6337,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -6357,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -6377,7 +6461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -6397,7 +6481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -6417,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -6437,7 +6521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -6457,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -6477,7 +6561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -6497,7 +6581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -6517,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -6537,7 +6621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>107</v>
       </c>
@@ -6557,7 +6641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -6577,7 +6661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>109</v>
       </c>
@@ -6597,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -6617,7 +6701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>111</v>
       </c>
@@ -6637,7 +6721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -6657,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -6677,7 +6761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -6710,39 +6794,39 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.8984375" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" style="50" customWidth="1"/>
-    <col min="10" max="16384" width="3.875" hidden="1"/>
+    <col min="5" max="7" width="3.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.19921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.59765625" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="3.8984375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="146" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
       <c r="D1" s="46" t="s">
         <v>55</v>
       </c>
@@ -6762,11 +6846,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="149" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="21">
@@ -6789,9 +6873,9 @@
       </c>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="105"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="137"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="21">
         <v>2</v>
       </c>
@@ -6811,9 +6895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
-      <c r="B4" s="116"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="137"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="21">
         <v>3</v>
       </c>
@@ -6833,8 +6917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="147"/>
       <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
@@ -6854,8 +6938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="114"/>
+    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="148"/>
       <c r="B6" s="25" t="s">
         <v>54</v>
       </c>
@@ -6877,13 +6961,13 @@
       </c>
       <c r="I6" s="53"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="184" t="s">
-        <v>494</v>
-      </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186">
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="121">
         <f>COUNTA(D2:D6)</f>
         <v>3</v>
       </c>
@@ -6905,8 +6989,8 @@
       </c>
       <c r="I7" s="56"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="136" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -6934,8 +7018,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="143"/>
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
@@ -6955,9 +7039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="104" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="143"/>
+      <c r="B10" s="138" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="20">
@@ -6982,9 +7066,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
-      <c r="B11" s="105"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="143"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="52">
         <v>2</v>
       </c>
@@ -7007,9 +7091,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="105"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="143"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="52">
         <v>3</v>
       </c>
@@ -7032,9 +7116,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="105"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="143"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="52">
         <v>4</v>
       </c>
@@ -7057,9 +7141,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="109"/>
-      <c r="B14" s="105"/>
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="143"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="52">
         <v>5</v>
       </c>
@@ -7080,13 +7164,13 @@
       </c>
       <c r="I14" s="53"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="184" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="121">
         <f>COUNTA(D8:D14)</f>
         <v>6</v>
       </c>
@@ -7108,8 +7192,8 @@
       </c>
       <c r="I15" s="56"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="150" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="54" t="s">
@@ -7135,8 +7219,8 @@
       </c>
       <c r="I16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="151"/>
       <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
@@ -7159,9 +7243,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
-      <c r="B18" s="104" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="151"/>
+      <c r="B18" s="138" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="20">
@@ -7183,9 +7267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
-      <c r="B19" s="105"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="151"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="52">
         <v>2</v>
       </c>
@@ -7206,9 +7290,9 @@
       </c>
       <c r="I19" s="53"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="105"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="151"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="52">
         <v>3</v>
       </c>
@@ -7231,9 +7315,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
-      <c r="B21" s="105"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="151"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="52">
         <v>4</v>
       </c>
@@ -7256,9 +7340,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="52">
         <v>5</v>
       </c>
@@ -7281,13 +7365,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="184" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186">
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="121">
         <f>COUNTA(D16:D22)</f>
         <v>7</v>
       </c>
@@ -7309,8 +7393,8 @@
       </c>
       <c r="I23" s="56"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="136" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -7336,8 +7420,8 @@
       </c>
       <c r="I24" s="49"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="143"/>
       <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
@@ -7357,8 +7441,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="109"/>
+    <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="143"/>
       <c r="B26" s="25" t="s">
         <v>54</v>
       </c>
@@ -7380,13 +7464,13 @@
       </c>
       <c r="I26" s="53"/>
     </row>
-    <row r="27" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="184" t="s">
-        <v>494</v>
-      </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="186">
+    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="121">
         <f>COUNTA(D24:D26)</f>
         <v>1</v>
       </c>
@@ -7408,11 +7492,11 @@
       </c>
       <c r="I27" s="56"/>
     </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110" t="s">
+    <row r="28" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="136" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="19">
@@ -7435,9 +7519,9 @@
       </c>
       <c r="I28" s="49"/>
     </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="103"/>
+    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="145"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="21">
         <v>2</v>
       </c>
@@ -7460,8 +7544,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
+    <row r="30" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="145"/>
       <c r="B30" s="17" t="s">
         <v>53</v>
       </c>
@@ -7483,8 +7567,8 @@
       </c>
       <c r="I30" s="50"/>
     </row>
-    <row r="31" spans="1:9" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="111"/>
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="145"/>
       <c r="B31" s="51" t="s">
         <v>54</v>
       </c>
@@ -7510,13 +7594,13 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="184" t="s">
-        <v>494</v>
-      </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="186">
+    <row r="32" spans="1:9" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="121">
         <f>COUNTA(D28:D31)</f>
         <v>3</v>
       </c>
@@ -7538,13 +7622,13 @@
       </c>
       <c r="I32" s="56"/>
     </row>
-    <row r="33" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="106" t="s">
+    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="140" t="s">
         <v>343</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
       <c r="E33" s="46">
         <f>SUM(E32,E27,E23,E15,E7)</f>
         <v>1</v>
@@ -7563,7 +7647,7 @@
       </c>
       <c r="I33" s="56"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="21"/>
@@ -7599,49 +7683,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92256750-2EAF-4B23-B14C-5A4D0401454C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="85" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.625" style="85" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.59765625" style="85" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="180" t="s">
-        <v>490</v>
-      </c>
-      <c r="C1" s="181" t="s">
-        <v>491</v>
+      <c r="B1" s="117" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>482</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="180" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="F1" s="117" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="126" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="182">
+      <c r="C2" s="119">
         <v>0</v>
       </c>
       <c r="D2" s="82">
@@ -7654,8 +7739,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="147"/>
       <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
@@ -7672,12 +7757,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="162"/>
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="152"/>
       <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="183">
+      <c r="C4" s="120">
         <v>1</v>
       </c>
       <c r="D4" s="12">
@@ -7690,14 +7775,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="126" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="182">
+      <c r="C5" s="119">
         <v>0</v>
       </c>
       <c r="D5" s="82">
@@ -7710,8 +7795,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="147"/>
       <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
@@ -7728,12 +7813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="162"/>
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="152"/>
       <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="120">
         <v>1</v>
       </c>
       <c r="D7" s="12">
@@ -7746,14 +7831,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="126" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="119">
         <v>2</v>
       </c>
       <c r="D8" s="82">
@@ -7766,8 +7851,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="147"/>
       <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
@@ -7784,12 +7869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="162"/>
+    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="152"/>
       <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="183">
+      <c r="C10" s="120">
         <v>0</v>
       </c>
       <c r="D10" s="12">
@@ -7802,14 +7887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="126" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="182">
+      <c r="C11" s="119">
         <v>1</v>
       </c>
       <c r="D11" s="82">
@@ -7822,8 +7907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="147"/>
       <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
@@ -7840,12 +7925,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="162"/>
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="152"/>
       <c r="B13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="183">
+      <c r="C13" s="120">
         <v>1</v>
       </c>
       <c r="D13" s="12">
@@ -7858,14 +7943,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="126" t="s">
         <v>235</v>
       </c>
       <c r="B14" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="182">
+      <c r="C14" s="119">
         <v>0</v>
       </c>
       <c r="D14" s="82">
@@ -7878,8 +7963,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="147"/>
       <c r="B15" s="10" t="s">
         <v>53</v>
       </c>
@@ -7896,12 +7981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="162"/>
+    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="152"/>
       <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="183">
+      <c r="C16" s="120">
         <v>1</v>
       </c>
       <c r="D16" s="12">
@@ -7936,111 +8021,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D7CA36-0F42-4A41-83BE-74600631BF58}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="85" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.625" style="85" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="85" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.625" style="85" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="85" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.625" style="85" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="85" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.625" style="85" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.375" style="85" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="85" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="85" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.59765625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="85" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.59765625" style="85" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" style="85" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.59765625" style="85" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.3984375" style="85" customWidth="1"/>
+    <col min="15" max="15" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.59765625" style="85" customWidth="1"/>
+    <col min="17" max="17" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.3984375" style="85" customWidth="1"/>
+    <col min="19" max="19" width="5.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="E1" s="100" t="s">
-        <v>481</v>
-      </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="I1" s="100" t="s">
-        <v>482</v>
-      </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="M1" s="100" t="s">
-        <v>483</v>
-      </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="Q1" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="132" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="E1" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="I1" s="132" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="M1" s="132" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="Q1" s="132" t="s">
+        <v>475</v>
+      </c>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I2" s="85" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="M2" s="85" t="s">
         <v>66</v>
       </c>
       <c r="N2" s="85" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="O2" s="85" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q2" s="85" t="s">
         <v>66</v>
       </c>
       <c r="R2" s="85" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="S2" s="85" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="85" t="s">
         <v>212</v>
       </c>
@@ -8057,7 +8143,7 @@
         <v>220</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="I3" s="85" t="s">
         <v>216</v>
@@ -8066,7 +8152,7 @@
         <v>214</v>
       </c>
       <c r="K3" s="85" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="M3" s="85" t="s">
         <v>220</v>
@@ -8075,7 +8161,7 @@
         <v>212</v>
       </c>
       <c r="O3" s="85" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q3" s="85" t="s">
         <v>214</v>
@@ -8084,10 +8170,10 @@
         <v>218</v>
       </c>
       <c r="S3" s="85" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="85">
         <v>1</v>
       </c>
@@ -8098,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="I4" s="85">
         <v>1</v>
@@ -8119,7 +8205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="85">
         <v>2</v>
       </c>
@@ -8130,7 +8216,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I5" s="85">
         <v>2</v>
@@ -8151,7 +8237,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="85">
         <v>3</v>
       </c>
@@ -8168,27 +8254,27 @@
         <v>3</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M6" s="85">
         <v>3</v>
       </c>
       <c r="N6" s="85" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="Q6" s="85">
         <v>3</v>
       </c>
       <c r="R6" s="85" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="85">
         <v>4</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E7" s="85">
         <v>4</v>
@@ -8206,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="85" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q7" s="85">
         <v>4</v>
@@ -8215,7 +8301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="85">
         <v>5</v>
       </c>
@@ -8245,11 +8331,6 @@
       </c>
       <c r="R8" s="85" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I9" s="85" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8267,25 +8348,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8302,7 +8383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8313,7 +8394,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8324,7 +8405,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8335,7 +8416,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8346,7 +8427,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8357,17 +8438,17 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -8387,7 +8468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8398,7 +8479,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8409,7 +8490,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8420,7 +8501,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5</v>
       </c>
@@ -8431,7 +8512,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8442,7 +8523,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7</v>
       </c>
@@ -8453,7 +8534,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>8</v>
       </c>
@@ -8464,7 +8545,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>9</v>
       </c>
@@ -8475,7 +8556,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10</v>
       </c>
@@ -8486,7 +8567,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11</v>
       </c>
@@ -8497,7 +8578,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>12</v>
       </c>
@@ -8511,12 +8592,12 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -8530,7 +8611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -8538,7 +8619,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -8549,7 +8630,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -8560,7 +8641,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -8574,7 +8655,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -8588,7 +8669,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -8602,50 +8683,50 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C33" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D33" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E33" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F33" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G33" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H33" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="N33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="189" t="s">
-        <v>513</v>
-      </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
+      <c r="B34" s="153" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
       <c r="N34" t="s">
         <v>24</v>
       </c>
@@ -8659,14 +8740,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="E35" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -8682,14 +8763,14 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>2</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="E36" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8705,14 +8786,14 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>3</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="E37" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -8728,14 +8809,14 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>4</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="E38" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -8751,14 +8832,14 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>5</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="E39" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N39">
         <v>5</v>
@@ -8774,7 +8855,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8792,7 +8873,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -8801,267 +8882,267 @@
         <v>672000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -9090,7 +9171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>1</v>
       </c>
@@ -9109,7 +9190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>2</v>
       </c>
@@ -9128,7 +9209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>3</v>
       </c>
@@ -9147,7 +9228,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -9166,7 +9247,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -9185,7 +9266,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>6</v>
       </c>
@@ -9204,7 +9285,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>7</v>
       </c>
@@ -9223,7 +9304,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <v>8</v>
       </c>
@@ -9242,7 +9323,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>9</v>
       </c>
@@ -9261,7 +9342,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>10</v>
       </c>
@@ -9292,7 +9373,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>11</v>
       </c>
@@ -9311,7 +9392,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>12</v>
       </c>
@@ -9330,7 +9411,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>13</v>
       </c>
@@ -9349,7 +9430,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <v>14</v>
       </c>
@@ -9368,7 +9449,7 @@
         <v>7465</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -9387,7 +9468,7 @@
         <v>8710</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>16</v>
       </c>
@@ -9406,7 +9487,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>17</v>
       </c>
@@ -9425,7 +9506,7 @@
         <v>11410</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>18</v>
       </c>
@@ -9444,7 +9525,7 @@
         <v>12870</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <v>19</v>
       </c>
@@ -9463,7 +9544,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <v>20</v>
       </c>
@@ -9494,7 +9575,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <v>21</v>
       </c>
@@ -9513,7 +9594,7 @@
         <v>18495</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <v>22</v>
       </c>
@@ -9532,7 +9613,7 @@
         <v>21145</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <v>23</v>
       </c>
@@ -9551,7 +9632,7 @@
         <v>23955</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <v>24</v>
       </c>
@@ -9570,7 +9651,7 @@
         <v>26920</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <v>25</v>
       </c>
@@ -9589,7 +9670,7 @@
         <v>30040</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <v>26</v>
       </c>
@@ -9608,7 +9689,7 @@
         <v>33320</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <v>27</v>
       </c>
@@ -9627,7 +9708,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <v>28</v>
       </c>
@@ -9646,7 +9727,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <v>29</v>
       </c>
@@ -9665,7 +9746,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <v>30</v>
       </c>
@@ -9696,7 +9777,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <v>31</v>
       </c>
@@ -9715,7 +9796,7 @@
         <v>53760</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <v>32</v>
       </c>
@@ -9734,7 +9815,7 @@
         <v>59840</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <v>33</v>
       </c>
@@ -9753,7 +9834,7 @@
         <v>66240</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <v>34</v>
       </c>
@@ -9772,7 +9853,7 @@
         <v>72960</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <v>35</v>
       </c>
@@ -9791,7 +9872,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <v>36</v>
       </c>
@@ -9810,7 +9891,7 @@
         <v>87360</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <v>37</v>
       </c>
@@ -9829,7 +9910,7 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <v>38</v>
       </c>
@@ -9848,7 +9929,7 @@
         <v>103040</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>39</v>
       </c>
@@ -9867,7 +9948,7 @@
         <v>111360</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <v>40</v>
       </c>
@@ -9898,7 +9979,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <v>41</v>
       </c>
@@ -9917,7 +9998,7 @@
         <v>129120</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>42</v>
       </c>
@@ -9936,7 +10017,7 @@
         <v>138880</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>43</v>
       </c>
@@ -9955,7 +10036,7 @@
         <v>149280</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
         <v>44</v>
       </c>
@@ -9974,7 +10055,7 @@
         <v>160320</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <v>45</v>
       </c>
@@ -9993,7 +10074,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>46</v>
       </c>
@@ -10012,7 +10093,7 @@
         <v>184320</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>47</v>
       </c>
@@ -10031,7 +10112,7 @@
         <v>197280</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <v>48</v>
       </c>
@@ -10050,7 +10131,7 @@
         <v>210880</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <v>49</v>
       </c>
@@ -10069,7 +10150,7 @@
         <v>225120</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>50</v>
       </c>
@@ -10100,7 +10181,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>51</v>
       </c>
@@ -10119,7 +10200,7 @@
         <v>258240</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <v>52</v>
       </c>
@@ -10138,7 +10219,7 @@
         <v>277760</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <v>53</v>
       </c>
@@ -10157,7 +10238,7 @@
         <v>298560</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>54</v>
       </c>
@@ -10176,7 +10257,7 @@
         <v>320640</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>55</v>
       </c>
@@ -10195,7 +10276,7 @@
         <v>344000</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <v>56</v>
       </c>
@@ -10214,7 +10295,7 @@
         <v>368640</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <v>57</v>
       </c>
@@ -10237,7 +10318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>58</v>
       </c>
@@ -10256,7 +10337,7 @@
         <v>421760</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>59</v>
       </c>
@@ -10275,7 +10356,7 @@
         <v>450240</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <v>60</v>
       </c>
@@ -10294,7 +10375,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C156">
         <f>C155/3000</f>
         <v>200</v>
@@ -10328,85 +10409,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89F718F-C75E-4BD2-BD59-BB51B5AA6C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="92" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0.5" style="129" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="93" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="92" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.5" style="98" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" customWidth="1"/>
+    <col min="8" max="8" width="24.59765625" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" style="93" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="160" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="140" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="137" t="s">
-        <v>375</v>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="157" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="103" t="s">
+        <v>366</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="138" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="137" t="s">
-        <v>375</v>
+        <v>365</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="163"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="103" t="s">
+        <v>366</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="J2" s="138" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="141"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="158"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="80">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C3" s="81">
         <v>29</v>
@@ -10419,7 +10500,7 @@
         <f>INT(D3/3000)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="127"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -10438,12 +10519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="80">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C4" s="81">
         <v>51</v>
@@ -10453,10 +10534,10 @@
         <v>30600</v>
       </c>
       <c r="E4" s="93">
-        <f t="shared" ref="E4:E5" si="0">INT(D4/3000)</f>
+        <f t="shared" ref="E4" si="0">INT(D4/3000)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="127"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="80">
         <v>2</v>
       </c>
@@ -10471,16 +10552,16 @@
         <v>70200</v>
       </c>
       <c r="K4" s="93">
-        <f t="shared" ref="K4:K5" si="1">INT(J4/3000)</f>
+        <f t="shared" ref="K4" si="1">INT(J4/3000)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="80">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C5" s="81">
         <v>66</v>
@@ -10493,7 +10574,7 @@
         <f>C5</f>
         <v>66</v>
       </c>
-      <c r="F5" s="127"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="80">
         <v>3</v>
       </c>
@@ -10512,98 +10593,98 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="93">
         <f>SUM(E3:E5)</f>
         <v>76</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="122" t="s">
-        <v>377</v>
-      </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
       <c r="K6" s="93">
         <f>SUM(K3:K5)</f>
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="129" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="134" t="s">
-        <v>369</v>
-      </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="134" t="s">
+    <row r="7" spans="1:11" s="98" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="160" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="162" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="G8" s="160" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="137" t="s">
-        <v>375</v>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="103" t="s">
+        <v>366</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C9" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="163"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="J9" s="104" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" s="163"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="80">
+        <v>1</v>
+      </c>
+      <c r="B10" s="91" t="s">
         <v>374</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>381</v>
-      </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="137" t="s">
-        <v>375</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="138" t="s">
-        <v>381</v>
-      </c>
-      <c r="K9" s="139"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="80">
-        <v>1</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>383</v>
       </c>
       <c r="C10" s="81">
         <v>124</v>
@@ -10616,12 +10697,12 @@
         <f>INT(D10/3000)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="127"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="80">
         <v>1</v>
       </c>
       <c r="H10" s="91" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I10" s="81">
         <v>4</v>
@@ -10635,12 +10716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="80">
         <v>2</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C11" s="81">
         <v>140</v>
@@ -10650,15 +10731,15 @@
         <v>84000</v>
       </c>
       <c r="E11" s="93">
-        <f t="shared" ref="E11:E12" si="2">INT(D11/3000)</f>
+        <f t="shared" ref="E11" si="2">INT(D11/3000)</f>
         <v>28</v>
       </c>
-      <c r="F11" s="127"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="80">
         <v>2</v>
       </c>
       <c r="H11" s="91" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I11" s="81">
         <v>70</v>
@@ -10672,12 +10753,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="80">
         <v>3</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C12" s="81">
         <v>289</v>
@@ -10690,12 +10771,12 @@
         <f>C12</f>
         <v>289</v>
       </c>
-      <c r="F12" s="127"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="80">
         <v>3</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I12" s="81">
         <v>218</v>
@@ -10709,1475 +10790,1475 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
-        <v>377</v>
-      </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="93">
         <f>SUM(E10:E12)</f>
         <v>321</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="122" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
       <c r="K13" s="93">
         <f>SUM(K10:K12)</f>
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="129" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="132"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="134" t="s">
+    <row r="14" spans="1:11" s="98" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="101"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="160" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="134" t="s">
-        <v>400</v>
-      </c>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="142"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="143" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16" s="122" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>374</v>
-      </c>
-      <c r="D16" s="144" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="145" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="143" t="s">
-        <v>375</v>
-      </c>
-      <c r="H16" s="122" t="s">
-        <v>376</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>374</v>
-      </c>
-      <c r="J16" s="144" t="s">
-        <v>381</v>
-      </c>
-      <c r="K16" s="145" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="143"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="148"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="148"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="149">
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="164"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="165" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="166" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="154" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="165" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="I16" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="J16" s="166" t="s">
+        <v>372</v>
+      </c>
+      <c r="K16" s="154" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="165"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="155"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="155"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="105">
         <v>1</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C18" s="150">
+        <v>392</v>
+      </c>
+      <c r="C18" s="106">
         <v>41</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152">
+      <c r="D18" s="107"/>
+      <c r="E18" s="156">
         <f>INT((INT(C18/3)+C19)/3)</f>
         <v>15</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="105">
         <v>1</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="I18" s="150">
+        <v>407</v>
+      </c>
+      <c r="I18" s="106">
         <v>114</v>
       </c>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152">
+      <c r="J18" s="107"/>
+      <c r="K18" s="156">
         <f>INT((INT(I18/3)+I19)/3)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="153">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="108">
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C19" s="90">
         <v>33</v>
       </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="148"/>
-      <c r="G19" s="153">
+      <c r="D19" s="109"/>
+      <c r="E19" s="155"/>
+      <c r="G19" s="108">
         <v>2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="I19" s="90">
         <v>24</v>
       </c>
-      <c r="J19" s="154"/>
-      <c r="K19" s="148"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="153">
+      <c r="J19" s="109"/>
+      <c r="K19" s="155"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="108">
         <v>3</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C20" s="90">
         <v>1</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155">
+      <c r="D20" s="109"/>
+      <c r="E20" s="110">
         <f>C20</f>
         <v>1</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="108">
         <v>3</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="I20" s="90">
         <v>0</v>
       </c>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155">
+      <c r="J20" s="109"/>
+      <c r="K20" s="110">
         <f>I20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="156">
+    <row r="21" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="111">
         <f>SUM(E18:E20)</f>
         <v>16</v>
       </c>
-      <c r="F21" s="157"/>
-      <c r="G21" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="156">
+      <c r="F21" s="112"/>
+      <c r="G21" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="111">
         <f>SUM(K18:K20)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="153">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="108">
         <v>1</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C22" s="90">
         <v>19</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="148">
+      <c r="D22" s="109"/>
+      <c r="E22" s="155">
         <f>INT((INT(C22/3)+C23)/3)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="153">
+      <c r="G22" s="108">
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I22" s="90">
         <v>34</v>
       </c>
-      <c r="J22" s="154"/>
-      <c r="K22" s="148">
+      <c r="J22" s="109"/>
+      <c r="K22" s="155">
         <f>INT((INT(I22/3)+I23)/3)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="153">
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="108">
         <v>2</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
       </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="148"/>
-      <c r="G23" s="153">
+      <c r="D23" s="109"/>
+      <c r="E23" s="155"/>
+      <c r="G23" s="108">
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I23" s="90">
         <v>52</v>
       </c>
-      <c r="J23" s="154"/>
-      <c r="K23" s="148"/>
-    </row>
-    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="153">
+      <c r="J23" s="109"/>
+      <c r="K23" s="155"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="108">
         <v>3</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C24" s="90">
         <v>1</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155">
+      <c r="D24" s="109"/>
+      <c r="E24" s="110">
         <f>C24</f>
         <v>1</v>
       </c>
-      <c r="G24" s="153">
+      <c r="G24" s="108">
         <v>3</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="I24" s="90">
         <v>8</v>
       </c>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155">
+      <c r="J24" s="109"/>
+      <c r="K24" s="110">
         <f>I24</f>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="156">
+    <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="111">
         <f>SUM(E22:E24)</f>
         <v>3</v>
       </c>
-      <c r="F25" s="157"/>
-      <c r="G25" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="156">
+      <c r="F25" s="112"/>
+      <c r="G25" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="111">
         <f>SUM(K22:K24)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="153">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="108">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C26" s="90">
         <v>11</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="148">
+      <c r="D26" s="109"/>
+      <c r="E26" s="155">
         <f>INT((INT(C26/3)+C27)/3)</f>
         <v>15</v>
       </c>
-      <c r="G26" s="153">
+      <c r="G26" s="108">
         <v>1</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="I26" s="15">
         <v>42</v>
       </c>
-      <c r="J26" s="154"/>
-      <c r="K26" s="148">
+      <c r="J26" s="109"/>
+      <c r="K26" s="155">
         <f>INT((INT(I26/3)+I27)/3)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="153">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="108">
         <v>2</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C27" s="90">
         <v>42</v>
       </c>
-      <c r="D27" s="154"/>
-      <c r="E27" s="148"/>
-      <c r="G27" s="153">
+      <c r="D27" s="109"/>
+      <c r="E27" s="155"/>
+      <c r="G27" s="108">
         <v>2</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="I27" s="15">
         <v>11</v>
       </c>
-      <c r="J27" s="154"/>
-      <c r="K27" s="148"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="153">
+      <c r="J27" s="109"/>
+      <c r="K27" s="155"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="108">
         <v>3</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C28" s="90">
         <v>12</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155">
+      <c r="D28" s="109"/>
+      <c r="E28" s="110">
         <f>C28</f>
         <v>12</v>
       </c>
-      <c r="G28" s="153">
+      <c r="G28" s="108">
         <v>3</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I28" s="15">
         <v>4</v>
       </c>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155">
+      <c r="J28" s="109"/>
+      <c r="K28" s="110">
         <f>I28</f>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="156">
+    <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="111">
         <f>SUM(E26:E28)</f>
         <v>27</v>
       </c>
-      <c r="F29" s="157"/>
-      <c r="G29" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="156">
+      <c r="F29" s="112"/>
+      <c r="G29" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="111">
         <f>SUM(K26:K28)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="153">
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="108">
         <v>1</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C30" s="90">
         <v>46</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="148">
+      <c r="D30" s="109"/>
+      <c r="E30" s="155">
         <f>INT((INT(C30/3)+C31)/3)</f>
         <v>22</v>
       </c>
-      <c r="G30" s="153">
+      <c r="G30" s="108">
         <v>1</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="I30" s="90">
         <v>18</v>
       </c>
-      <c r="J30" s="154"/>
-      <c r="K30" s="148">
+      <c r="J30" s="109"/>
+      <c r="K30" s="155">
         <f>INT((INT(I30/3)+I31)/3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="153">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="108">
         <v>2</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C31" s="90">
         <v>51</v>
       </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="148"/>
-      <c r="G31" s="153">
+      <c r="D31" s="109"/>
+      <c r="E31" s="155"/>
+      <c r="G31" s="108">
         <v>2</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I31" s="90">
         <v>8</v>
       </c>
-      <c r="J31" s="154"/>
-      <c r="K31" s="148"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="153">
+      <c r="J31" s="109"/>
+      <c r="K31" s="155"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="108">
         <v>3</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
       </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="155">
+      <c r="D32" s="109"/>
+      <c r="E32" s="110">
         <f>C32</f>
         <v>1</v>
       </c>
-      <c r="G32" s="153">
+      <c r="G32" s="108">
         <v>3</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I32" s="90">
         <v>1</v>
       </c>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155">
+      <c r="J32" s="109"/>
+      <c r="K32" s="110">
         <f>I32</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="156">
+    <row r="33" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="111">
         <f>SUM(E30:E32)</f>
         <v>23</v>
       </c>
-      <c r="F33" s="157"/>
-      <c r="G33" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="156">
+      <c r="F33" s="112"/>
+      <c r="G33" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="111">
         <f>SUM(K30:K32)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="153">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="108">
         <v>1</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C34" s="90">
         <v>9</v>
       </c>
-      <c r="D34" s="154"/>
-      <c r="E34" s="148">
+      <c r="D34" s="109"/>
+      <c r="E34" s="155">
         <f>INT((INT(C34/3)+C35)/3)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="153">
+      <c r="G34" s="108">
         <v>1</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I34" s="90">
         <v>69</v>
       </c>
-      <c r="J34" s="154"/>
-      <c r="K34" s="148">
+      <c r="J34" s="109"/>
+      <c r="K34" s="155">
         <f>INT((INT(I34/3)+I35)/3)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="153">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="108">
         <v>2</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C35" s="90">
         <v>13</v>
       </c>
-      <c r="D35" s="154"/>
-      <c r="E35" s="148"/>
-      <c r="G35" s="153">
+      <c r="D35" s="109"/>
+      <c r="E35" s="155"/>
+      <c r="G35" s="108">
         <v>2</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I35" s="90">
         <v>22</v>
       </c>
-      <c r="J35" s="154"/>
-      <c r="K35" s="148"/>
-    </row>
-    <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="153">
+      <c r="J35" s="109"/>
+      <c r="K35" s="155"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="108">
         <v>3</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
       </c>
-      <c r="D36" s="154"/>
-      <c r="E36" s="155">
+      <c r="D36" s="109"/>
+      <c r="E36" s="110">
         <f>C36</f>
         <v>1</v>
       </c>
-      <c r="G36" s="153">
+      <c r="G36" s="108">
         <v>3</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I36" s="90">
         <v>6</v>
       </c>
-      <c r="J36" s="154"/>
-      <c r="K36" s="155">
+      <c r="J36" s="109"/>
+      <c r="K36" s="110">
         <f>I36</f>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="156">
+    <row r="37" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="111">
         <f>SUM(E34:E36)</f>
         <v>6</v>
       </c>
-      <c r="F37" s="157"/>
-      <c r="G37" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="156">
+      <c r="F37" s="112"/>
+      <c r="G37" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="111">
         <f>SUM(K34:K36)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="129" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="133"/>
-      <c r="E38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="132"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="134" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="142"/>
-      <c r="G39" s="100" t="s">
-        <v>436</v>
-      </c>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="143" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" s="122" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="122" t="s">
-        <v>374</v>
-      </c>
-      <c r="D40" s="144" t="s">
-        <v>381</v>
-      </c>
-      <c r="E40" s="145" t="s">
-        <v>382</v>
-      </c>
-      <c r="G40" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="124">
+    <row r="38" spans="1:11" s="98" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="102"/>
+      <c r="E38" s="101"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="101"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="164"/>
+      <c r="G39" s="132" t="s">
+        <v>427</v>
+      </c>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="165" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="166" t="s">
+        <v>372</v>
+      </c>
+      <c r="E40" s="154" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" s="132" t="s">
+        <v>365</v>
+      </c>
+      <c r="H40" s="132"/>
+      <c r="I40" s="167">
         <v>7</v>
       </c>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="143"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="148"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="132"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="149">
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+    </row>
+    <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="165"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="155"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="101"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="105">
         <v>1</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C42" s="150">
+        <v>380</v>
+      </c>
+      <c r="C42" s="106">
         <v>50</v>
       </c>
-      <c r="D42" s="151"/>
-      <c r="E42" s="152">
+      <c r="D42" s="107"/>
+      <c r="E42" s="156">
         <f>INT((INT(C42/3)+C43)/3)</f>
         <v>14</v>
       </c>
-      <c r="G42" s="134" t="s">
-        <v>437</v>
-      </c>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="142"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="153">
+      <c r="G42" s="160" t="s">
+        <v>428</v>
+      </c>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="164"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="108">
         <v>2</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C43" s="90">
         <v>28</v>
       </c>
-      <c r="D43" s="154"/>
-      <c r="E43" s="148"/>
-      <c r="G43" s="143" t="s">
-        <v>375</v>
-      </c>
-      <c r="H43" s="122" t="s">
-        <v>376</v>
-      </c>
-      <c r="I43" s="122" t="s">
-        <v>374</v>
-      </c>
-      <c r="J43" s="144" t="s">
-        <v>381</v>
-      </c>
-      <c r="K43" s="145" t="s">
+      <c r="D43" s="109"/>
+      <c r="E43" s="155"/>
+      <c r="G43" s="165" t="s">
+        <v>366</v>
+      </c>
+      <c r="H43" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="I43" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" s="166" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" s="154" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="108">
+        <v>3</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="153">
-        <v>3</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>391</v>
       </c>
       <c r="C44" s="90">
         <v>16</v>
       </c>
-      <c r="D44" s="154"/>
-      <c r="E44" s="155">
+      <c r="D44" s="109"/>
+      <c r="E44" s="110">
         <f>C44</f>
         <v>16</v>
       </c>
-      <c r="G44" s="146"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="139"/>
-    </row>
-    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="156">
+      <c r="G44" s="168"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="163"/>
+    </row>
+    <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="111">
         <f>SUM(E42:E44)</f>
         <v>30</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="108">
         <v>1</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="I45" s="90">
         <v>17</v>
       </c>
-      <c r="J45" s="154"/>
-      <c r="K45" s="148">
+      <c r="J45" s="109"/>
+      <c r="K45" s="155">
         <f>INT((INT(I45/3)+I46)/3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="149">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="105">
         <v>1</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C46" s="150">
+        <v>383</v>
+      </c>
+      <c r="C46" s="106">
         <v>149</v>
       </c>
-      <c r="D46" s="151"/>
-      <c r="E46" s="152">
+      <c r="D46" s="107"/>
+      <c r="E46" s="156">
         <f>INT((INT(C46/3)+C47)/3)</f>
         <v>17</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="108">
         <v>2</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="I46" s="90">
         <v>8</v>
       </c>
-      <c r="J46" s="154"/>
-      <c r="K46" s="148"/>
-    </row>
-    <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="153">
+      <c r="J46" s="109"/>
+      <c r="K46" s="155"/>
+    </row>
+    <row r="47" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="108">
         <v>2</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C47" s="90">
         <v>2</v>
       </c>
-      <c r="D47" s="154"/>
-      <c r="E47" s="148"/>
-      <c r="G47" s="153">
+      <c r="D47" s="109"/>
+      <c r="E47" s="155"/>
+      <c r="G47" s="108">
         <v>3</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I47" s="90">
         <v>10</v>
       </c>
-      <c r="J47" s="154"/>
-      <c r="K47" s="155">
+      <c r="J47" s="109"/>
+      <c r="K47" s="110">
         <f>I47</f>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="153">
+    <row r="48" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="108">
         <v>3</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C48" s="90">
         <v>8</v>
       </c>
-      <c r="D48" s="154"/>
-      <c r="E48" s="155">
+      <c r="D48" s="109"/>
+      <c r="E48" s="110">
         <f>C48</f>
         <v>8</v>
       </c>
-      <c r="G48" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="156">
+      <c r="G48" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="111">
         <f>SUM(K45:K47)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="156">
+    <row r="49" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="141"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="111">
         <f>SUM(E46:E48)</f>
         <v>25</v>
       </c>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="132"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="149">
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="101"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="105">
         <v>1</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C50" s="150">
+        <v>385</v>
+      </c>
+      <c r="C50" s="106">
         <v>118</v>
       </c>
-      <c r="D50" s="151"/>
-      <c r="E50" s="152">
+      <c r="D50" s="107"/>
+      <c r="E50" s="156">
         <f>INT((INT(C50/3)+C51)/3)</f>
         <v>18</v>
       </c>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="132"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="153">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="101"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="108">
         <v>2</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C51" s="90">
         <v>15</v>
       </c>
-      <c r="D51" s="154"/>
-      <c r="E51" s="148"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="132"/>
-    </row>
-    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="153">
+      <c r="D51" s="109"/>
+      <c r="E51" s="155"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="101"/>
+    </row>
+    <row r="52" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="108">
         <v>3</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C52" s="90">
         <v>2</v>
       </c>
-      <c r="D52" s="154"/>
-      <c r="E52" s="155">
+      <c r="D52" s="109"/>
+      <c r="E52" s="110">
         <f>C52</f>
         <v>2</v>
       </c>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="132"/>
-    </row>
-    <row r="53" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="156">
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="101"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" s="141"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="111">
         <f>SUM(E50:E52)</f>
         <v>20</v>
       </c>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="132"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="149">
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="101"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="105">
         <v>1</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C54" s="150">
+        <v>424</v>
+      </c>
+      <c r="C54" s="106">
         <v>13</v>
       </c>
-      <c r="D54" s="151"/>
-      <c r="E54" s="152">
+      <c r="D54" s="107"/>
+      <c r="E54" s="156">
         <f>INT((INT(C54/3)+C55)/3)</f>
         <v>4</v>
       </c>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="132"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="153">
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="101"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="108">
         <v>2</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C55" s="90">
         <v>8</v>
       </c>
-      <c r="D55" s="154"/>
-      <c r="E55" s="148"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="132"/>
-    </row>
-    <row r="56" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="153">
+      <c r="D55" s="109"/>
+      <c r="E55" s="155"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="101"/>
+    </row>
+    <row r="56" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="108">
         <v>3</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C56" s="90">
         <v>51</v>
       </c>
-      <c r="D56" s="154"/>
-      <c r="E56" s="155">
+      <c r="D56" s="109"/>
+      <c r="E56" s="110">
         <f>C56</f>
         <v>51</v>
       </c>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="132"/>
-    </row>
-    <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="156">
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="101"/>
+    </row>
+    <row r="57" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="111">
         <f>SUM(E54:E56)</f>
         <v>55</v>
       </c>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="132"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="149">
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="101"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="105">
         <v>1</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C58" s="150">
+        <v>388</v>
+      </c>
+      <c r="C58" s="106">
         <v>70</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152">
+      <c r="D58" s="107"/>
+      <c r="E58" s="156">
         <f>INT((INT(C58/3)+C59)/3)</f>
         <v>18</v>
       </c>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="132"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="153">
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="101"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="108">
         <v>2</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C59" s="90">
         <v>33</v>
       </c>
-      <c r="D59" s="154"/>
-      <c r="E59" s="148"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="132"/>
-    </row>
-    <row r="60" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="153">
+      <c r="D59" s="109"/>
+      <c r="E59" s="155"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="101"/>
+    </row>
+    <row r="60" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="108">
         <v>3</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C60" s="90">
         <v>22</v>
       </c>
-      <c r="D60" s="154"/>
-      <c r="E60" s="155">
+      <c r="D60" s="109"/>
+      <c r="E60" s="110">
         <f>C60</f>
         <v>22</v>
       </c>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="132"/>
-    </row>
-    <row r="61" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="156">
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="101"/>
+    </row>
+    <row r="61" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="111">
         <f>SUM(E58:E60)</f>
         <v>40</v>
       </c>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="132"/>
-    </row>
-    <row r="62" spans="1:11" s="129" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="133"/>
-      <c r="E62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="132"/>
-    </row>
-    <row r="63" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="134" t="s">
-        <v>441</v>
-      </c>
-      <c r="B63" s="135"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="134" t="s">
-        <v>468</v>
-      </c>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="142"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="94" t="s">
-        <v>442</v>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="101"/>
+    </row>
+    <row r="62" spans="1:11" s="98" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="102"/>
+      <c r="E62" s="101"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="101"/>
+    </row>
+    <row r="63" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="B63" s="161"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="160" t="s">
+        <v>459</v>
+      </c>
+      <c r="H63" s="161"/>
+      <c r="I63" s="161"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="164"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="126" t="s">
+        <v>433</v>
       </c>
       <c r="B64" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="C64" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="D64" s="160" t="s">
-        <v>445</v>
-      </c>
-      <c r="E64" s="161"/>
-      <c r="G64" s="94" t="s">
-        <v>442</v>
+      <c r="C64" s="175" t="s">
+        <v>435</v>
+      </c>
+      <c r="D64" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="E64" s="172"/>
+      <c r="G64" s="126" t="s">
+        <v>433</v>
       </c>
       <c r="H64" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="I64" s="159" t="s">
+      <c r="I64" s="175" t="s">
+        <v>435</v>
+      </c>
+      <c r="J64" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" s="172"/>
+    </row>
+    <row r="65" spans="1:11" s="91" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="152"/>
+      <c r="B65" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C65" s="176"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="174"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I65" s="176"/>
+      <c r="J65" s="173"/>
+      <c r="K65" s="174"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="126">
+        <v>1</v>
+      </c>
+      <c r="B66" s="113" t="s">
+        <v>437</v>
+      </c>
+      <c r="C66" s="127">
+        <v>23</v>
+      </c>
+      <c r="D66" s="171" t="s">
+        <v>446</v>
+      </c>
+      <c r="E66" s="172"/>
+      <c r="G66" s="126">
+        <v>1</v>
+      </c>
+      <c r="H66" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="I66" s="127">
+        <v>0</v>
+      </c>
+      <c r="J66" s="178" t="s">
+        <v>462</v>
+      </c>
+      <c r="K66" s="179"/>
+    </row>
+    <row r="67" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="152"/>
+      <c r="B67" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67" s="170"/>
+      <c r="D67" s="173"/>
+      <c r="E67" s="174"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="114" t="s">
+        <v>461</v>
+      </c>
+      <c r="I67" s="170"/>
+      <c r="J67" s="180"/>
+      <c r="K67" s="181"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="126">
+        <v>2</v>
+      </c>
+      <c r="B68" s="113" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" s="127">
+        <v>0</v>
+      </c>
+      <c r="D68" s="171" t="s">
+        <v>447</v>
+      </c>
+      <c r="E68" s="172"/>
+      <c r="G68" s="126">
+        <v>2</v>
+      </c>
+      <c r="H68" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="I68" s="127">
+        <v>5</v>
+      </c>
+      <c r="J68" s="178" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" s="179"/>
+    </row>
+    <row r="69" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="152"/>
+      <c r="B69" s="114" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69" s="170"/>
+      <c r="D69" s="173"/>
+      <c r="E69" s="174"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="114" t="s">
+        <v>464</v>
+      </c>
+      <c r="I69" s="170"/>
+      <c r="J69" s="180"/>
+      <c r="K69" s="181"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="126">
+        <v>3</v>
+      </c>
+      <c r="B70" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C70" s="127">
+        <v>0</v>
+      </c>
+      <c r="D70" s="171" t="s">
+        <v>448</v>
+      </c>
+      <c r="E70" s="172"/>
+      <c r="G70" s="126">
+        <v>3</v>
+      </c>
+      <c r="H70" s="113" t="s">
+        <v>466</v>
+      </c>
+      <c r="I70" s="127">
+        <v>0</v>
+      </c>
+      <c r="J70" s="182" t="s">
+        <v>468</v>
+      </c>
+      <c r="K70" s="183"/>
+    </row>
+    <row r="71" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="152"/>
+      <c r="B71" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" s="170"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="174"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="114" t="s">
+        <v>467</v>
+      </c>
+      <c r="I71" s="170"/>
+      <c r="J71" s="184"/>
+      <c r="K71" s="185"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="126">
+        <v>4</v>
+      </c>
+      <c r="B72" s="113" t="s">
         <v>444</v>
       </c>
-      <c r="J64" s="160" t="s">
+      <c r="C72" s="127">
+        <v>2</v>
+      </c>
+      <c r="D72" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="E72" s="172"/>
+      <c r="G72" s="126">
+        <v>4</v>
+      </c>
+      <c r="H72" s="113" t="s">
+        <v>469</v>
+      </c>
+      <c r="I72" s="127">
+        <v>0</v>
+      </c>
+      <c r="J72" s="177" t="s">
+        <v>458</v>
+      </c>
+      <c r="K72" s="172"/>
+    </row>
+    <row r="73" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="152"/>
+      <c r="B73" s="114" t="s">
         <v>445</v>
       </c>
-      <c r="K64" s="161"/>
-    </row>
-    <row r="65" spans="1:11" s="91" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="162"/>
-      <c r="B65" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="C65" s="163"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="I65" s="163"/>
-      <c r="J65" s="164"/>
-      <c r="K65" s="165"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="94">
-        <v>1</v>
-      </c>
-      <c r="B66" s="166" t="s">
-        <v>446</v>
-      </c>
-      <c r="C66" s="95">
+      <c r="C73" s="170"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="174"/>
+      <c r="G73" s="152"/>
+      <c r="H73" s="114" t="s">
+        <v>470</v>
+      </c>
+      <c r="I73" s="170"/>
+      <c r="J73" s="173"/>
+      <c r="K73" s="174"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="126">
+        <v>5</v>
+      </c>
+      <c r="B74" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" s="127">
+        <v>0</v>
+      </c>
+      <c r="D74" s="171" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="172"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="101"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="152"/>
+      <c r="B75" s="114" t="s">
+        <v>451</v>
+      </c>
+      <c r="C75" s="170"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="174"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="98"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="101"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="126">
+        <v>6</v>
+      </c>
+      <c r="B76" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="C76" s="127">
         <v>23</v>
       </c>
-      <c r="D66" s="167" t="s">
+      <c r="D76" s="177" t="s">
         <v>455</v>
       </c>
-      <c r="E66" s="161"/>
-      <c r="G66" s="94">
-        <v>1</v>
-      </c>
-      <c r="H66" s="166" t="s">
-        <v>469</v>
-      </c>
-      <c r="I66" s="95">
-        <v>0</v>
-      </c>
-      <c r="J66" s="172" t="s">
-        <v>471</v>
-      </c>
-      <c r="K66" s="173"/>
-    </row>
-    <row r="67" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="162"/>
-      <c r="B67" s="168" t="s">
-        <v>447</v>
-      </c>
-      <c r="C67" s="169"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="165"/>
-      <c r="G67" s="162"/>
-      <c r="H67" s="168" t="s">
-        <v>470</v>
-      </c>
-      <c r="I67" s="169"/>
-      <c r="J67" s="174"/>
-      <c r="K67" s="175"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="94">
-        <v>2</v>
-      </c>
-      <c r="B68" s="166" t="s">
-        <v>449</v>
-      </c>
-      <c r="C68" s="95">
-        <v>0</v>
-      </c>
-      <c r="D68" s="167" t="s">
+      <c r="E76" s="172"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="101"/>
+    </row>
+    <row r="77" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="152"/>
+      <c r="B77" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C77" s="170"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="174"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="101"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="126">
+        <v>7</v>
+      </c>
+      <c r="B78" s="113" t="s">
         <v>456</v>
       </c>
-      <c r="E68" s="161"/>
-      <c r="G68" s="94">
-        <v>2</v>
-      </c>
-      <c r="H68" s="166" t="s">
-        <v>472</v>
-      </c>
-      <c r="I68" s="95">
-        <v>5</v>
-      </c>
-      <c r="J68" s="172" t="s">
-        <v>474</v>
-      </c>
-      <c r="K68" s="173"/>
-    </row>
-    <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="162"/>
-      <c r="B69" s="168" t="s">
-        <v>450</v>
-      </c>
-      <c r="C69" s="169"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="165"/>
-      <c r="G69" s="162"/>
-      <c r="H69" s="168" t="s">
-        <v>473</v>
-      </c>
-      <c r="I69" s="169"/>
-      <c r="J69" s="174"/>
-      <c r="K69" s="175"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="94">
-        <v>3</v>
-      </c>
-      <c r="B70" s="166" t="s">
-        <v>451</v>
-      </c>
-      <c r="C70" s="95">
-        <v>0</v>
-      </c>
-      <c r="D70" s="167" t="s">
+      <c r="C78" s="127">
+        <v>23</v>
+      </c>
+      <c r="D78" s="177" t="s">
+        <v>458</v>
+      </c>
+      <c r="E78" s="172"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="102"/>
+      <c r="K78" s="101"/>
+    </row>
+    <row r="79" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="152"/>
+      <c r="B79" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="E70" s="161"/>
-      <c r="G70" s="94">
-        <v>3</v>
-      </c>
-      <c r="H70" s="166" t="s">
-        <v>475</v>
-      </c>
-      <c r="I70" s="95">
-        <v>0</v>
-      </c>
-      <c r="J70" s="176" t="s">
-        <v>477</v>
-      </c>
-      <c r="K70" s="177"/>
-    </row>
-    <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="162"/>
-      <c r="B71" s="168" t="s">
-        <v>452</v>
-      </c>
-      <c r="C71" s="169"/>
-      <c r="D71" s="164"/>
-      <c r="E71" s="165"/>
-      <c r="G71" s="162"/>
-      <c r="H71" s="168" t="s">
-        <v>476</v>
-      </c>
-      <c r="I71" s="169"/>
-      <c r="J71" s="178"/>
-      <c r="K71" s="179"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="94">
-        <v>4</v>
-      </c>
-      <c r="B72" s="166" t="s">
-        <v>453</v>
-      </c>
-      <c r="C72" s="95">
-        <v>2</v>
-      </c>
-      <c r="D72" s="160" t="s">
-        <v>458</v>
-      </c>
-      <c r="E72" s="161"/>
-      <c r="G72" s="94">
-        <v>4</v>
-      </c>
-      <c r="H72" s="166" t="s">
-        <v>478</v>
-      </c>
-      <c r="I72" s="95">
-        <v>0</v>
-      </c>
-      <c r="J72" s="160" t="s">
-        <v>467</v>
-      </c>
-      <c r="K72" s="161"/>
-    </row>
-    <row r="73" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="162"/>
-      <c r="B73" s="168" t="s">
-        <v>454</v>
-      </c>
-      <c r="C73" s="169"/>
-      <c r="D73" s="164"/>
-      <c r="E73" s="165"/>
-      <c r="G73" s="162"/>
-      <c r="H73" s="168" t="s">
-        <v>479</v>
-      </c>
-      <c r="I73" s="169"/>
-      <c r="J73" s="164"/>
-      <c r="K73" s="165"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="94">
-        <v>5</v>
-      </c>
-      <c r="B74" s="166" t="s">
-        <v>459</v>
-      </c>
-      <c r="C74" s="95">
-        <v>0</v>
-      </c>
-      <c r="D74" s="167" t="s">
-        <v>461</v>
-      </c>
-      <c r="E74" s="161"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="129"/>
-      <c r="I74" s="129"/>
-      <c r="J74" s="133"/>
-      <c r="K74" s="132"/>
-    </row>
-    <row r="75" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="162"/>
-      <c r="B75" s="168" t="s">
-        <v>460</v>
-      </c>
-      <c r="C75" s="169"/>
-      <c r="D75" s="164"/>
-      <c r="E75" s="165"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="133"/>
-      <c r="K75" s="132"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="94">
-        <v>6</v>
-      </c>
-      <c r="B76" s="166" t="s">
-        <v>462</v>
-      </c>
-      <c r="C76" s="95">
-        <v>23</v>
-      </c>
-      <c r="D76" s="160" t="s">
-        <v>464</v>
-      </c>
-      <c r="E76" s="161"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="129"/>
-      <c r="I76" s="129"/>
-      <c r="J76" s="133"/>
-      <c r="K76" s="132"/>
-    </row>
-    <row r="77" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="162"/>
-      <c r="B77" s="170" t="s">
-        <v>463</v>
-      </c>
-      <c r="C77" s="169"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="165"/>
-      <c r="G77" s="129"/>
-      <c r="H77" s="129"/>
-      <c r="I77" s="129"/>
-      <c r="J77" s="133"/>
-      <c r="K77" s="132"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="94">
-        <v>7</v>
-      </c>
-      <c r="B78" s="166" t="s">
-        <v>465</v>
-      </c>
-      <c r="C78" s="95">
-        <v>23</v>
-      </c>
-      <c r="D78" s="160" t="s">
-        <v>467</v>
-      </c>
-      <c r="E78" s="161"/>
-      <c r="G78" s="129"/>
-      <c r="H78" s="129"/>
-      <c r="I78" s="129"/>
-      <c r="J78" s="133"/>
-      <c r="K78" s="132"/>
-    </row>
-    <row r="79" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="162"/>
-      <c r="B79" s="171" t="s">
-        <v>466</v>
-      </c>
-      <c r="C79" s="169"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="165"/>
-      <c r="G79" s="129"/>
-      <c r="H79" s="129"/>
-      <c r="I79" s="129"/>
-      <c r="J79" s="133"/>
-      <c r="K79" s="132"/>
-    </row>
-    <row r="80" spans="1:11" s="129" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="133"/>
-      <c r="E80" s="132"/>
-      <c r="J80" s="133"/>
-      <c r="K80" s="132"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="174"/>
+      <c r="G79" s="98"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="101"/>
+    </row>
+    <row r="80" spans="1:11" s="98" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D80" s="102"/>
+      <c r="E80" s="101"/>
+      <c r="J80" s="102"/>
+      <c r="K80" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="112">
@@ -12224,6 +12305,8 @@
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="I66:I67"/>
     <mergeCell ref="J66:K67"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="H43:H44"/>
@@ -12233,8 +12316,6 @@
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A61:D61"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="E46:E47"/>
@@ -12305,40 +12386,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="129" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="137" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="79" t="s">
         <v>348</v>
       </c>
@@ -12348,8 +12429,14 @@
       <c r="G2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>346</v>
       </c>
@@ -12365,9 +12452,12 @@
       <c r="F3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="118">
+      <c r="G3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="186">
         <v>1</v>
       </c>
       <c r="B4" s="68">
@@ -12384,9 +12474,12 @@
       <c r="F4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
+      <c r="G4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="189"/>
       <c r="B5" s="65">
         <v>20</v>
       </c>
@@ -12401,9 +12494,12 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
+      <c r="G5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="189"/>
       <c r="B6" s="65">
         <v>30</v>
       </c>
@@ -12418,9 +12514,12 @@
       <c r="F6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+      <c r="G6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="189"/>
       <c r="B7" s="65">
         <v>40</v>
       </c>
@@ -12435,9 +12534,12 @@
       <c r="F7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+      <c r="G7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="189"/>
       <c r="B8" s="65">
         <v>50</v>
       </c>
@@ -12450,8 +12552,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="119"/>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="187"/>
       <c r="B9" s="66">
         <v>60</v>
       </c>
@@ -12464,8 +12566,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="118">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="186">
         <v>10</v>
       </c>
       <c r="B10" s="68">
@@ -12480,8 +12582,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="189"/>
       <c r="B11" s="65">
         <v>30</v>
       </c>
@@ -12494,8 +12596,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="189"/>
       <c r="B12" s="65">
         <v>40</v>
       </c>
@@ -12508,8 +12610,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="189"/>
       <c r="B13" s="65">
         <v>50</v>
       </c>
@@ -12522,8 +12624,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="119"/>
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="187"/>
       <c r="B14" s="66">
         <v>60</v>
       </c>
@@ -12536,8 +12638,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="118">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="186">
         <v>20</v>
       </c>
       <c r="B15" s="68">
@@ -12552,8 +12654,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="189"/>
       <c r="B16" s="65">
         <v>40</v>
       </c>
@@ -12566,8 +12668,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="189"/>
       <c r="B17" s="65">
         <v>50</v>
       </c>
@@ -12580,8 +12682,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="119"/>
+    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="187"/>
       <c r="B18" s="66">
         <v>60</v>
       </c>
@@ -12594,8 +12696,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="118">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="186">
         <v>30</v>
       </c>
       <c r="B19" s="68">
@@ -12610,8 +12712,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="189"/>
       <c r="B20" s="65">
         <v>50</v>
       </c>
@@ -12624,8 +12726,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="119"/>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="187"/>
       <c r="B21" s="66">
         <v>60</v>
       </c>
@@ -12638,8 +12740,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="118">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="186">
         <v>40</v>
       </c>
       <c r="B22" s="68">
@@ -12654,8 +12756,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="119"/>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="187"/>
       <c r="B23" s="66">
         <v>60</v>
       </c>
@@ -12668,7 +12770,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="69">
         <v>50</v>
       </c>
@@ -12700,36 +12802,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.59765625" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="85" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="123"/>
-      <c r="E1" s="100" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="141"/>
+      <c r="C1" s="190"/>
+      <c r="E1" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="141"/>
+      <c r="G1" s="190"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
         <v>350</v>
       </c>
@@ -12749,7 +12851,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="57">
         <v>1</v>
       </c>
@@ -12769,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="57">
         <v>2</v>
       </c>
@@ -12791,7 +12893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="57">
         <v>3</v>
       </c>
@@ -12813,7 +12915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="57">
         <v>4</v>
       </c>
@@ -12835,7 +12937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="57">
         <v>5</v>
       </c>
@@ -12857,7 +12959,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="57">
         <v>6</v>
       </c>
@@ -12879,7 +12981,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="57">
         <v>7</v>
       </c>
@@ -12901,7 +13003,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="57">
         <v>8</v>
       </c>
@@ -12923,7 +13025,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="57">
         <v>9</v>
       </c>
@@ -12945,7 +13047,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="57">
         <v>10</v>
       </c>
@@ -12967,7 +13069,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="57">
         <v>11</v>
       </c>
@@ -12989,7 +13091,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="57">
         <v>12</v>
       </c>
@@ -13011,7 +13113,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="57">
         <v>13</v>
       </c>
@@ -13033,7 +13135,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="57">
         <v>14</v>
       </c>
@@ -13055,7 +13157,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="57">
         <v>15</v>
       </c>
@@ -13077,7 +13179,7 @@
         <v>8165</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="57">
         <v>16</v>
       </c>
@@ -13099,7 +13201,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="57">
         <v>17</v>
       </c>
@@ -13121,7 +13223,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="57">
         <v>18</v>
       </c>
@@ -13143,7 +13245,7 @@
         <v>12065</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="57">
         <v>19</v>
       </c>
@@ -13165,7 +13267,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="57">
         <v>20</v>
       </c>
@@ -13187,7 +13289,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="57">
         <v>21</v>
       </c>
@@ -13209,7 +13311,7 @@
         <v>17340</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="57">
         <v>22</v>
       </c>
@@ -13231,7 +13333,7 @@
         <v>19825</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="57">
         <v>23</v>
       </c>
@@ -13253,7 +13355,7 @@
         <v>22460</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="57">
         <v>24</v>
       </c>
@@ -13275,7 +13377,7 @@
         <v>25240</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="57">
         <v>25</v>
       </c>
@@ -13297,7 +13399,7 @@
         <v>28165</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="57">
         <v>26</v>
       </c>
@@ -13319,7 +13421,7 @@
         <v>31240</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="57">
         <v>27</v>
       </c>
@@ -13341,7 +13443,7 @@
         <v>34460</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="57">
         <v>28</v>
       </c>
@@ -13363,7 +13465,7 @@
         <v>37825</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="57">
         <v>29</v>
       </c>
@@ -13385,7 +13487,7 @@
         <v>41340</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="57">
         <v>30</v>
       </c>
@@ -13407,7 +13509,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="57">
         <v>31</v>
       </c>
@@ -13429,7 +13531,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="57">
         <v>32</v>
       </c>
@@ -13451,7 +13553,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="57">
         <v>33</v>
       </c>
@@ -13473,7 +13575,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="57">
         <v>34</v>
       </c>
@@ -13495,7 +13597,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="57">
         <v>35</v>
       </c>
@@ -13517,7 +13619,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="57">
         <v>36</v>
       </c>
@@ -13539,7 +13641,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="57">
         <v>37</v>
       </c>
@@ -13561,7 +13663,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="57">
         <v>38</v>
       </c>
@@ -13583,7 +13685,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="57">
         <v>39</v>
       </c>
@@ -13605,7 +13707,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="57">
         <v>40</v>
       </c>
@@ -13627,7 +13729,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="57">
         <v>41</v>
       </c>
@@ -13649,7 +13751,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="57">
         <v>42</v>
       </c>
@@ -13671,7 +13773,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="57">
         <v>43</v>
       </c>
@@ -13693,7 +13795,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="57">
         <v>44</v>
       </c>
@@ -13715,7 +13817,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="57">
         <v>45</v>
       </c>
@@ -13737,7 +13839,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="57">
         <v>46</v>
       </c>
@@ -13759,7 +13861,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="57">
         <v>47</v>
       </c>
@@ -13781,7 +13883,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="57">
         <v>48</v>
       </c>
@@ -13803,7 +13905,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="57">
         <v>49</v>
       </c>
@@ -13825,7 +13927,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="57">
         <v>50</v>
       </c>
@@ -13847,7 +13949,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="57">
         <v>51</v>
       </c>
@@ -13869,7 +13971,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="57">
         <v>52</v>
       </c>
@@ -13891,7 +13993,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="57">
         <v>53</v>
       </c>
@@ -13913,7 +14015,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="57">
         <v>54</v>
       </c>
@@ -13935,7 +14037,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="57">
         <v>55</v>
       </c>
@@ -13957,7 +14059,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="57">
         <v>56</v>
       </c>
@@ -13979,7 +14081,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="57">
         <v>57</v>
       </c>
@@ -14001,7 +14103,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="57">
         <v>58</v>
       </c>
@@ -14023,7 +14125,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="57">
         <v>59</v>
       </c>
@@ -14045,7 +14147,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="61">
         <v>60</v>
       </c>
@@ -14078,193 +14180,578 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.75" style="27"/>
-    <col min="8" max="8" width="1.75" style="27" customWidth="1"/>
-    <col min="9" max="9" width="15" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="27"/>
+    <col min="1" max="1" width="1.09765625" style="85" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" style="122" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.69921875" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
-        <v>490</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="85" t="s">
+    <row r="1" spans="2:5" s="85" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="132" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="85" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="187" t="s">
-        <v>503</v>
-      </c>
-      <c r="C2" s="80">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="191" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="80">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="192"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="80">
+        <v>2</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="192"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="80">
+        <v>3</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="193" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="125"/>
+      <c r="D5" s="80">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="132"/>
+      <c r="D6" s="80">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="132"/>
+      <c r="D7" s="80">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="193" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="80">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="132"/>
+      <c r="D9" s="80">
+        <v>2</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="100" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="I2" s="100" t="s">
-        <v>369</v>
-      </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="188"/>
-      <c r="C3" s="80">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="132"/>
+      <c r="D10" s="80">
+        <v>3</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="195" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="197"/>
+      <c r="D11" s="80">
+        <v>1</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="196"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="80">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="G3" s="100"/>
-      <c r="I3" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="J3" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="K3" s="100"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="188"/>
-      <c r="C4" s="80">
+      <c r="E12" s="122" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="196"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="80">
         <v>3</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E13" s="122" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="194" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="132" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="80">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="80">
-        <v>1</v>
-      </c>
-      <c r="F4" s="80">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="194"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="80">
         <v>2</v>
       </c>
-      <c r="G4" s="80">
+      <c r="E15" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="194"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="80">
         <v>3</v>
       </c>
-      <c r="I4" s="80">
-        <v>1</v>
-      </c>
-      <c r="J4" s="80">
+      <c r="E16" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="194"/>
+      <c r="C17" s="132" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="194"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="80">
         <v>2</v>
       </c>
-      <c r="K4" s="80">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="194"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="80">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="158" t="s">
-        <v>504</v>
-      </c>
-      <c r="C5" s="80">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="80">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="194"/>
+      <c r="C20" s="132" t="s">
+        <v>520</v>
+      </c>
+      <c r="D20" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="194"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="80">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="100"/>
-      <c r="C7" s="80">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="194"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="80">
         <v>3</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="158" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="80">
-        <v>1</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="100"/>
-      <c r="C9" s="80">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="194"/>
+      <c r="C23" s="132" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="194"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="80">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="80">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="194"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="80">
         <v>3</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>388</v>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="194"/>
+      <c r="C26" s="132" t="s">
+        <v>522</v>
+      </c>
+      <c r="D26" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="194"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="194"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="194" t="s">
+        <v>524</v>
+      </c>
+      <c r="C29" s="132" t="s">
+        <v>526</v>
+      </c>
+      <c r="D29" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="194"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="194"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="194"/>
+      <c r="C32" s="132" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="194"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="194"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="194"/>
+      <c r="C35" s="132" t="s">
+        <v>528</v>
+      </c>
+      <c r="D35" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="194"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="194"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="194"/>
+      <c r="C38" s="132" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="194"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="194"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="194"/>
+      <c r="C41" s="132" t="s">
+        <v>529</v>
+      </c>
+      <c r="D41" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="194"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="194"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="194" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" s="132" t="s">
+        <v>526</v>
+      </c>
+      <c r="D44" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="194"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="194"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="194"/>
+      <c r="C47" s="132" t="s">
+        <v>530</v>
+      </c>
+      <c r="D47" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="194"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="194"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" s="194"/>
+      <c r="C50" s="132" t="s">
+        <v>528</v>
+      </c>
+      <c r="D50" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51" s="194"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" s="194"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="194"/>
+      <c r="C53" s="132" t="s">
+        <v>531</v>
+      </c>
+      <c r="D53" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="194"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="194"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56" s="194"/>
+      <c r="C56" s="132" t="s">
+        <v>529</v>
+      </c>
+      <c r="D56" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B57" s="194"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B58" s="194"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="195" t="s">
+        <v>527</v>
+      </c>
+      <c r="C59" s="197"/>
+      <c r="D59" s="80">
+        <v>1</v>
+      </c>
+      <c r="E59" s="122" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60" s="196"/>
+      <c r="C60" s="198"/>
+      <c r="D60" s="80">
+        <v>2</v>
+      </c>
+      <c r="E60" s="122" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B61" s="196"/>
+      <c r="C61" s="198"/>
+      <c r="D61" s="80">
+        <v>3</v>
+      </c>
+      <c r="E61" s="122" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="24">
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/게임 파일.xlsx
+++ b/게임 파일.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NIKKE DB" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="533">
   <si>
     <t>진급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2184,6 +2184,10 @@
   </si>
   <si>
     <t>지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S급 엔진 Lv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3473,6 +3477,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3497,24 +3507,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3524,46 +3555,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3572,87 +3660,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3668,6 +3678,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3676,21 +3695,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4045,10 +4049,10 @@
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="133"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="7" t="s">
         <v>228</v>
       </c>
@@ -4063,35 +4067,35 @@
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
     </row>
     <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
@@ -6822,11 +6826,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="136" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="46" t="s">
         <v>55</v>
       </c>
@@ -6850,7 +6854,7 @@
       <c r="A2" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="140" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="21">
@@ -6875,7 +6879,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="137"/>
-      <c r="B3" s="139"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="21">
         <v>2</v>
       </c>
@@ -6897,7 +6901,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="137"/>
-      <c r="B4" s="150"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="21">
         <v>3</v>
       </c>
@@ -6918,7 +6922,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="147"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
@@ -6939,7 +6943,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="148"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="25" t="s">
         <v>54</v>
       </c>
@@ -6962,11 +6966,11 @@
       <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="147" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="121">
         <f>COUNTA(D2:D6)</f>
         <v>3</v>
@@ -6990,7 +6994,7 @@
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="143" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -7019,7 +7023,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="143"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
@@ -7040,8 +7044,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="143"/>
-      <c r="B10" s="138" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="146" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="20">
@@ -7067,8 +7071,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="143"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="52">
         <v>2</v>
       </c>
@@ -7092,8 +7096,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="143"/>
-      <c r="B12" s="139"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="52">
         <v>3</v>
       </c>
@@ -7117,8 +7121,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="143"/>
-      <c r="B13" s="139"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="52">
         <v>4</v>
       </c>
@@ -7142,8 +7146,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="143"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="52">
         <v>5</v>
       </c>
@@ -7165,11 +7169,11 @@
       <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="147" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="121">
         <f>COUNTA(D8:D14)</f>
         <v>6</v>
@@ -7193,7 +7197,7 @@
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="142" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="54" t="s">
@@ -7220,7 +7224,7 @@
       <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="151"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
@@ -7244,8 +7248,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="151"/>
-      <c r="B18" s="138" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="146" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="20">
@@ -7268,8 +7272,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="151"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="52">
         <v>2</v>
       </c>
@@ -7291,8 +7295,8 @@
       <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="151"/>
-      <c r="B20" s="139"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="52">
         <v>3</v>
       </c>
@@ -7316,8 +7320,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="151"/>
-      <c r="B21" s="139"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="52">
         <v>4</v>
       </c>
@@ -7341,8 +7345,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="138"/>
-      <c r="B22" s="139"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="52">
         <v>5</v>
       </c>
@@ -7366,11 +7370,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="147" t="s">
         <v>485</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="121">
         <f>COUNTA(D16:D22)</f>
         <v>7</v>
@@ -7394,7 +7398,7 @@
       <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="143" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -7421,7 +7425,7 @@
       <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="143"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
@@ -7442,7 +7446,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="143"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="25" t="s">
         <v>54</v>
       </c>
@@ -7465,11 +7469,11 @@
       <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="147" t="s">
         <v>485</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="121">
         <f>COUNTA(D24:D26)</f>
         <v>1</v>
@@ -7493,10 +7497,10 @@
       <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="143" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="19">
@@ -7520,7 +7524,7 @@
       <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="145"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="137"/>
       <c r="C29" s="21">
         <v>2</v>
@@ -7545,7 +7549,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="145"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="17" t="s">
         <v>53</v>
       </c>
@@ -7568,7 +7572,7 @@
       <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="145"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="51" t="s">
         <v>54</v>
       </c>
@@ -7595,11 +7599,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="147" t="s">
         <v>485</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="121">
         <f>COUNTA(D28:D31)</f>
         <v>3</v>
@@ -7623,12 +7627,12 @@
       <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="46">
         <f>SUM(E32,E27,E23,E15,E7)</f>
         <v>1</v>
@@ -7660,13 +7664,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B10:B14"/>
@@ -7676,6 +7673,13 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7686,7 +7690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7720,7 +7724,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -7740,7 +7744,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="147"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
@@ -7758,7 +7762,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="152"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
@@ -7776,7 +7780,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="128" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="83" t="s">
@@ -7796,7 +7800,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="147"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
@@ -7814,7 +7818,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="152"/>
+      <c r="A7" s="154"/>
       <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
@@ -7832,7 +7836,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="128" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="83" t="s">
@@ -7852,7 +7856,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="147"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
@@ -7870,7 +7874,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="152"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
@@ -7888,7 +7892,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="128" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="83" t="s">
@@ -7908,7 +7912,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="147"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
@@ -7926,7 +7930,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="152"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="13" t="s">
         <v>54</v>
       </c>
@@ -7944,7 +7948,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="128" t="s">
         <v>235</v>
       </c>
       <c r="B14" s="83" t="s">
@@ -7964,7 +7968,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="147"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="10" t="s">
         <v>53</v>
       </c>
@@ -7982,7 +7986,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="152"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
@@ -8053,31 +8057,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="134" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="E1" s="132" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="E1" s="134" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="I1" s="132" t="s">
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="I1" s="134" t="s">
         <v>473</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="M1" s="134" t="s">
         <v>474</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="Q1" s="132" t="s">
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="Q1" s="134" t="s">
         <v>475</v>
       </c>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="85" t="s">
@@ -8349,10 +8353,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q156"/>
+  <dimension ref="A1:Q157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8523,7 +8527,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>8</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>9</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>11</v>
       </c>
@@ -8578,7 +8582,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>12</v>
       </c>
@@ -8592,194 +8596,199 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <f>SUM(B12:B22)</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="91">
+        <f t="shared" ref="C23:D23" si="0">SUM(C12:C22)</f>
+        <v>15</v>
+      </c>
+      <c r="D23" s="91">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="91">
+        <f>B23*5</f>
+        <v>25</v>
+      </c>
+      <c r="C24" s="91">
+        <f t="shared" ref="C24:D24" si="1">C23*5</f>
+        <v>75</v>
+      </c>
+      <c r="D24" s="91">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>12000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>28000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>15</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>200000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="N32" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
         <v>496</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>497</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>498</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>499</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>500</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>501</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>502</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="153" t="s">
+      <c r="B35" s="155" t="s">
         <v>503</v>
       </c>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="N34" t="s">
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="N35" t="s">
         <v>24</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O35" t="s">
         <v>25</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P35" t="s">
         <v>26</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q35" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="E35" t="s">
-        <v>504</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>36000</v>
-      </c>
-      <c r="P35">
-        <f>O35/2</f>
-        <v>18000</v>
-      </c>
-      <c r="Q35">
-        <v>36000</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="E36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>36000</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P40" si="0">O36/2</f>
+        <f>O36/2</f>
         <v>18000</v>
       </c>
       <c r="Q36">
@@ -8788,44 +8797,44 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="E37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>120000</v>
+        <v>36000</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f t="shared" ref="P37:P41" si="2">O37/2</f>
+        <v>18000</v>
       </c>
       <c r="Q37">
-        <v>120000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="E38" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O38">
         <v>120000</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="Q38">
@@ -8834,39 +8843,44 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="E39" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>120000</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="Q39">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
         <v>5</v>
       </c>
-      <c r="O39">
-        <v>180000</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-      <c r="Q39">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
+      <c r="E40" t="s">
+        <v>413</v>
+      </c>
       <c r="N40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O40">
         <v>180000</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
       <c r="Q40">
@@ -8877,15 +8891,28 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
+      <c r="N41">
+        <v>6</v>
+      </c>
       <c r="O41">
-        <f>SUM(O35:O40)</f>
-        <v>672000</v>
+        <v>180000</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+      <c r="Q41">
+        <v>180000</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
+      <c r="O42">
+        <f>SUM(O36:O41)</f>
+        <v>672000</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
@@ -9142,1266 +9169,1271 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>40</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>31</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>32</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>5</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>39</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>31</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>32</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="3">
-        <v>1</v>
-      </c>
-      <c r="B96" s="3">
-        <v>50</v>
-      </c>
-      <c r="C96">
-        <f>SUM(B96)</f>
-        <v>50</v>
-      </c>
-      <c r="F96">
-        <v>40</v>
-      </c>
-      <c r="G96">
-        <f>SUM(F96)</f>
-        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C97">
-        <f>SUM(B97,C96)</f>
-        <v>150</v>
+        <f>SUM(B97)</f>
+        <v>50</v>
       </c>
       <c r="F97">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <f>SUM(F97,G96)</f>
-        <v>120</v>
+        <f>SUM(F97)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98" s="3">
+        <v>100</v>
+      </c>
+      <c r="C98">
+        <f>SUM(B98,C97)</f>
         <v>150</v>
       </c>
-      <c r="C98">
-        <f t="shared" ref="C98:C155" si="1">SUM(B98,C97)</f>
-        <v>300</v>
-      </c>
       <c r="F98">
+        <v>80</v>
+      </c>
+      <c r="G98">
+        <f>SUM(F98,G97)</f>
         <v>120</v>
-      </c>
-      <c r="G98">
-        <f t="shared" ref="G98:G155" si="2">SUM(F98,G97)</f>
-        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" ref="C99:C156" si="3">SUM(B99,C98)</f>
+        <v>300</v>
       </c>
       <c r="F99">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <f t="shared" ref="G99:G156" si="4">SUM(F99,G98)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>800</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="F100">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
-        <v>640</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="F101">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
-        <v>960</v>
+        <f t="shared" si="4"/>
+        <v>640</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>1700</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="F102">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="G102">
-        <f t="shared" si="2"/>
-        <v>1360</v>
+        <f t="shared" si="4"/>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>2300</v>
+        <f t="shared" si="3"/>
+        <v>1700</v>
       </c>
       <c r="F103">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="G103">
-        <f t="shared" si="2"/>
-        <v>1840</v>
+        <f t="shared" si="4"/>
+        <v>1360</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="3">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>3050</v>
+        <f t="shared" si="3"/>
+        <v>2300</v>
       </c>
       <c r="F104">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="G104">
-        <f t="shared" si="2"/>
-        <v>2440</v>
+        <f t="shared" si="4"/>
+        <v>1840</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="3">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="D105" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105">
-        <v>12000</v>
+        <f t="shared" si="3"/>
+        <v>3050</v>
       </c>
       <c r="F105">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="G105">
-        <f t="shared" si="2"/>
-        <v>3200</v>
-      </c>
-      <c r="H105" t="s">
-        <v>45</v>
-      </c>
-      <c r="I105">
-        <v>9600</v>
+        <f t="shared" si="4"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="3">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>5200</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106">
+        <v>12000</v>
       </c>
       <c r="F106">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="G106">
-        <f t="shared" si="2"/>
-        <v>4160</v>
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+      <c r="H106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106">
+        <v>9600</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" s="3">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>6490</v>
+        <f t="shared" si="3"/>
+        <v>5200</v>
       </c>
       <c r="F107">
-        <v>1030</v>
+        <v>960</v>
       </c>
       <c r="G107">
-        <f t="shared" si="2"/>
-        <v>5190</v>
+        <f t="shared" si="4"/>
+        <v>4160</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" s="3">
-        <v>1380</v>
+        <v>1290</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>7870</v>
+        <f t="shared" si="3"/>
+        <v>6490</v>
       </c>
       <c r="F108">
-        <v>1105</v>
+        <v>1030</v>
       </c>
       <c r="G108">
-        <f t="shared" si="2"/>
-        <v>6295</v>
+        <f t="shared" si="4"/>
+        <v>5190</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" s="3">
-        <v>1465</v>
+        <v>1380</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>9335</v>
+        <f t="shared" si="3"/>
+        <v>7870</v>
       </c>
       <c r="F109">
-        <v>1170</v>
+        <v>1105</v>
       </c>
       <c r="G109">
-        <f t="shared" si="2"/>
-        <v>7465</v>
+        <f t="shared" si="4"/>
+        <v>6295</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" s="3">
-        <v>1555</v>
+        <v>1465</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>10890</v>
+        <f t="shared" si="3"/>
+        <v>9335</v>
       </c>
       <c r="F110">
-        <v>1245</v>
+        <v>1170</v>
       </c>
       <c r="G110">
-        <f t="shared" si="2"/>
-        <v>8710</v>
+        <f t="shared" si="4"/>
+        <v>7465</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="3">
-        <v>1640</v>
+        <v>1555</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>12530</v>
+        <f t="shared" si="3"/>
+        <v>10890</v>
       </c>
       <c r="F111">
-        <v>1310</v>
+        <v>1245</v>
       </c>
       <c r="G111">
-        <f t="shared" si="2"/>
-        <v>10020</v>
+        <f t="shared" si="4"/>
+        <v>8710</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" s="3">
-        <v>1735</v>
+        <v>1640</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>14265</v>
+        <f t="shared" si="3"/>
+        <v>12530</v>
       </c>
       <c r="F112">
-        <v>1390</v>
+        <v>1310</v>
       </c>
       <c r="G112">
-        <f t="shared" si="2"/>
-        <v>11410</v>
+        <f t="shared" si="4"/>
+        <v>10020</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113" s="3">
-        <v>1825</v>
+        <v>1735</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>16090</v>
+        <f t="shared" si="3"/>
+        <v>14265</v>
       </c>
       <c r="F113">
-        <v>1460</v>
+        <v>1390</v>
       </c>
       <c r="G113">
-        <f t="shared" si="2"/>
-        <v>12870</v>
+        <f t="shared" si="4"/>
+        <v>11410</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B114" s="3">
-        <v>1910</v>
+        <v>1825</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>18000</v>
+        <f t="shared" si="3"/>
+        <v>16090</v>
       </c>
       <c r="F114">
-        <v>1530</v>
+        <v>1460</v>
       </c>
       <c r="G114">
-        <f t="shared" si="2"/>
-        <v>14400</v>
+        <f t="shared" si="4"/>
+        <v>12870</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="3">
-        <v>2000</v>
+        <v>1910</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="D115" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115">
-        <v>28000</v>
+        <f t="shared" si="3"/>
+        <v>18000</v>
       </c>
       <c r="F115">
-        <v>1600</v>
+        <v>1530</v>
       </c>
       <c r="G115">
-        <f t="shared" si="2"/>
-        <v>16000</v>
-      </c>
-      <c r="H115" t="s">
-        <v>44</v>
-      </c>
-      <c r="I115">
-        <v>22400</v>
+        <f t="shared" si="4"/>
+        <v>14400</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B116" s="3">
-        <v>3120</v>
+        <v>2000</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>23120</v>
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="D116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116">
+        <v>28000</v>
       </c>
       <c r="F116">
-        <v>2495</v>
+        <v>1600</v>
       </c>
       <c r="G116">
-        <f t="shared" si="2"/>
-        <v>18495</v>
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="H116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116">
+        <v>22400</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B117" s="3">
-        <v>3315</v>
+        <v>3120</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>26435</v>
+        <f t="shared" si="3"/>
+        <v>23120</v>
       </c>
       <c r="F117">
-        <v>2650</v>
+        <v>2495</v>
       </c>
       <c r="G117">
-        <f t="shared" si="2"/>
-        <v>21145</v>
+        <f t="shared" si="4"/>
+        <v>18495</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="3">
-        <v>3510</v>
+        <v>3315</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>29945</v>
+        <f t="shared" si="3"/>
+        <v>26435</v>
       </c>
       <c r="F118">
-        <v>2810</v>
+        <v>2650</v>
       </c>
       <c r="G118">
-        <f t="shared" si="2"/>
-        <v>23955</v>
+        <f t="shared" si="4"/>
+        <v>21145</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="3">
-        <v>3705</v>
+        <v>3510</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>33650</v>
+        <f t="shared" si="3"/>
+        <v>29945</v>
       </c>
       <c r="F119">
-        <v>2965</v>
+        <v>2810</v>
       </c>
       <c r="G119">
-        <f t="shared" si="2"/>
-        <v>26920</v>
+        <f t="shared" si="4"/>
+        <v>23955</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B120" s="3">
-        <v>3900</v>
+        <v>3705</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>37550</v>
+        <f t="shared" si="3"/>
+        <v>33650</v>
       </c>
       <c r="F120">
-        <v>3120</v>
+        <v>2965</v>
       </c>
       <c r="G120">
-        <f t="shared" si="2"/>
-        <v>30040</v>
+        <f t="shared" si="4"/>
+        <v>26920</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B121" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>41650</v>
+        <f t="shared" si="3"/>
+        <v>37550</v>
       </c>
       <c r="F121">
-        <v>3280</v>
+        <v>3120</v>
       </c>
       <c r="G121">
-        <f t="shared" si="2"/>
-        <v>33320</v>
+        <f t="shared" si="4"/>
+        <v>30040</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B122" s="3">
-        <v>4295</v>
+        <v>4100</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>45945</v>
+        <f t="shared" si="3"/>
+        <v>41650</v>
       </c>
       <c r="F122">
-        <v>3435</v>
+        <v>3280</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
-        <v>36755</v>
+        <f t="shared" si="4"/>
+        <v>33320</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B123" s="3">
-        <v>4490</v>
+        <v>4295</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>50435</v>
+        <f t="shared" si="3"/>
+        <v>45945</v>
       </c>
       <c r="F123">
-        <v>3590</v>
+        <v>3435</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
-        <v>40345</v>
+        <f t="shared" si="4"/>
+        <v>36755</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" s="3">
-        <v>4685</v>
+        <v>4490</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>55120</v>
+        <f t="shared" si="3"/>
+        <v>50435</v>
       </c>
       <c r="F124">
-        <v>3750</v>
+        <v>3590</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
-        <v>44095</v>
+        <f t="shared" si="4"/>
+        <v>40345</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" s="3">
-        <v>4880</v>
+        <v>4685</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-      <c r="D125" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125">
-        <v>60000</v>
+        <f t="shared" si="3"/>
+        <v>55120</v>
       </c>
       <c r="F125">
-        <v>3905</v>
+        <v>3750</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-      <c r="H125" t="s">
-        <v>43</v>
-      </c>
-      <c r="I125">
-        <v>48000</v>
+        <f t="shared" si="4"/>
+        <v>44095</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B126" s="3">
-        <v>7200</v>
+        <v>4880</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>67200</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126">
+        <v>60000</v>
       </c>
       <c r="F126">
-        <v>5760</v>
+        <v>3905</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
-        <v>53760</v>
+        <f t="shared" si="4"/>
+        <v>48000</v>
+      </c>
+      <c r="H126" t="s">
+        <v>43</v>
+      </c>
+      <c r="I126">
+        <v>48000</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>74800</v>
+        <f t="shared" si="3"/>
+        <v>67200</v>
       </c>
       <c r="F127">
-        <v>6080</v>
+        <v>5760</v>
       </c>
       <c r="G127">
-        <f t="shared" si="2"/>
-        <v>59840</v>
+        <f t="shared" si="4"/>
+        <v>53760</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B128" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>82800</v>
+        <f t="shared" si="3"/>
+        <v>74800</v>
       </c>
       <c r="F128">
-        <v>6400</v>
+        <v>6080</v>
       </c>
       <c r="G128">
-        <f t="shared" si="2"/>
-        <v>66240</v>
+        <f t="shared" si="4"/>
+        <v>59840</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B129" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>91200</v>
+        <f t="shared" si="3"/>
+        <v>82800</v>
       </c>
       <c r="F129">
-        <v>6720</v>
+        <v>6400</v>
       </c>
       <c r="G129">
-        <f t="shared" si="2"/>
-        <v>72960</v>
+        <f t="shared" si="4"/>
+        <v>66240</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>91200</v>
       </c>
       <c r="F130">
-        <v>7040</v>
+        <v>6720</v>
       </c>
       <c r="G130">
-        <f t="shared" si="2"/>
-        <v>80000</v>
+        <f t="shared" si="4"/>
+        <v>72960</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B131" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="C131">
-        <f t="shared" si="1"/>
-        <v>109200</v>
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
       <c r="F131">
-        <v>7360</v>
+        <v>7040</v>
       </c>
       <c r="G131">
-        <f t="shared" si="2"/>
-        <v>87360</v>
+        <f t="shared" si="4"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B132" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="C132">
-        <f t="shared" si="1"/>
-        <v>118800</v>
+        <f t="shared" si="3"/>
+        <v>109200</v>
       </c>
       <c r="F132">
-        <v>7680</v>
+        <v>7360</v>
       </c>
       <c r="G132">
-        <f t="shared" si="2"/>
-        <v>95040</v>
+        <f t="shared" si="4"/>
+        <v>87360</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="C133">
-        <f t="shared" si="1"/>
-        <v>128800</v>
+        <f t="shared" si="3"/>
+        <v>118800</v>
       </c>
       <c r="F133">
-        <v>8000</v>
+        <v>7680</v>
       </c>
       <c r="G133">
-        <f t="shared" si="2"/>
-        <v>103040</v>
+        <f t="shared" si="4"/>
+        <v>95040</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="C134">
-        <f t="shared" si="1"/>
-        <v>139200</v>
+        <f t="shared" si="3"/>
+        <v>128800</v>
       </c>
       <c r="F134">
-        <v>8320</v>
+        <v>8000</v>
       </c>
       <c r="G134">
-        <f t="shared" si="2"/>
-        <v>111360</v>
+        <f t="shared" si="4"/>
+        <v>103040</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B135" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="C135">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="D135" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135">
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>139200</v>
       </c>
       <c r="F135">
-        <v>8640</v>
+        <v>8320</v>
       </c>
       <c r="G135">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H135" t="s">
-        <v>42</v>
-      </c>
-      <c r="I135">
-        <v>80000</v>
+        <f t="shared" si="4"/>
+        <v>111360</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B136" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="C136">
-        <f t="shared" si="1"/>
-        <v>161400</v>
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136">
+        <v>100000</v>
       </c>
       <c r="F136">
-        <v>9120</v>
+        <v>8640</v>
       </c>
       <c r="G136">
-        <f t="shared" si="2"/>
-        <v>129120</v>
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H136" t="s">
+        <v>42</v>
+      </c>
+      <c r="I136">
+        <v>80000</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B137" s="3">
-        <v>12200</v>
+        <v>11400</v>
       </c>
       <c r="C137">
-        <f t="shared" si="1"/>
-        <v>173600</v>
+        <f t="shared" si="3"/>
+        <v>161400</v>
       </c>
       <c r="F137">
-        <v>9760</v>
+        <v>9120</v>
       </c>
       <c r="G137">
-        <f t="shared" si="2"/>
-        <v>138880</v>
+        <f t="shared" si="4"/>
+        <v>129120</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B138" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="C138">
-        <f t="shared" si="1"/>
-        <v>186600</v>
+        <f t="shared" si="3"/>
+        <v>173600</v>
       </c>
       <c r="F138">
-        <v>10400</v>
+        <v>9760</v>
       </c>
       <c r="G138">
-        <f t="shared" si="2"/>
-        <v>149280</v>
+        <f t="shared" si="4"/>
+        <v>138880</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B139" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="C139">
-        <f t="shared" si="1"/>
-        <v>200400</v>
+        <f t="shared" si="3"/>
+        <v>186600</v>
       </c>
       <c r="F139">
-        <v>11040</v>
+        <v>10400</v>
       </c>
       <c r="G139">
-        <f t="shared" si="2"/>
-        <v>160320</v>
+        <f t="shared" si="4"/>
+        <v>149280</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B140" s="3">
-        <v>14600</v>
+        <v>13800</v>
       </c>
       <c r="C140">
-        <f t="shared" si="1"/>
-        <v>215000</v>
+        <f t="shared" si="3"/>
+        <v>200400</v>
       </c>
       <c r="F140">
-        <v>11680</v>
+        <v>11040</v>
       </c>
       <c r="G140">
-        <f t="shared" si="2"/>
-        <v>172000</v>
+        <f t="shared" si="4"/>
+        <v>160320</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B141" s="3">
-        <v>15400</v>
+        <v>14600</v>
       </c>
       <c r="C141">
-        <f t="shared" si="1"/>
-        <v>230400</v>
+        <f t="shared" si="3"/>
+        <v>215000</v>
       </c>
       <c r="F141">
-        <v>12320</v>
+        <v>11680</v>
       </c>
       <c r="G141">
-        <f t="shared" si="2"/>
-        <v>184320</v>
+        <f t="shared" si="4"/>
+        <v>172000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B142" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="C142">
-        <f t="shared" si="1"/>
-        <v>246600</v>
+        <f t="shared" si="3"/>
+        <v>230400</v>
       </c>
       <c r="F142">
-        <v>12960</v>
+        <v>12320</v>
       </c>
       <c r="G142">
-        <f t="shared" si="2"/>
-        <v>197280</v>
+        <f t="shared" si="4"/>
+        <v>184320</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B143" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="C143">
-        <f t="shared" si="1"/>
-        <v>263600</v>
+        <f t="shared" si="3"/>
+        <v>246600</v>
       </c>
       <c r="F143">
-        <v>13600</v>
+        <v>12960</v>
       </c>
       <c r="G143">
-        <f t="shared" si="2"/>
-        <v>210880</v>
+        <f t="shared" si="4"/>
+        <v>197280</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B144" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="C144">
-        <f t="shared" si="1"/>
-        <v>281400</v>
+        <f t="shared" si="3"/>
+        <v>263600</v>
       </c>
       <c r="F144">
-        <v>14240</v>
+        <v>13600</v>
       </c>
       <c r="G144">
-        <f t="shared" si="2"/>
-        <v>225120</v>
+        <f t="shared" si="4"/>
+        <v>210880</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
-        <v>50</v>
-      </c>
-      <c r="B145">
-        <v>18600</v>
+        <v>49</v>
+      </c>
+      <c r="B145" s="3">
+        <v>17800</v>
       </c>
       <c r="C145">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="D145" t="s">
-        <v>37</v>
-      </c>
-      <c r="E145">
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>281400</v>
       </c>
       <c r="F145">
-        <v>14880</v>
+        <v>14240</v>
       </c>
       <c r="G145">
-        <f t="shared" si="2"/>
-        <v>240000</v>
-      </c>
-      <c r="H145" t="s">
-        <v>41</v>
-      </c>
-      <c r="I145">
-        <v>160000</v>
+        <f t="shared" si="4"/>
+        <v>225120</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>51</v>
-      </c>
-      <c r="B146" s="3">
-        <v>22800</v>
+        <v>50</v>
+      </c>
+      <c r="B146">
+        <v>18600</v>
       </c>
       <c r="C146">
-        <f t="shared" si="1"/>
-        <v>322800</v>
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146">
+        <v>200000</v>
       </c>
       <c r="F146">
-        <v>18240</v>
+        <v>14880</v>
       </c>
       <c r="G146">
-        <f t="shared" si="2"/>
-        <v>258240</v>
+        <f t="shared" si="4"/>
+        <v>240000</v>
+      </c>
+      <c r="H146" t="s">
+        <v>41</v>
+      </c>
+      <c r="I146">
+        <v>160000</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B147" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="C147">
-        <f t="shared" si="1"/>
-        <v>347200</v>
+        <f t="shared" si="3"/>
+        <v>322800</v>
       </c>
       <c r="F147">
-        <v>19520</v>
+        <v>18240</v>
       </c>
       <c r="G147">
-        <f t="shared" si="2"/>
-        <v>277760</v>
+        <f t="shared" si="4"/>
+        <v>258240</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B148" s="3">
-        <v>26000</v>
+        <v>24400</v>
       </c>
       <c r="C148">
-        <f t="shared" si="1"/>
-        <v>373200</v>
+        <f t="shared" si="3"/>
+        <v>347200</v>
       </c>
       <c r="F148">
-        <v>20800</v>
+        <v>19520</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
-        <v>298560</v>
+        <f t="shared" si="4"/>
+        <v>277760</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149" s="3">
-        <v>27600</v>
+        <v>26000</v>
       </c>
       <c r="C149">
-        <f t="shared" si="1"/>
-        <v>400800</v>
+        <f t="shared" si="3"/>
+        <v>373200</v>
       </c>
       <c r="F149">
-        <v>22080</v>
+        <v>20800</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
-        <v>320640</v>
+        <f t="shared" si="4"/>
+        <v>298560</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B150" s="3">
-        <v>29200</v>
+        <v>27600</v>
       </c>
       <c r="C150">
-        <f t="shared" si="1"/>
-        <v>430000</v>
+        <f t="shared" si="3"/>
+        <v>400800</v>
       </c>
       <c r="F150">
-        <v>23360</v>
+        <v>22080</v>
       </c>
       <c r="G150">
-        <f t="shared" si="2"/>
-        <v>344000</v>
+        <f t="shared" si="4"/>
+        <v>320640</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B151" s="3">
-        <v>30800</v>
+        <v>29200</v>
       </c>
       <c r="C151">
-        <f t="shared" si="1"/>
-        <v>460800</v>
+        <f t="shared" si="3"/>
+        <v>430000</v>
       </c>
       <c r="F151">
-        <v>24640</v>
+        <v>23360</v>
       </c>
       <c r="G151">
-        <f t="shared" si="2"/>
-        <v>368640</v>
+        <f t="shared" si="4"/>
+        <v>344000</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
+        <v>56</v>
+      </c>
+      <c r="B152" s="3">
+        <v>30800</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="3"/>
+        <v>460800</v>
+      </c>
+      <c r="F152">
+        <v>24640</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>368640</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="3">
         <v>57</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B153" s="3">
         <v>32400</v>
       </c>
-      <c r="C152">
-        <f t="shared" si="1"/>
+      <c r="C153">
+        <f t="shared" si="3"/>
         <v>493200</v>
       </c>
-      <c r="F152">
+      <c r="F153">
         <v>25920</v>
       </c>
-      <c r="G152">
-        <f t="shared" si="2"/>
+      <c r="G153">
+        <f t="shared" si="4"/>
         <v>394560</v>
       </c>
-      <c r="K152">
+      <c r="K153">
         <f>360000/3000</f>
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A153" s="3">
-        <v>58</v>
-      </c>
-      <c r="B153" s="3">
-        <v>34000</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="1"/>
-        <v>527200</v>
-      </c>
-      <c r="F153">
-        <v>27200</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="2"/>
-        <v>421760</v>
-      </c>
-    </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B154" s="3">
-        <v>35600</v>
+        <v>34000</v>
       </c>
       <c r="C154">
-        <f t="shared" si="1"/>
-        <v>562800</v>
+        <f t="shared" si="3"/>
+        <v>527200</v>
       </c>
       <c r="F154">
-        <v>28480</v>
+        <v>27200</v>
       </c>
       <c r="G154">
-        <f t="shared" si="2"/>
-        <v>450240</v>
+        <f t="shared" si="4"/>
+        <v>421760</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
+        <v>59</v>
+      </c>
+      <c r="B155" s="3">
+        <v>35600</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="3"/>
+        <v>562800</v>
+      </c>
+      <c r="F155">
+        <v>28480</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>450240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A156" s="3">
         <v>60</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B156" s="3">
         <v>37200</v>
       </c>
-      <c r="C155">
-        <f t="shared" si="1"/>
+      <c r="C156">
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <v>29760</v>
       </c>
-      <c r="G155">
-        <f t="shared" si="2"/>
+      <c r="G156">
+        <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C156">
-        <f>C155/3000</f>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C157">
+        <f>C156/3000</f>
         <v>200</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>38</v>
       </c>
-      <c r="E156">
-        <f>SUM(E96:E155)</f>
+      <c r="E157">
+        <f>SUM(E97:E156)</f>
         <v>400000</v>
       </c>
-      <c r="G156">
-        <f>G155/3000</f>
+      <c r="G157">
+        <f>G156/3000</f>
         <v>160</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H157" t="s">
         <v>46</v>
       </c>
-      <c r="I156">
-        <f>SUM(I96:I155)</f>
+      <c r="I157">
+        <f>SUM(I97:I156)</f>
         <v>320000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10412,7 +10444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G48" sqref="G48:J48"/>
     </sheetView>
   </sheetViews>
@@ -10433,23 +10465,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="187" t="s">
         <v>373</v>
       </c>
       <c r="F1" s="94"/>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="171" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="157" t="s">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="185" t="s">
         <v>373</v>
       </c>
     </row>
@@ -10466,7 +10498,7 @@
       <c r="D2" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="163"/>
+      <c r="E2" s="183"/>
       <c r="F2" s="95"/>
       <c r="G2" s="103" t="s">
         <v>366</v>
@@ -10480,7 +10512,7 @@
       <c r="J2" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="80">
@@ -10594,23 +10626,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="179" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
       <c r="E6" s="93">
         <f>SUM(E3:E5)</f>
         <v>76</v>
       </c>
       <c r="F6" s="96"/>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="179" t="s">
         <v>368</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="93">
         <f>SUM(K3:K5)</f>
         <v>450</v>
@@ -10630,23 +10662,23 @@
       <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162" t="s">
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="187" t="s">
         <v>373</v>
       </c>
       <c r="F8" s="94"/>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="171" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="162" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="187" t="s">
         <v>373</v>
       </c>
     </row>
@@ -10663,7 +10695,7 @@
       <c r="D9" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="163"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="95"/>
       <c r="G9" s="103" t="s">
         <v>366</v>
@@ -10677,7 +10709,7 @@
       <c r="J9" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="K9" s="163"/>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="80">
@@ -10791,23 +10823,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="179" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="93">
         <f>SUM(E10:E12)</f>
         <v>321</v>
       </c>
       <c r="F13" s="96"/>
-      <c r="G13" s="159" t="s">
+      <c r="G13" s="179" t="s">
         <v>368</v>
       </c>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
       <c r="K13" s="93">
         <f>SUM(K10:K12)</f>
         <v>235</v>
@@ -10827,65 +10859,65 @@
       <c r="K14" s="101"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="171" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="164"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="173"/>
       <c r="F15" s="97"/>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="171" t="s">
         <v>391</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="164"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="177" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="179" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="180" t="s">
         <v>372</v>
       </c>
-      <c r="E16" s="154" t="s">
+      <c r="E16" s="182" t="s">
         <v>373</v>
       </c>
-      <c r="G16" s="165" t="s">
+      <c r="G16" s="177" t="s">
         <v>366</v>
       </c>
-      <c r="H16" s="159" t="s">
+      <c r="H16" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="I16" s="159" t="s">
+      <c r="I16" s="179" t="s">
         <v>365</v>
       </c>
-      <c r="J16" s="166" t="s">
+      <c r="J16" s="180" t="s">
         <v>372</v>
       </c>
-      <c r="K16" s="154" t="s">
+      <c r="K16" s="182" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="165"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="155"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="155"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="170"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="170"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="105">
@@ -10898,7 +10930,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="107"/>
-      <c r="E18" s="156">
+      <c r="E18" s="176">
         <f>INT((INT(C18/3)+C19)/3)</f>
         <v>15</v>
       </c>
@@ -10912,7 +10944,7 @@
         <v>114</v>
       </c>
       <c r="J18" s="107"/>
-      <c r="K18" s="156">
+      <c r="K18" s="176">
         <f>INT((INT(I18/3)+I19)/3)</f>
         <v>20</v>
       </c>
@@ -10928,7 +10960,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="109"/>
-      <c r="E19" s="155"/>
+      <c r="E19" s="170"/>
       <c r="G19" s="108">
         <v>2</v>
       </c>
@@ -10939,7 +10971,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="109"/>
-      <c r="K19" s="155"/>
+      <c r="K19" s="170"/>
     </row>
     <row r="20" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="108">
@@ -10972,23 +11004,23 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="111">
         <f>SUM(E18:E20)</f>
         <v>16</v>
       </c>
       <c r="F21" s="112"/>
-      <c r="G21" s="140" t="s">
+      <c r="G21" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="111">
         <f>SUM(K18:K20)</f>
         <v>20</v>
@@ -11005,7 +11037,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="109"/>
-      <c r="E22" s="155">
+      <c r="E22" s="170">
         <f>INT((INT(C22/3)+C23)/3)</f>
         <v>2</v>
       </c>
@@ -11019,7 +11051,7 @@
         <v>34</v>
       </c>
       <c r="J22" s="109"/>
-      <c r="K22" s="155">
+      <c r="K22" s="170">
         <f>INT((INT(I22/3)+I23)/3)</f>
         <v>21</v>
       </c>
@@ -11035,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="109"/>
-      <c r="E23" s="155"/>
+      <c r="E23" s="170"/>
       <c r="G23" s="108">
         <v>2</v>
       </c>
@@ -11046,7 +11078,7 @@
         <v>52</v>
       </c>
       <c r="J23" s="109"/>
-      <c r="K23" s="155"/>
+      <c r="K23" s="170"/>
     </row>
     <row r="24" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="108">
@@ -11079,23 +11111,23 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
       <c r="E25" s="111">
         <f>SUM(E22:E24)</f>
         <v>3</v>
       </c>
       <c r="F25" s="112"/>
-      <c r="G25" s="140" t="s">
+      <c r="G25" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
       <c r="K25" s="111">
         <f>SUM(K22:K24)</f>
         <v>29</v>
@@ -11112,7 +11144,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="109"/>
-      <c r="E26" s="155">
+      <c r="E26" s="170">
         <f>INT((INT(C26/3)+C27)/3)</f>
         <v>15</v>
       </c>
@@ -11126,7 +11158,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="109"/>
-      <c r="K26" s="155">
+      <c r="K26" s="170">
         <f>INT((INT(I26/3)+I27)/3)</f>
         <v>8</v>
       </c>
@@ -11142,7 +11174,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="109"/>
-      <c r="E27" s="155"/>
+      <c r="E27" s="170"/>
       <c r="G27" s="108">
         <v>2</v>
       </c>
@@ -11153,7 +11185,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="109"/>
-      <c r="K27" s="155"/>
+      <c r="K27" s="170"/>
     </row>
     <row r="28" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="108">
@@ -11186,23 +11218,23 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
       <c r="E29" s="111">
         <f>SUM(E26:E28)</f>
         <v>27</v>
       </c>
       <c r="F29" s="112"/>
-      <c r="G29" s="140" t="s">
+      <c r="G29" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
       <c r="K29" s="111">
         <f>SUM(K26:K28)</f>
         <v>12</v>
@@ -11219,7 +11251,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="109"/>
-      <c r="E30" s="155">
+      <c r="E30" s="170">
         <f>INT((INT(C30/3)+C31)/3)</f>
         <v>22</v>
       </c>
@@ -11233,7 +11265,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="109"/>
-      <c r="K30" s="155">
+      <c r="K30" s="170">
         <f>INT((INT(I30/3)+I31)/3)</f>
         <v>4</v>
       </c>
@@ -11249,7 +11281,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="109"/>
-      <c r="E31" s="155"/>
+      <c r="E31" s="170"/>
       <c r="G31" s="108">
         <v>2</v>
       </c>
@@ -11260,7 +11292,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="109"/>
-      <c r="K31" s="155"/>
+      <c r="K31" s="170"/>
     </row>
     <row r="32" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="108">
@@ -11293,23 +11325,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="111">
         <f>SUM(E30:E32)</f>
         <v>23</v>
       </c>
       <c r="F33" s="112"/>
-      <c r="G33" s="140" t="s">
+      <c r="G33" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
       <c r="K33" s="111">
         <f>SUM(K30:K32)</f>
         <v>5</v>
@@ -11326,7 +11358,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="109"/>
-      <c r="E34" s="155">
+      <c r="E34" s="170">
         <f>INT((INT(C34/3)+C35)/3)</f>
         <v>5</v>
       </c>
@@ -11340,7 +11372,7 @@
         <v>69</v>
       </c>
       <c r="J34" s="109"/>
-      <c r="K34" s="155">
+      <c r="K34" s="170">
         <f>INT((INT(I34/3)+I35)/3)</f>
         <v>15</v>
       </c>
@@ -11356,7 +11388,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="109"/>
-      <c r="E35" s="155"/>
+      <c r="E35" s="170"/>
       <c r="G35" s="108">
         <v>2</v>
       </c>
@@ -11367,7 +11399,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="109"/>
-      <c r="K35" s="155"/>
+      <c r="K35" s="170"/>
     </row>
     <row r="36" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="108">
@@ -11400,23 +11432,23 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="111">
         <f>SUM(E34:E36)</f>
         <v>6</v>
       </c>
       <c r="F37" s="112"/>
-      <c r="G37" s="140" t="s">
+      <c r="G37" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
       <c r="K37" s="111">
         <f>SUM(K34:K36)</f>
         <v>21</v>
@@ -11429,53 +11461,53 @@
       <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="171" t="s">
         <v>422</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="164"/>
-      <c r="G39" s="132" t="s">
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="173"/>
+      <c r="G39" s="134" t="s">
         <v>427</v>
       </c>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="177" t="s">
         <v>366</v>
       </c>
-      <c r="B40" s="159" t="s">
+      <c r="B40" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="159" t="s">
+      <c r="C40" s="179" t="s">
         <v>365</v>
       </c>
-      <c r="D40" s="166" t="s">
+      <c r="D40" s="180" t="s">
         <v>372</v>
       </c>
-      <c r="E40" s="154" t="s">
+      <c r="E40" s="182" t="s">
         <v>373</v>
       </c>
-      <c r="G40" s="132" t="s">
+      <c r="G40" s="134" t="s">
         <v>365</v>
       </c>
-      <c r="H40" s="132"/>
-      <c r="I40" s="167">
+      <c r="H40" s="134"/>
+      <c r="I40" s="184">
         <v>7</v>
       </c>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="184"/>
     </row>
     <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="165"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="155"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="170"/>
       <c r="G41" s="98"/>
       <c r="H41" s="98"/>
       <c r="I41" s="98"/>
@@ -11493,17 +11525,17 @@
         <v>50</v>
       </c>
       <c r="D42" s="107"/>
-      <c r="E42" s="156">
+      <c r="E42" s="176">
         <f>INT((INT(C42/3)+C43)/3)</f>
         <v>14</v>
       </c>
-      <c r="G42" s="160" t="s">
+      <c r="G42" s="171" t="s">
         <v>428</v>
       </c>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="164"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="173"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="108">
@@ -11516,20 +11548,20 @@
         <v>28</v>
       </c>
       <c r="D43" s="109"/>
-      <c r="E43" s="155"/>
-      <c r="G43" s="165" t="s">
+      <c r="E43" s="170"/>
+      <c r="G43" s="177" t="s">
         <v>366</v>
       </c>
-      <c r="H43" s="159" t="s">
+      <c r="H43" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="I43" s="159" t="s">
+      <c r="I43" s="179" t="s">
         <v>365</v>
       </c>
-      <c r="J43" s="166" t="s">
+      <c r="J43" s="180" t="s">
         <v>372</v>
       </c>
-      <c r="K43" s="154" t="s">
+      <c r="K43" s="182" t="s">
         <v>373</v>
       </c>
     </row>
@@ -11548,19 +11580,19 @@
         <f>C44</f>
         <v>16</v>
       </c>
-      <c r="G44" s="168"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="163"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="181"/>
+      <c r="K44" s="183"/>
     </row>
     <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
       <c r="E45" s="111">
         <f>SUM(E42:E44)</f>
         <v>30</v>
@@ -11575,7 +11607,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="109"/>
-      <c r="K45" s="155">
+      <c r="K45" s="170">
         <f>INT((INT(I45/3)+I46)/3)</f>
         <v>4</v>
       </c>
@@ -11591,7 +11623,7 @@
         <v>149</v>
       </c>
       <c r="D46" s="107"/>
-      <c r="E46" s="156">
+      <c r="E46" s="176">
         <f>INT((INT(C46/3)+C47)/3)</f>
         <v>17</v>
       </c>
@@ -11605,7 +11637,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="109"/>
-      <c r="K46" s="155"/>
+      <c r="K46" s="170"/>
     </row>
     <row r="47" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="108">
@@ -11618,7 +11650,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="109"/>
-      <c r="E47" s="155"/>
+      <c r="E47" s="170"/>
       <c r="G47" s="108">
         <v>3</v>
       </c>
@@ -11649,24 +11681,24 @@
         <f>C48</f>
         <v>8</v>
       </c>
-      <c r="G48" s="140" t="s">
+      <c r="G48" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H48" s="141"/>
-      <c r="I48" s="141"/>
-      <c r="J48" s="141"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="150"/>
       <c r="K48" s="111">
         <f>SUM(K45:K47)</f>
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
       <c r="E49" s="111">
         <f>SUM(E46:E48)</f>
         <v>25</v>
@@ -11688,7 +11720,7 @@
         <v>118</v>
       </c>
       <c r="D50" s="107"/>
-      <c r="E50" s="156">
+      <c r="E50" s="176">
         <f>INT((INT(C50/3)+C51)/3)</f>
         <v>18</v>
       </c>
@@ -11709,7 +11741,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="109"/>
-      <c r="E51" s="155"/>
+      <c r="E51" s="170"/>
       <c r="G51" s="98"/>
       <c r="H51" s="98"/>
       <c r="I51" s="98"/>
@@ -11738,12 +11770,12 @@
       <c r="K52" s="101"/>
     </row>
     <row r="53" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="140" t="s">
+      <c r="A53" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
       <c r="E53" s="111">
         <f>SUM(E50:E52)</f>
         <v>20</v>
@@ -11765,7 +11797,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="107"/>
-      <c r="E54" s="156">
+      <c r="E54" s="176">
         <f>INT((INT(C54/3)+C55)/3)</f>
         <v>4</v>
       </c>
@@ -11786,7 +11818,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="109"/>
-      <c r="E55" s="155"/>
+      <c r="E55" s="170"/>
       <c r="G55" s="98"/>
       <c r="H55" s="98"/>
       <c r="I55" s="98"/>
@@ -11815,12 +11847,12 @@
       <c r="K56" s="101"/>
     </row>
     <row r="57" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="111">
         <f>SUM(E54:E56)</f>
         <v>55</v>
@@ -11842,7 +11874,7 @@
         <v>70</v>
       </c>
       <c r="D58" s="107"/>
-      <c r="E58" s="156">
+      <c r="E58" s="176">
         <f>INT((INT(C58/3)+C59)/3)</f>
         <v>18</v>
       </c>
@@ -11863,7 +11895,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="109"/>
-      <c r="E59" s="155"/>
+      <c r="E59" s="170"/>
       <c r="G59" s="98"/>
       <c r="H59" s="98"/>
       <c r="I59" s="98"/>
@@ -11892,12 +11924,12 @@
       <c r="K60" s="101"/>
     </row>
     <row r="61" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="111">
         <f>SUM(E58:E60)</f>
         <v>40</v>
@@ -11915,257 +11947,257 @@
       <c r="K62" s="101"/>
     </row>
     <row r="63" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="160" t="s">
+      <c r="A63" s="171" t="s">
         <v>432</v>
       </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="164"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="173"/>
       <c r="F63" s="112"/>
-      <c r="G63" s="160" t="s">
+      <c r="G63" s="171" t="s">
         <v>459</v>
       </c>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="164"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="172"/>
+      <c r="K63" s="173"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="128" t="s">
         <v>433</v>
       </c>
       <c r="B64" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="C64" s="175" t="s">
+      <c r="C64" s="174" t="s">
         <v>435</v>
       </c>
-      <c r="D64" s="177" t="s">
+      <c r="D64" s="157" t="s">
         <v>436</v>
       </c>
-      <c r="E64" s="172"/>
-      <c r="G64" s="126" t="s">
+      <c r="E64" s="158"/>
+      <c r="G64" s="128" t="s">
         <v>433</v>
       </c>
       <c r="H64" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="I64" s="175" t="s">
+      <c r="I64" s="174" t="s">
         <v>435</v>
       </c>
-      <c r="J64" s="177" t="s">
+      <c r="J64" s="157" t="s">
         <v>436</v>
       </c>
-      <c r="K64" s="172"/>
+      <c r="K64" s="158"/>
     </row>
     <row r="65" spans="1:11" s="91" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="152"/>
+      <c r="A65" s="154"/>
       <c r="B65" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="173"/>
-      <c r="E65" s="174"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="160"/>
       <c r="F65" s="98"/>
-      <c r="G65" s="152"/>
+      <c r="G65" s="154"/>
       <c r="H65" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="I65" s="176"/>
-      <c r="J65" s="173"/>
-      <c r="K65" s="174"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="160"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="126">
+      <c r="A66" s="128">
         <v>1</v>
       </c>
       <c r="B66" s="113" t="s">
         <v>437</v>
       </c>
-      <c r="C66" s="127">
+      <c r="C66" s="129">
         <v>23</v>
       </c>
-      <c r="D66" s="171" t="s">
+      <c r="D66" s="169" t="s">
         <v>446</v>
       </c>
-      <c r="E66" s="172"/>
-      <c r="G66" s="126">
+      <c r="E66" s="158"/>
+      <c r="G66" s="128">
         <v>1</v>
       </c>
       <c r="H66" s="113" t="s">
         <v>460</v>
       </c>
-      <c r="I66" s="127">
+      <c r="I66" s="129">
         <v>0</v>
       </c>
-      <c r="J66" s="178" t="s">
+      <c r="J66" s="161" t="s">
         <v>462</v>
       </c>
-      <c r="K66" s="179"/>
+      <c r="K66" s="162"/>
     </row>
     <row r="67" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="152"/>
+      <c r="A67" s="154"/>
       <c r="B67" s="114" t="s">
         <v>438</v>
       </c>
-      <c r="C67" s="170"/>
-      <c r="D67" s="173"/>
-      <c r="E67" s="174"/>
-      <c r="G67" s="152"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="160"/>
+      <c r="G67" s="154"/>
       <c r="H67" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="I67" s="170"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="181"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="164"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="126">
+      <c r="A68" s="128">
         <v>2</v>
       </c>
       <c r="B68" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C68" s="127">
+      <c r="C68" s="129">
         <v>0</v>
       </c>
-      <c r="D68" s="171" t="s">
+      <c r="D68" s="169" t="s">
         <v>447</v>
       </c>
-      <c r="E68" s="172"/>
-      <c r="G68" s="126">
+      <c r="E68" s="158"/>
+      <c r="G68" s="128">
         <v>2</v>
       </c>
       <c r="H68" s="113" t="s">
         <v>463</v>
       </c>
-      <c r="I68" s="127">
+      <c r="I68" s="129">
         <v>5</v>
       </c>
-      <c r="J68" s="178" t="s">
+      <c r="J68" s="161" t="s">
         <v>465</v>
       </c>
-      <c r="K68" s="179"/>
+      <c r="K68" s="162"/>
     </row>
     <row r="69" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="152"/>
+      <c r="A69" s="154"/>
       <c r="B69" s="114" t="s">
         <v>441</v>
       </c>
-      <c r="C69" s="170"/>
-      <c r="D69" s="173"/>
-      <c r="E69" s="174"/>
-      <c r="G69" s="152"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="160"/>
+      <c r="G69" s="154"/>
       <c r="H69" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="I69" s="170"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="181"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="163"/>
+      <c r="K69" s="164"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="126">
+      <c r="A70" s="128">
         <v>3</v>
       </c>
       <c r="B70" s="113" t="s">
         <v>442</v>
       </c>
-      <c r="C70" s="127">
+      <c r="C70" s="129">
         <v>0</v>
       </c>
-      <c r="D70" s="171" t="s">
+      <c r="D70" s="169" t="s">
         <v>448</v>
       </c>
-      <c r="E70" s="172"/>
-      <c r="G70" s="126">
+      <c r="E70" s="158"/>
+      <c r="G70" s="128">
         <v>3</v>
       </c>
       <c r="H70" s="113" t="s">
         <v>466</v>
       </c>
-      <c r="I70" s="127">
+      <c r="I70" s="129">
         <v>0</v>
       </c>
-      <c r="J70" s="182" t="s">
+      <c r="J70" s="165" t="s">
         <v>468</v>
       </c>
-      <c r="K70" s="183"/>
+      <c r="K70" s="166"/>
     </row>
     <row r="71" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="152"/>
+      <c r="A71" s="154"/>
       <c r="B71" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="C71" s="170"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="174"/>
-      <c r="G71" s="152"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="160"/>
+      <c r="G71" s="154"/>
       <c r="H71" s="114" t="s">
         <v>467</v>
       </c>
-      <c r="I71" s="170"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="185"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="168"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="126">
+      <c r="A72" s="128">
         <v>4</v>
       </c>
       <c r="B72" s="113" t="s">
         <v>444</v>
       </c>
-      <c r="C72" s="127">
+      <c r="C72" s="129">
         <v>2</v>
       </c>
-      <c r="D72" s="177" t="s">
+      <c r="D72" s="157" t="s">
         <v>449</v>
       </c>
-      <c r="E72" s="172"/>
-      <c r="G72" s="126">
+      <c r="E72" s="158"/>
+      <c r="G72" s="128">
         <v>4</v>
       </c>
       <c r="H72" s="113" t="s">
         <v>469</v>
       </c>
-      <c r="I72" s="127">
+      <c r="I72" s="129">
         <v>0</v>
       </c>
-      <c r="J72" s="177" t="s">
+      <c r="J72" s="157" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="172"/>
+      <c r="K72" s="158"/>
     </row>
     <row r="73" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="152"/>
+      <c r="A73" s="154"/>
       <c r="B73" s="114" t="s">
         <v>445</v>
       </c>
-      <c r="C73" s="170"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="174"/>
-      <c r="G73" s="152"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="160"/>
+      <c r="G73" s="154"/>
       <c r="H73" s="114" t="s">
         <v>470</v>
       </c>
-      <c r="I73" s="170"/>
-      <c r="J73" s="173"/>
-      <c r="K73" s="174"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="160"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A74" s="126">
+      <c r="A74" s="128">
         <v>5</v>
       </c>
       <c r="B74" s="113" t="s">
         <v>450</v>
       </c>
-      <c r="C74" s="127">
+      <c r="C74" s="129">
         <v>0</v>
       </c>
-      <c r="D74" s="171" t="s">
+      <c r="D74" s="169" t="s">
         <v>452</v>
       </c>
-      <c r="E74" s="172"/>
+      <c r="E74" s="158"/>
       <c r="G74" s="98"/>
       <c r="H74" s="98"/>
       <c r="I74" s="98"/>
@@ -12173,13 +12205,13 @@
       <c r="K74" s="101"/>
     </row>
     <row r="75" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="152"/>
+      <c r="A75" s="154"/>
       <c r="B75" s="114" t="s">
         <v>451</v>
       </c>
-      <c r="C75" s="170"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="174"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="159"/>
+      <c r="E75" s="160"/>
       <c r="G75" s="98"/>
       <c r="H75" s="98"/>
       <c r="I75" s="98"/>
@@ -12187,19 +12219,19 @@
       <c r="K75" s="101"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A76" s="126">
+      <c r="A76" s="128">
         <v>6</v>
       </c>
       <c r="B76" s="113" t="s">
         <v>453</v>
       </c>
-      <c r="C76" s="127">
+      <c r="C76" s="129">
         <v>23</v>
       </c>
-      <c r="D76" s="177" t="s">
+      <c r="D76" s="157" t="s">
         <v>455</v>
       </c>
-      <c r="E76" s="172"/>
+      <c r="E76" s="158"/>
       <c r="G76" s="98"/>
       <c r="H76" s="98"/>
       <c r="I76" s="98"/>
@@ -12207,13 +12239,13 @@
       <c r="K76" s="101"/>
     </row>
     <row r="77" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="152"/>
+      <c r="A77" s="154"/>
       <c r="B77" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="C77" s="170"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="174"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="160"/>
       <c r="G77" s="98"/>
       <c r="H77" s="98"/>
       <c r="I77" s="98"/>
@@ -12221,19 +12253,19 @@
       <c r="K77" s="101"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A78" s="126">
+      <c r="A78" s="128">
         <v>7</v>
       </c>
       <c r="B78" s="113" t="s">
         <v>456</v>
       </c>
-      <c r="C78" s="127">
+      <c r="C78" s="129">
         <v>23</v>
       </c>
-      <c r="D78" s="177" t="s">
+      <c r="D78" s="157" t="s">
         <v>458</v>
       </c>
-      <c r="E78" s="172"/>
+      <c r="E78" s="158"/>
       <c r="G78" s="98"/>
       <c r="H78" s="98"/>
       <c r="I78" s="98"/>
@@ -12241,13 +12273,13 @@
       <c r="K78" s="101"/>
     </row>
     <row r="79" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="152"/>
+      <c r="A79" s="154"/>
       <c r="B79" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="174"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="160"/>
       <c r="G79" s="98"/>
       <c r="H79" s="98"/>
       <c r="I79" s="98"/>
@@ -12262,27 +12294,73 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:K73"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:K69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:K71"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:E79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:E69"/>
@@ -12307,73 +12385,27 @@
     <mergeCell ref="J66:K67"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:E79"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:K73"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:K69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:K71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D18:D20 D22:D24 D26:D28 D30:D32 D34:D36 J18:J20 J22:J24 J26:J28 J30:J32 J34:J36 J45:J47 D42:D44 D46:D48 D50:D52 D54:D56 D58:D60 D3:D5 D10:D12 J3:J5 J10:J12">
@@ -12390,7 +12422,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12403,12 +12435,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s">
         <v>356</v>
@@ -12418,8 +12450,8 @@
       <c r="A2" s="137" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="188"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="79" t="s">
         <v>348</v>
       </c>
@@ -12457,7 +12489,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="186">
+      <c r="A4" s="188">
         <v>1</v>
       </c>
       <c r="B4" s="68">
@@ -12479,7 +12511,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="189"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="65">
         <v>20</v>
       </c>
@@ -12499,7 +12531,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="189"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="65">
         <v>30</v>
       </c>
@@ -12519,7 +12551,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="189"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="65">
         <v>40</v>
       </c>
@@ -12539,7 +12571,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="189"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="65">
         <v>50</v>
       </c>
@@ -12553,7 +12585,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="187"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="66">
         <v>60</v>
       </c>
@@ -12567,7 +12599,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="186">
+      <c r="A10" s="188">
         <v>10</v>
       </c>
       <c r="B10" s="68">
@@ -12583,7 +12615,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="189"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="65">
         <v>30</v>
       </c>
@@ -12597,7 +12629,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="189"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="65">
         <v>40</v>
       </c>
@@ -12611,7 +12643,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="189"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="65">
         <v>50</v>
       </c>
@@ -12625,7 +12657,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="187"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="66">
         <v>60</v>
       </c>
@@ -12639,7 +12671,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="186">
+      <c r="A15" s="188">
         <v>20</v>
       </c>
       <c r="B15" s="68">
@@ -12655,7 +12687,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="189"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="65">
         <v>40</v>
       </c>
@@ -12669,7 +12701,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="189"/>
+      <c r="A17" s="191"/>
       <c r="B17" s="65">
         <v>50</v>
       </c>
@@ -12683,7 +12715,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="187"/>
+      <c r="A18" s="189"/>
       <c r="B18" s="66">
         <v>60</v>
       </c>
@@ -12697,7 +12729,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="186">
+      <c r="A19" s="188">
         <v>30</v>
       </c>
       <c r="B19" s="68">
@@ -12713,7 +12745,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="189"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="65">
         <v>50</v>
       </c>
@@ -12727,7 +12759,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="187"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="66">
         <v>60</v>
       </c>
@@ -12741,7 +12773,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="186">
+      <c r="A22" s="188">
         <v>40</v>
       </c>
       <c r="B22" s="68">
@@ -12757,7 +12789,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="187"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="66">
         <v>60</v>
       </c>
@@ -12803,10 +12835,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12817,21 +12849,27 @@
     <col min="4" max="4" width="1.59765625" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="85" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="85"/>
+    <col min="8" max="8" width="1.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="190"/>
-      <c r="E1" s="140" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="192"/>
+      <c r="E1" s="149" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="190"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F1" s="150"/>
+      <c r="G1" s="192"/>
+      <c r="I1" s="149" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="150"/>
+      <c r="K1" s="192"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
         <v>350</v>
       </c>
@@ -12850,8 +12888,17 @@
       <c r="G2" s="59" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I2" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="57">
         <v>1</v>
       </c>
@@ -12870,8 +12917,18 @@
       <c r="G3" s="59">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I3" s="57">
+        <v>1</v>
+      </c>
+      <c r="J3" s="60">
+        <v>50</v>
+      </c>
+      <c r="K3" s="59">
+        <f>SUM(J3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="57">
         <v>2</v>
       </c>
@@ -12892,8 +12949,18 @@
         <f>SUM(F4,G3)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I4" s="57">
+        <v>2</v>
+      </c>
+      <c r="J4" s="58">
+        <v>100</v>
+      </c>
+      <c r="K4" s="59">
+        <f>SUM(J4,K3)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="57">
         <v>3</v>
       </c>
@@ -12914,8 +12981,18 @@
         <f t="shared" ref="G5:G61" si="1">SUM(F5,G4)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I5" s="57">
+        <v>3</v>
+      </c>
+      <c r="J5" s="58">
+        <v>150</v>
+      </c>
+      <c r="K5" s="59">
+        <f t="shared" ref="K5:K61" si="2">SUM(J5,K4)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="57">
         <v>4</v>
       </c>
@@ -12936,8 +13013,18 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I6" s="57">
+        <v>4</v>
+      </c>
+      <c r="J6" s="58">
+        <v>200</v>
+      </c>
+      <c r="K6" s="59">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="57">
         <v>5</v>
       </c>
@@ -12958,8 +13045,18 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I7" s="57">
+        <v>5</v>
+      </c>
+      <c r="J7" s="58">
+        <v>300</v>
+      </c>
+      <c r="K7" s="59">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="57">
         <v>6</v>
       </c>
@@ -12980,8 +13077,18 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I8" s="57">
+        <v>6</v>
+      </c>
+      <c r="J8" s="58">
+        <v>400</v>
+      </c>
+      <c r="K8" s="59">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="57">
         <v>7</v>
       </c>
@@ -13002,8 +13109,18 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I9" s="57">
+        <v>7</v>
+      </c>
+      <c r="J9" s="58">
+        <v>500</v>
+      </c>
+      <c r="K9" s="59">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="57">
         <v>8</v>
       </c>
@@ -13024,8 +13141,18 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I10" s="57">
+        <v>8</v>
+      </c>
+      <c r="J10" s="58">
+        <v>600</v>
+      </c>
+      <c r="K10" s="59">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="57">
         <v>9</v>
       </c>
@@ -13046,8 +13173,18 @@
         <f t="shared" si="1"/>
         <v>2300</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I11" s="57">
+        <v>9</v>
+      </c>
+      <c r="J11" s="58">
+        <v>750</v>
+      </c>
+      <c r="K11" s="59">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="57">
         <v>10</v>
       </c>
@@ -13068,8 +13205,18 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I12" s="57">
+        <v>10</v>
+      </c>
+      <c r="J12" s="58">
+        <v>950</v>
+      </c>
+      <c r="K12" s="59">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="57">
         <v>11</v>
       </c>
@@ -13090,8 +13237,18 @@
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I13" s="57">
+        <v>11</v>
+      </c>
+      <c r="J13" s="58">
+        <v>1200</v>
+      </c>
+      <c r="K13" s="59">
+        <f t="shared" si="2"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="57">
         <v>12</v>
       </c>
@@ -13112,8 +13269,18 @@
         <f t="shared" si="1"/>
         <v>4865</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I14" s="57">
+        <v>12</v>
+      </c>
+      <c r="J14" s="58">
+        <v>1290</v>
+      </c>
+      <c r="K14" s="59">
+        <f t="shared" si="2"/>
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="57">
         <v>13</v>
       </c>
@@ -13134,8 +13301,18 @@
         <f t="shared" si="1"/>
         <v>5900</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I15" s="57">
+        <v>13</v>
+      </c>
+      <c r="J15" s="58">
+        <v>1380</v>
+      </c>
+      <c r="K15" s="59">
+        <f t="shared" si="2"/>
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="57">
         <v>14</v>
       </c>
@@ -13156,8 +13333,18 @@
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I16" s="57">
+        <v>14</v>
+      </c>
+      <c r="J16" s="58">
+        <v>1465</v>
+      </c>
+      <c r="K16" s="59">
+        <f t="shared" si="2"/>
+        <v>9335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="57">
         <v>15</v>
       </c>
@@ -13178,8 +13365,18 @@
         <f t="shared" si="1"/>
         <v>8165</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I17" s="57">
+        <v>15</v>
+      </c>
+      <c r="J17" s="58">
+        <v>1555</v>
+      </c>
+      <c r="K17" s="59">
+        <f t="shared" si="2"/>
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="57">
         <v>16</v>
       </c>
@@ -13200,8 +13397,18 @@
         <f t="shared" si="1"/>
         <v>9400</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I18" s="57">
+        <v>16</v>
+      </c>
+      <c r="J18" s="58">
+        <v>1640</v>
+      </c>
+      <c r="K18" s="59">
+        <f t="shared" si="2"/>
+        <v>12530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="57">
         <v>17</v>
       </c>
@@ -13222,8 +13429,18 @@
         <f t="shared" si="1"/>
         <v>10700</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I19" s="57">
+        <v>17</v>
+      </c>
+      <c r="J19" s="58">
+        <v>1735</v>
+      </c>
+      <c r="K19" s="59">
+        <f t="shared" si="2"/>
+        <v>14265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="57">
         <v>18</v>
       </c>
@@ -13244,8 +13461,18 @@
         <f t="shared" si="1"/>
         <v>12065</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I20" s="57">
+        <v>18</v>
+      </c>
+      <c r="J20" s="58">
+        <v>1825</v>
+      </c>
+      <c r="K20" s="59">
+        <f t="shared" si="2"/>
+        <v>16090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="57">
         <v>19</v>
       </c>
@@ -13266,8 +13493,18 @@
         <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I21" s="57">
+        <v>19</v>
+      </c>
+      <c r="J21" s="58">
+        <v>1910</v>
+      </c>
+      <c r="K21" s="59">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="57">
         <v>20</v>
       </c>
@@ -13288,8 +13525,18 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I22" s="57">
+        <v>20</v>
+      </c>
+      <c r="J22" s="58">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="59">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="57">
         <v>21</v>
       </c>
@@ -13310,8 +13557,18 @@
         <f t="shared" si="1"/>
         <v>17340</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I23" s="57">
+        <v>21</v>
+      </c>
+      <c r="J23" s="58">
+        <v>3120</v>
+      </c>
+      <c r="K23" s="59">
+        <f t="shared" si="2"/>
+        <v>23120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="57">
         <v>22</v>
       </c>
@@ -13332,8 +13589,18 @@
         <f t="shared" si="1"/>
         <v>19825</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I24" s="57">
+        <v>22</v>
+      </c>
+      <c r="J24" s="58">
+        <v>3315</v>
+      </c>
+      <c r="K24" s="59">
+        <f t="shared" si="2"/>
+        <v>26435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="57">
         <v>23</v>
       </c>
@@ -13354,8 +13621,18 @@
         <f t="shared" si="1"/>
         <v>22460</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I25" s="57">
+        <v>23</v>
+      </c>
+      <c r="J25" s="58">
+        <v>3510</v>
+      </c>
+      <c r="K25" s="59">
+        <f t="shared" si="2"/>
+        <v>29945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="57">
         <v>24</v>
       </c>
@@ -13376,8 +13653,18 @@
         <f t="shared" si="1"/>
         <v>25240</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I26" s="57">
+        <v>24</v>
+      </c>
+      <c r="J26" s="58">
+        <v>3705</v>
+      </c>
+      <c r="K26" s="59">
+        <f t="shared" si="2"/>
+        <v>33650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="57">
         <v>25</v>
       </c>
@@ -13398,8 +13685,18 @@
         <f t="shared" si="1"/>
         <v>28165</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I27" s="57">
+        <v>25</v>
+      </c>
+      <c r="J27" s="58">
+        <v>3900</v>
+      </c>
+      <c r="K27" s="59">
+        <f t="shared" si="2"/>
+        <v>37550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="57">
         <v>26</v>
       </c>
@@ -13420,8 +13717,18 @@
         <f t="shared" si="1"/>
         <v>31240</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I28" s="57">
+        <v>26</v>
+      </c>
+      <c r="J28" s="58">
+        <v>4100</v>
+      </c>
+      <c r="K28" s="59">
+        <f t="shared" si="2"/>
+        <v>41650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="57">
         <v>27</v>
       </c>
@@ -13442,8 +13749,18 @@
         <f t="shared" si="1"/>
         <v>34460</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I29" s="57">
+        <v>27</v>
+      </c>
+      <c r="J29" s="58">
+        <v>4295</v>
+      </c>
+      <c r="K29" s="59">
+        <f t="shared" si="2"/>
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="57">
         <v>28</v>
       </c>
@@ -13464,8 +13781,18 @@
         <f t="shared" si="1"/>
         <v>37825</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I30" s="57">
+        <v>28</v>
+      </c>
+      <c r="J30" s="58">
+        <v>4490</v>
+      </c>
+      <c r="K30" s="59">
+        <f t="shared" si="2"/>
+        <v>50435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="57">
         <v>29</v>
       </c>
@@ -13486,8 +13813,18 @@
         <f t="shared" si="1"/>
         <v>41340</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I31" s="57">
+        <v>29</v>
+      </c>
+      <c r="J31" s="58">
+        <v>4685</v>
+      </c>
+      <c r="K31" s="59">
+        <f t="shared" si="2"/>
+        <v>55120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="57">
         <v>30</v>
       </c>
@@ -13508,8 +13845,18 @@
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I32" s="57">
+        <v>30</v>
+      </c>
+      <c r="J32" s="58">
+        <v>4880</v>
+      </c>
+      <c r="K32" s="59">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="57">
         <v>31</v>
       </c>
@@ -13524,14 +13871,24 @@
         <v>31</v>
       </c>
       <c r="F33" s="58">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="G33" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>50400</v>
+      </c>
+      <c r="I33" s="57">
+        <v>31</v>
+      </c>
+      <c r="J33" s="58">
+        <v>7200</v>
+      </c>
+      <c r="K33" s="59">
+        <f t="shared" si="2"/>
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="57">
         <v>32</v>
       </c>
@@ -13546,14 +13903,24 @@
         <v>32</v>
       </c>
       <c r="F34" s="58">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="G34" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>56100</v>
+      </c>
+      <c r="I34" s="57">
+        <v>32</v>
+      </c>
+      <c r="J34" s="58">
+        <v>7600</v>
+      </c>
+      <c r="K34" s="59">
+        <f t="shared" si="2"/>
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="57">
         <v>33</v>
       </c>
@@ -13568,14 +13935,24 @@
         <v>33</v>
       </c>
       <c r="F35" s="58">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G35" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>62100</v>
+      </c>
+      <c r="I35" s="57">
+        <v>33</v>
+      </c>
+      <c r="J35" s="58">
+        <v>8000</v>
+      </c>
+      <c r="K35" s="59">
+        <f t="shared" si="2"/>
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="57">
         <v>34</v>
       </c>
@@ -13590,14 +13967,24 @@
         <v>34</v>
       </c>
       <c r="F36" s="58">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="G36" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>68400</v>
+      </c>
+      <c r="I36" s="57">
+        <v>34</v>
+      </c>
+      <c r="J36" s="58">
+        <v>8400</v>
+      </c>
+      <c r="K36" s="59">
+        <f t="shared" si="2"/>
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="57">
         <v>35</v>
       </c>
@@ -13612,14 +13999,24 @@
         <v>35</v>
       </c>
       <c r="F37" s="58">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G37" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>75000</v>
+      </c>
+      <c r="I37" s="57">
+        <v>35</v>
+      </c>
+      <c r="J37" s="58">
+        <v>8800</v>
+      </c>
+      <c r="K37" s="59">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="57">
         <v>36</v>
       </c>
@@ -13634,14 +14031,24 @@
         <v>36</v>
       </c>
       <c r="F38" s="58">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="G38" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>81900</v>
+      </c>
+      <c r="I38" s="57">
+        <v>36</v>
+      </c>
+      <c r="J38" s="58">
+        <v>9200</v>
+      </c>
+      <c r="K38" s="59">
+        <f t="shared" si="2"/>
+        <v>109200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="57">
         <v>37</v>
       </c>
@@ -13656,14 +14063,24 @@
         <v>37</v>
       </c>
       <c r="F39" s="58">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="G39" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>89100</v>
+      </c>
+      <c r="I39" s="57">
+        <v>37</v>
+      </c>
+      <c r="J39" s="58">
+        <v>9600</v>
+      </c>
+      <c r="K39" s="59">
+        <f t="shared" si="2"/>
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="57">
         <v>38</v>
       </c>
@@ -13678,14 +14095,24 @@
         <v>38</v>
       </c>
       <c r="F40" s="58">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G40" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>96600</v>
+      </c>
+      <c r="I40" s="57">
+        <v>38</v>
+      </c>
+      <c r="J40" s="58">
+        <v>10000</v>
+      </c>
+      <c r="K40" s="59">
+        <f t="shared" si="2"/>
+        <v>128800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="57">
         <v>39</v>
       </c>
@@ -13700,14 +14127,24 @@
         <v>39</v>
       </c>
       <c r="F41" s="58">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="G41" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v>104400</v>
+      </c>
+      <c r="I41" s="57">
+        <v>39</v>
+      </c>
+      <c r="J41" s="58">
+        <v>10400</v>
+      </c>
+      <c r="K41" s="59">
+        <f t="shared" si="2"/>
+        <v>139200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="57">
         <v>40</v>
       </c>
@@ -13722,14 +14159,24 @@
         <v>40</v>
       </c>
       <c r="F42" s="58">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="G42" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>112500</v>
+      </c>
+      <c r="I42" s="57">
+        <v>40</v>
+      </c>
+      <c r="J42" s="58">
+        <v>10800</v>
+      </c>
+      <c r="K42" s="59">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="57">
         <v>41</v>
       </c>
@@ -13744,14 +14191,24 @@
         <v>41</v>
       </c>
       <c r="F43" s="58">
-        <v>0</v>
+        <v>8550</v>
       </c>
       <c r="G43" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+        <v>121050</v>
+      </c>
+      <c r="I43" s="57">
+        <v>41</v>
+      </c>
+      <c r="J43" s="58">
+        <v>11400</v>
+      </c>
+      <c r="K43" s="59">
+        <f t="shared" si="2"/>
+        <v>161400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="57">
         <v>42</v>
       </c>
@@ -13766,14 +14223,24 @@
         <v>42</v>
       </c>
       <c r="F44" s="58">
-        <v>0</v>
+        <v>9150</v>
       </c>
       <c r="G44" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>130200</v>
+      </c>
+      <c r="I44" s="57">
+        <v>42</v>
+      </c>
+      <c r="J44" s="58">
+        <v>12200</v>
+      </c>
+      <c r="K44" s="59">
+        <f t="shared" si="2"/>
+        <v>173600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="57">
         <v>43</v>
       </c>
@@ -13788,14 +14255,24 @@
         <v>43</v>
       </c>
       <c r="F45" s="58">
-        <v>0</v>
+        <v>9750</v>
       </c>
       <c r="G45" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <v>139950</v>
+      </c>
+      <c r="I45" s="57">
+        <v>43</v>
+      </c>
+      <c r="J45" s="58">
+        <v>13000</v>
+      </c>
+      <c r="K45" s="59">
+        <f t="shared" si="2"/>
+        <v>186600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="57">
         <v>44</v>
       </c>
@@ -13810,14 +14287,24 @@
         <v>44</v>
       </c>
       <c r="F46" s="58">
-        <v>0</v>
+        <v>10350</v>
       </c>
       <c r="G46" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+        <v>150300</v>
+      </c>
+      <c r="I46" s="57">
+        <v>44</v>
+      </c>
+      <c r="J46" s="58">
+        <v>13800</v>
+      </c>
+      <c r="K46" s="59">
+        <f t="shared" si="2"/>
+        <v>200400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="57">
         <v>45</v>
       </c>
@@ -13832,14 +14319,24 @@
         <v>45</v>
       </c>
       <c r="F47" s="58">
-        <v>0</v>
+        <v>10950</v>
       </c>
       <c r="G47" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+        <v>161250</v>
+      </c>
+      <c r="I47" s="57">
+        <v>45</v>
+      </c>
+      <c r="J47" s="58">
+        <v>14600</v>
+      </c>
+      <c r="K47" s="59">
+        <f t="shared" si="2"/>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="57">
         <v>46</v>
       </c>
@@ -13854,14 +14351,24 @@
         <v>46</v>
       </c>
       <c r="F48" s="58">
-        <v>0</v>
+        <v>11550</v>
       </c>
       <c r="G48" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+        <v>172800</v>
+      </c>
+      <c r="I48" s="57">
+        <v>46</v>
+      </c>
+      <c r="J48" s="58">
+        <v>15400</v>
+      </c>
+      <c r="K48" s="59">
+        <f t="shared" si="2"/>
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="57">
         <v>47</v>
       </c>
@@ -13876,14 +14383,24 @@
         <v>47</v>
       </c>
       <c r="F49" s="58">
-        <v>0</v>
+        <v>12150</v>
       </c>
       <c r="G49" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>184950</v>
+      </c>
+      <c r="I49" s="57">
+        <v>47</v>
+      </c>
+      <c r="J49" s="58">
+        <v>16200</v>
+      </c>
+      <c r="K49" s="59">
+        <f t="shared" si="2"/>
+        <v>246600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="57">
         <v>48</v>
       </c>
@@ -13898,14 +14415,24 @@
         <v>48</v>
       </c>
       <c r="F50" s="58">
-        <v>0</v>
+        <v>12750</v>
       </c>
       <c r="G50" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+        <v>197700</v>
+      </c>
+      <c r="I50" s="57">
+        <v>48</v>
+      </c>
+      <c r="J50" s="58">
+        <v>17000</v>
+      </c>
+      <c r="K50" s="59">
+        <f t="shared" si="2"/>
+        <v>263600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="57">
         <v>49</v>
       </c>
@@ -13920,14 +14447,24 @@
         <v>49</v>
       </c>
       <c r="F51" s="58">
-        <v>0</v>
+        <v>13350</v>
       </c>
       <c r="G51" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <v>211050</v>
+      </c>
+      <c r="I51" s="57">
+        <v>49</v>
+      </c>
+      <c r="J51" s="58">
+        <v>17800</v>
+      </c>
+      <c r="K51" s="59">
+        <f t="shared" si="2"/>
+        <v>281400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="57">
         <v>50</v>
       </c>
@@ -13942,14 +14479,24 @@
         <v>50</v>
       </c>
       <c r="F52" s="58">
-        <v>0</v>
+        <v>13950</v>
       </c>
       <c r="G52" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I52" s="57">
+        <v>50</v>
+      </c>
+      <c r="J52" s="58">
+        <v>18600</v>
+      </c>
+      <c r="K52" s="59">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="57">
         <v>51</v>
       </c>
@@ -13968,10 +14515,20 @@
       </c>
       <c r="G53" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I53" s="57">
+        <v>51</v>
+      </c>
+      <c r="J53" s="58">
+        <v>22800</v>
+      </c>
+      <c r="K53" s="59">
+        <f t="shared" si="2"/>
+        <v>322800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="57">
         <v>52</v>
       </c>
@@ -13990,10 +14547,20 @@
       </c>
       <c r="G54" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I54" s="57">
+        <v>52</v>
+      </c>
+      <c r="J54" s="58">
+        <v>24400</v>
+      </c>
+      <c r="K54" s="59">
+        <f t="shared" si="2"/>
+        <v>347200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="57">
         <v>53</v>
       </c>
@@ -14012,10 +14579,20 @@
       </c>
       <c r="G55" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I55" s="57">
+        <v>53</v>
+      </c>
+      <c r="J55" s="58">
+        <v>26000</v>
+      </c>
+      <c r="K55" s="59">
+        <f t="shared" si="2"/>
+        <v>373200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="57">
         <v>54</v>
       </c>
@@ -14034,10 +14611,20 @@
       </c>
       <c r="G56" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I56" s="57">
+        <v>54</v>
+      </c>
+      <c r="J56" s="58">
+        <v>27600</v>
+      </c>
+      <c r="K56" s="59">
+        <f t="shared" si="2"/>
+        <v>400800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="57">
         <v>55</v>
       </c>
@@ -14056,10 +14643,20 @@
       </c>
       <c r="G57" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I57" s="57">
+        <v>55</v>
+      </c>
+      <c r="J57" s="58">
+        <v>29200</v>
+      </c>
+      <c r="K57" s="59">
+        <f t="shared" si="2"/>
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="57">
         <v>56</v>
       </c>
@@ -14078,10 +14675,20 @@
       </c>
       <c r="G58" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I58" s="57">
+        <v>56</v>
+      </c>
+      <c r="J58" s="58">
+        <v>30800</v>
+      </c>
+      <c r="K58" s="59">
+        <f t="shared" si="2"/>
+        <v>460800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="57">
         <v>57</v>
       </c>
@@ -14100,10 +14707,20 @@
       </c>
       <c r="G59" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I59" s="57">
+        <v>57</v>
+      </c>
+      <c r="J59" s="58">
+        <v>32400</v>
+      </c>
+      <c r="K59" s="59">
+        <f t="shared" si="2"/>
+        <v>493200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="57">
         <v>58</v>
       </c>
@@ -14122,10 +14739,20 @@
       </c>
       <c r="G60" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+        <v>225000</v>
+      </c>
+      <c r="I60" s="57">
+        <v>58</v>
+      </c>
+      <c r="J60" s="58">
+        <v>34000</v>
+      </c>
+      <c r="K60" s="59">
+        <f t="shared" si="2"/>
+        <v>527200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="57">
         <v>59</v>
       </c>
@@ -14144,10 +14771,20 @@
       </c>
       <c r="G61" s="59">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>225000</v>
+      </c>
+      <c r="I61" s="57">
+        <v>59</v>
+      </c>
+      <c r="J61" s="58">
+        <v>35600</v>
+      </c>
+      <c r="K61" s="59">
+        <f t="shared" si="2"/>
+        <v>562800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="61">
         <v>60</v>
       </c>
@@ -14166,13 +14803,24 @@
       </c>
       <c r="G62" s="63">
         <f>SUM(F62,G61)</f>
-        <v>45000</v>
+        <v>225000</v>
+      </c>
+      <c r="I62" s="61">
+        <v>60</v>
+      </c>
+      <c r="J62" s="62">
+        <v>37200</v>
+      </c>
+      <c r="K62" s="63">
+        <f>SUM(J62,K61)</f>
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14199,10 +14847,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" s="85" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="132"/>
+      <c r="C1" s="134"/>
       <c r="D1" s="80" t="s">
         <v>366</v>
       </c>
@@ -14211,7 +14859,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="196" t="s">
         <v>493</v>
       </c>
       <c r="C2" s="123"/>
@@ -14223,7 +14871,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="192"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="124"/>
       <c r="D3" s="80">
         <v>2</v>
@@ -14233,7 +14881,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="192"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="124"/>
       <c r="D4" s="80">
         <v>3</v>
@@ -14243,7 +14891,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="198" t="s">
         <v>494</v>
       </c>
       <c r="C5" s="125"/>
@@ -14255,7 +14903,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="132"/>
+      <c r="B6" s="134"/>
       <c r="D6" s="80">
         <v>2</v>
       </c>
@@ -14264,7 +14912,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="132"/>
+      <c r="B7" s="134"/>
       <c r="D7" s="80">
         <v>3</v>
       </c>
@@ -14273,7 +14921,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="198" t="s">
         <v>495</v>
       </c>
       <c r="C8" s="125"/>
@@ -14285,7 +14933,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="132"/>
+      <c r="B9" s="134"/>
       <c r="D9" s="80">
         <v>2</v>
       </c>
@@ -14294,7 +14942,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="132"/>
+      <c r="B10" s="134"/>
       <c r="D10" s="80">
         <v>3</v>
       </c>
@@ -14303,10 +14951,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="193" t="s">
         <v>515</v>
       </c>
-      <c r="C11" s="197"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="80">
         <v>1</v>
       </c>
@@ -14315,8 +14963,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="196"/>
-      <c r="C12" s="198"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="80">
         <v>2</v>
       </c>
@@ -14325,8 +14973,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="196"/>
-      <c r="C13" s="198"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="80">
         <v>3</v>
       </c>
@@ -14335,10 +14983,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="195" t="s">
         <v>523</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="134" t="s">
         <v>518</v>
       </c>
       <c r="D14" s="80">
@@ -14349,8 +14997,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="194"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="80">
         <v>2</v>
       </c>
@@ -14359,8 +15007,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="194"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="80">
         <v>3</v>
       </c>
@@ -14369,8 +15017,8 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="194"/>
-      <c r="C17" s="132" t="s">
+      <c r="B17" s="195"/>
+      <c r="C17" s="134" t="s">
         <v>519</v>
       </c>
       <c r="D17" s="80">
@@ -14378,22 +15026,22 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="194"/>
-      <c r="C18" s="132"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="194"/>
-      <c r="C19" s="132"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="194"/>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="195"/>
+      <c r="C20" s="134" t="s">
         <v>520</v>
       </c>
       <c r="D20" s="80">
@@ -14401,22 +15049,22 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="194"/>
-      <c r="C21" s="132"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="194"/>
-      <c r="C22" s="132"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="194"/>
-      <c r="C23" s="132" t="s">
+      <c r="B23" s="195"/>
+      <c r="C23" s="134" t="s">
         <v>521</v>
       </c>
       <c r="D23" s="80">
@@ -14424,22 +15072,22 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="194"/>
-      <c r="C24" s="132"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="194"/>
-      <c r="C25" s="132"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="194"/>
-      <c r="C26" s="132" t="s">
+      <c r="B26" s="195"/>
+      <c r="C26" s="134" t="s">
         <v>522</v>
       </c>
       <c r="D26" s="80">
@@ -14447,24 +15095,24 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="194"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="194"/>
-      <c r="C28" s="132"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="195" t="s">
         <v>524</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="134" t="s">
         <v>526</v>
       </c>
       <c r="D29" s="80">
@@ -14472,22 +15120,22 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="194"/>
-      <c r="C30" s="132"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="194"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="194"/>
-      <c r="C32" s="132" t="s">
+      <c r="B32" s="195"/>
+      <c r="C32" s="134" t="s">
         <v>530</v>
       </c>
       <c r="D32" s="80">
@@ -14495,22 +15143,22 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="194"/>
-      <c r="C33" s="132"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="194"/>
-      <c r="C34" s="132"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="194"/>
-      <c r="C35" s="132" t="s">
+      <c r="B35" s="195"/>
+      <c r="C35" s="134" t="s">
         <v>528</v>
       </c>
       <c r="D35" s="80">
@@ -14518,22 +15166,22 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="194"/>
-      <c r="C36" s="132"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="194"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="194"/>
-      <c r="C38" s="132" t="s">
+      <c r="B38" s="195"/>
+      <c r="C38" s="134" t="s">
         <v>531</v>
       </c>
       <c r="D38" s="80">
@@ -14541,22 +15189,22 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="194"/>
-      <c r="C39" s="132"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="194"/>
-      <c r="C40" s="132"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="194"/>
-      <c r="C41" s="132" t="s">
+      <c r="B41" s="195"/>
+      <c r="C41" s="134" t="s">
         <v>529</v>
       </c>
       <c r="D41" s="80">
@@ -14564,24 +15212,24 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="194"/>
-      <c r="C42" s="132"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="194"/>
-      <c r="C43" s="132"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="195" t="s">
         <v>525</v>
       </c>
-      <c r="C44" s="132" t="s">
+      <c r="C44" s="134" t="s">
         <v>526</v>
       </c>
       <c r="D44" s="80">
@@ -14589,22 +15237,22 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="194"/>
-      <c r="C45" s="132"/>
+      <c r="B45" s="195"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="194"/>
-      <c r="C46" s="132"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="194"/>
-      <c r="C47" s="132" t="s">
+      <c r="B47" s="195"/>
+      <c r="C47" s="134" t="s">
         <v>530</v>
       </c>
       <c r="D47" s="80">
@@ -14612,22 +15260,22 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="194"/>
-      <c r="C48" s="132"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="134"/>
       <c r="D48" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="194"/>
-      <c r="C49" s="132"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="194"/>
-      <c r="C50" s="132" t="s">
+      <c r="B50" s="195"/>
+      <c r="C50" s="134" t="s">
         <v>528</v>
       </c>
       <c r="D50" s="80">
@@ -14635,22 +15283,22 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="194"/>
-      <c r="C51" s="132"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="134"/>
       <c r="D51" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="194"/>
-      <c r="C52" s="132"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="134"/>
       <c r="D52" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="194"/>
-      <c r="C53" s="132" t="s">
+      <c r="B53" s="195"/>
+      <c r="C53" s="134" t="s">
         <v>531</v>
       </c>
       <c r="D53" s="80">
@@ -14658,22 +15306,22 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="194"/>
-      <c r="C54" s="132"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="134"/>
       <c r="D54" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="194"/>
-      <c r="C55" s="132"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="134"/>
       <c r="D55" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="194"/>
-      <c r="C56" s="132" t="s">
+      <c r="B56" s="195"/>
+      <c r="C56" s="134" t="s">
         <v>529</v>
       </c>
       <c r="D56" s="80">
@@ -14681,24 +15329,24 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="194"/>
-      <c r="C57" s="132"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="134"/>
       <c r="D57" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="194"/>
-      <c r="C58" s="132"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="134"/>
       <c r="D58" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="195" t="s">
+      <c r="B59" s="193" t="s">
         <v>527</v>
       </c>
-      <c r="C59" s="197"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="80">
         <v>1</v>
       </c>
@@ -14707,8 +15355,8 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="196"/>
-      <c r="C60" s="198"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="80">
         <v>2</v>
       </c>
@@ -14717,8 +15365,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="196"/>
-      <c r="C61" s="198"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="80">
         <v>3</v>
       </c>
@@ -14728,19 +15376,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B29:B43"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B14:B28"/>
@@ -14752,6 +15387,19 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/게임 파일.xlsx
+++ b/게임 파일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luto\Desktop\Git Project\Game file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BA065-1000-4052-8B6F-B844A7BC5ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEDDF9-AFD9-4986-AE58-A4D3BB7C143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="679">
   <si>
     <t>진급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4278,6 +4278,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4302,6 +4305,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4314,39 +4344,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4359,11 +4362,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4374,6 +4422,15 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4398,60 +4455,6 @@
     <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4484,9 +4487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4916,10 +4916,10 @@
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="153"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="7" t="s">
         <v>221</v>
       </c>
@@ -4934,35 +4934,35 @@
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="149" t="s">
+      <c r="N2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="152"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="11" t="s">
         <v>58</v>
       </c>
@@ -7776,23 +7776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="180" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="203" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="182" t="s">
         <v>338</v>
       </c>
       <c r="F1" s="94"/>
-      <c r="G1" s="188" t="s">
+      <c r="G1" s="180" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="201" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="177" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       <c r="D2" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="199"/>
+      <c r="E2" s="183"/>
       <c r="F2" s="95"/>
       <c r="G2" s="103" t="s">
         <v>331</v>
@@ -7823,7 +7823,7 @@
       <c r="J2" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="K2" s="202"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="80">
@@ -7937,23 +7937,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="179" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
       <c r="E6" s="93">
         <f>SUM(E3:E5)</f>
         <v>76</v>
       </c>
       <c r="F6" s="96"/>
-      <c r="G6" s="195" t="s">
+      <c r="G6" s="179" t="s">
         <v>333</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="93">
         <f>SUM(K3:K5)</f>
         <v>450</v>
@@ -7973,23 +7973,23 @@
       <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="180" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="203" t="s">
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="182" t="s">
         <v>338</v>
       </c>
       <c r="F8" s="94"/>
-      <c r="G8" s="188" t="s">
+      <c r="G8" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="203" t="s">
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="182" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       <c r="D9" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="199"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="95"/>
       <c r="G9" s="103" t="s">
         <v>331</v>
@@ -8020,7 +8020,7 @@
       <c r="J9" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="199"/>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
@@ -8134,23 +8134,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="179" t="s">
         <v>333</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="93">
         <f>SUM(E10:E12)</f>
         <v>321</v>
       </c>
       <c r="F13" s="96"/>
-      <c r="G13" s="195" t="s">
+      <c r="G13" s="179" t="s">
         <v>333</v>
       </c>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
       <c r="K13" s="93">
         <f>SUM(K10:K12)</f>
         <v>235</v>
@@ -8170,65 +8170,65 @@
       <c r="K14" s="101"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="190"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="184"/>
       <c r="F15" s="97"/>
-      <c r="G15" s="188" t="s">
+      <c r="G15" s="180" t="s">
         <v>356</v>
       </c>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="190"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="184"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="179" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="179" t="s">
         <v>330</v>
       </c>
-      <c r="D16" s="196" t="s">
+      <c r="D16" s="185" t="s">
         <v>337</v>
       </c>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="H16" s="195" t="s">
+      <c r="H16" s="179" t="s">
         <v>332</v>
       </c>
-      <c r="I16" s="195" t="s">
+      <c r="I16" s="179" t="s">
         <v>330</v>
       </c>
-      <c r="J16" s="196" t="s">
+      <c r="J16" s="185" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="198" t="s">
+      <c r="K16" s="174" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="170"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="187"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="187"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="175"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="175"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="105">
@@ -8241,7 +8241,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="107"/>
-      <c r="E18" s="193">
+      <c r="E18" s="176">
         <f>INT((INT(C18/3)+C19)/3)</f>
         <v>15</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>114</v>
       </c>
       <c r="J18" s="107"/>
-      <c r="K18" s="193">
+      <c r="K18" s="176">
         <f>INT((INT(I18/3)+I19)/3)</f>
         <v>20</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="109"/>
-      <c r="E19" s="187"/>
+      <c r="E19" s="175"/>
       <c r="G19" s="108">
         <v>2</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="109"/>
-      <c r="K19" s="187"/>
+      <c r="K19" s="175"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="108">
@@ -8315,23 +8315,23 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
       <c r="E21" s="111">
         <f>SUM(E18:E20)</f>
         <v>16</v>
       </c>
       <c r="F21" s="112"/>
-      <c r="G21" s="164" t="s">
+      <c r="G21" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
       <c r="K21" s="111">
         <f>SUM(K18:K20)</f>
         <v>20</v>
@@ -8348,7 +8348,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="109"/>
-      <c r="E22" s="187">
+      <c r="E22" s="175">
         <f>INT((INT(C22/3)+C23)/3)</f>
         <v>2</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>34</v>
       </c>
       <c r="J22" s="109"/>
-      <c r="K22" s="187">
+      <c r="K22" s="175">
         <f>INT((INT(I22/3)+I23)/3)</f>
         <v>21</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="109"/>
-      <c r="E23" s="187"/>
+      <c r="E23" s="175"/>
       <c r="G23" s="108">
         <v>2</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>52</v>
       </c>
       <c r="J23" s="109"/>
-      <c r="K23" s="187"/>
+      <c r="K23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="108">
@@ -8422,23 +8422,23 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
       <c r="E25" s="111">
         <f>SUM(E22:E24)</f>
         <v>3</v>
       </c>
       <c r="F25" s="112"/>
-      <c r="G25" s="164" t="s">
+      <c r="G25" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
       <c r="K25" s="111">
         <f>SUM(K22:K24)</f>
         <v>29</v>
@@ -8455,7 +8455,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="109"/>
-      <c r="E26" s="187">
+      <c r="E26" s="175">
         <f>INT((INT(C26/3)+C27)/3)</f>
         <v>15</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="109"/>
-      <c r="K26" s="187">
+      <c r="K26" s="175">
         <f>INT((INT(I26/3)+I27)/3)</f>
         <v>8</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="109"/>
-      <c r="E27" s="187"/>
+      <c r="E27" s="175"/>
       <c r="G27" s="108">
         <v>2</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="109"/>
-      <c r="K27" s="187"/>
+      <c r="K27" s="175"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="108">
@@ -8529,23 +8529,23 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
       <c r="E29" s="111">
         <f>SUM(E26:E28)</f>
         <v>27</v>
       </c>
       <c r="F29" s="112"/>
-      <c r="G29" s="164" t="s">
+      <c r="G29" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="111">
         <f>SUM(K26:K28)</f>
         <v>12</v>
@@ -8562,7 +8562,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="109"/>
-      <c r="E30" s="187">
+      <c r="E30" s="175">
         <f>INT((INT(C30/3)+C31)/3)</f>
         <v>22</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="109"/>
-      <c r="K30" s="187">
+      <c r="K30" s="175">
         <f>INT((INT(I30/3)+I31)/3)</f>
         <v>4</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="109"/>
-      <c r="E31" s="187"/>
+      <c r="E31" s="175"/>
       <c r="G31" s="108">
         <v>2</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="109"/>
-      <c r="K31" s="187"/>
+      <c r="K31" s="175"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="108">
@@ -8636,23 +8636,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="164" t="s">
+      <c r="A33" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
       <c r="E33" s="111">
         <f>SUM(E30:E32)</f>
         <v>23</v>
       </c>
       <c r="F33" s="112"/>
-      <c r="G33" s="164" t="s">
+      <c r="G33" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
       <c r="K33" s="111">
         <f>SUM(K30:K32)</f>
         <v>5</v>
@@ -8669,7 +8669,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="109"/>
-      <c r="E34" s="187">
+      <c r="E34" s="175">
         <f>INT((INT(C34/3)+C35)/3)</f>
         <v>5</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>69</v>
       </c>
       <c r="J34" s="109"/>
-      <c r="K34" s="187">
+      <c r="K34" s="175">
         <f>INT((INT(I34/3)+I35)/3)</f>
         <v>15</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="109"/>
-      <c r="E35" s="187"/>
+      <c r="E35" s="175"/>
       <c r="G35" s="108">
         <v>2</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="109"/>
-      <c r="K35" s="187"/>
+      <c r="K35" s="175"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="108">
@@ -8743,23 +8743,23 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
       <c r="E37" s="111">
         <f>SUM(E34:E36)</f>
         <v>6</v>
       </c>
       <c r="F37" s="112"/>
-      <c r="G37" s="164" t="s">
+      <c r="G37" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
       <c r="K37" s="111">
         <f>SUM(K34:K36)</f>
         <v>21</v>
@@ -8772,53 +8772,53 @@
       <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="188" t="s">
+      <c r="A39" s="180" t="s">
         <v>387</v>
       </c>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="190"/>
-      <c r="G39" s="152" t="s">
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="184"/>
+      <c r="G39" s="153" t="s">
         <v>392</v>
       </c>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="195" t="s">
+      <c r="B40" s="179" t="s">
         <v>332</v>
       </c>
-      <c r="C40" s="195" t="s">
+      <c r="C40" s="179" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="196" t="s">
+      <c r="D40" s="185" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="198" t="s">
+      <c r="E40" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="G40" s="152" t="s">
+      <c r="G40" s="153" t="s">
         <v>330</v>
       </c>
-      <c r="H40" s="152"/>
-      <c r="I40" s="200">
+      <c r="H40" s="153"/>
+      <c r="I40" s="186">
         <v>7</v>
       </c>
-      <c r="J40" s="200"/>
-      <c r="K40" s="200"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="186"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="170"/>
-      <c r="B41" s="195"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="187"/>
+      <c r="A41" s="171"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="175"/>
       <c r="G41" s="98"/>
       <c r="H41" s="98"/>
       <c r="I41" s="98"/>
@@ -8836,17 +8836,17 @@
         <v>50</v>
       </c>
       <c r="D42" s="107"/>
-      <c r="E42" s="193">
+      <c r="E42" s="176">
         <f>INT((INT(C42/3)+C43)/3)</f>
         <v>14</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="180" t="s">
         <v>393</v>
       </c>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="190"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181"/>
+      <c r="K42" s="184"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="108">
@@ -8859,20 +8859,20 @@
         <v>28</v>
       </c>
       <c r="D43" s="109"/>
-      <c r="E43" s="187"/>
-      <c r="G43" s="170" t="s">
+      <c r="E43" s="175"/>
+      <c r="G43" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="H43" s="195" t="s">
+      <c r="H43" s="179" t="s">
         <v>332</v>
       </c>
-      <c r="I43" s="195" t="s">
+      <c r="I43" s="179" t="s">
         <v>330</v>
       </c>
-      <c r="J43" s="196" t="s">
+      <c r="J43" s="185" t="s">
         <v>337</v>
       </c>
-      <c r="K43" s="198" t="s">
+      <c r="K43" s="174" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8891,19 +8891,19 @@
         <f>C44</f>
         <v>16</v>
       </c>
-      <c r="G44" s="194"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="197"/>
-      <c r="K44" s="199"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="183"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="111">
         <f>SUM(E42:E44)</f>
         <v>30</v>
@@ -8918,7 +8918,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="109"/>
-      <c r="K45" s="187">
+      <c r="K45" s="175">
         <f>INT((INT(I45/3)+I46)/3)</f>
         <v>4</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>149</v>
       </c>
       <c r="D46" s="107"/>
-      <c r="E46" s="193">
+      <c r="E46" s="176">
         <f>INT((INT(C46/3)+C47)/3)</f>
         <v>17</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="109"/>
-      <c r="K46" s="187"/>
+      <c r="K46" s="175"/>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="108">
@@ -8961,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="109"/>
-      <c r="E47" s="187"/>
+      <c r="E47" s="175"/>
       <c r="G47" s="108">
         <v>3</v>
       </c>
@@ -8992,24 +8992,24 @@
         <f>C48</f>
         <v>8</v>
       </c>
-      <c r="G48" s="164" t="s">
+      <c r="G48" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="158"/>
       <c r="K48" s="111">
         <f>SUM(K45:K47)</f>
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="164" t="s">
+      <c r="A49" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
       <c r="E49" s="111">
         <f>SUM(E46:E48)</f>
         <v>25</v>
@@ -9031,7 +9031,7 @@
         <v>118</v>
       </c>
       <c r="D50" s="107"/>
-      <c r="E50" s="193">
+      <c r="E50" s="176">
         <f>INT((INT(C50/3)+C51)/3)</f>
         <v>18</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="109"/>
-      <c r="E51" s="187"/>
+      <c r="E51" s="175"/>
       <c r="G51" s="98"/>
       <c r="H51" s="98"/>
       <c r="I51" s="98"/>
@@ -9081,12 +9081,12 @@
       <c r="K52" s="101"/>
     </row>
     <row r="53" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="164" t="s">
+      <c r="A53" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
       <c r="E53" s="111">
         <f>SUM(E50:E52)</f>
         <v>20</v>
@@ -9108,7 +9108,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="107"/>
-      <c r="E54" s="193">
+      <c r="E54" s="176">
         <f>INT((INT(C54/3)+C55)/3)</f>
         <v>4</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="109"/>
-      <c r="E55" s="187"/>
+      <c r="E55" s="175"/>
       <c r="G55" s="98"/>
       <c r="H55" s="98"/>
       <c r="I55" s="98"/>
@@ -9158,12 +9158,12 @@
       <c r="K56" s="101"/>
     </row>
     <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="164" t="s">
+      <c r="A57" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
       <c r="E57" s="111">
         <f>SUM(E54:E56)</f>
         <v>55</v>
@@ -9185,7 +9185,7 @@
         <v>70</v>
       </c>
       <c r="D58" s="107"/>
-      <c r="E58" s="193">
+      <c r="E58" s="176">
         <f>INT((INT(C58/3)+C59)/3)</f>
         <v>18</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="109"/>
-      <c r="E59" s="187"/>
+      <c r="E59" s="175"/>
       <c r="G59" s="98"/>
       <c r="H59" s="98"/>
       <c r="I59" s="98"/>
@@ -9235,12 +9235,12 @@
       <c r="K60" s="101"/>
     </row>
     <row r="61" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="164" t="s">
+      <c r="A61" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
       <c r="E61" s="111">
         <f>SUM(E58:E60)</f>
         <v>40</v>
@@ -9258,257 +9258,257 @@
       <c r="K62" s="101"/>
     </row>
     <row r="63" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="180" t="s">
         <v>397</v>
       </c>
-      <c r="B63" s="189"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="190"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="184"/>
       <c r="F63" s="112"/>
-      <c r="G63" s="188" t="s">
+      <c r="G63" s="180" t="s">
         <v>423</v>
       </c>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="189"/>
-      <c r="K63" s="190"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="181"/>
+      <c r="J63" s="181"/>
+      <c r="K63" s="184"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="146" t="s">
+      <c r="A64" s="147" t="s">
         <v>398</v>
       </c>
       <c r="B64" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="C64" s="191" t="s">
+      <c r="C64" s="194" t="s">
         <v>400</v>
       </c>
-      <c r="D64" s="174" t="s">
+      <c r="D64" s="196" t="s">
         <v>401</v>
       </c>
-      <c r="E64" s="175"/>
-      <c r="G64" s="146" t="s">
+      <c r="E64" s="191"/>
+      <c r="G64" s="147" t="s">
         <v>398</v>
       </c>
       <c r="H64" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="I64" s="191" t="s">
+      <c r="I64" s="194" t="s">
         <v>400</v>
       </c>
-      <c r="J64" s="174" t="s">
+      <c r="J64" s="196" t="s">
         <v>401</v>
       </c>
-      <c r="K64" s="175"/>
+      <c r="K64" s="191"/>
     </row>
     <row r="65" spans="1:11" s="91" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="169"/>
+      <c r="A65" s="170"/>
       <c r="B65" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C65" s="192"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="177"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="192"/>
+      <c r="E65" s="193"/>
       <c r="F65" s="98"/>
-      <c r="G65" s="169"/>
+      <c r="G65" s="170"/>
       <c r="H65" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I65" s="192"/>
-      <c r="J65" s="176"/>
-      <c r="K65" s="177"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="192"/>
+      <c r="K65" s="193"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="146">
+      <c r="A66" s="147">
         <v>1</v>
       </c>
       <c r="B66" s="113" t="s">
         <v>402</v>
       </c>
-      <c r="C66" s="147">
+      <c r="C66" s="148">
         <v>23</v>
       </c>
-      <c r="D66" s="186" t="s">
+      <c r="D66" s="190" t="s">
         <v>410</v>
       </c>
-      <c r="E66" s="175"/>
-      <c r="G66" s="146">
+      <c r="E66" s="191"/>
+      <c r="G66" s="147">
         <v>1</v>
       </c>
       <c r="H66" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="I66" s="147">
-        <v>0</v>
-      </c>
-      <c r="J66" s="178" t="s">
+      <c r="I66" s="148">
+        <v>0</v>
+      </c>
+      <c r="J66" s="197" t="s">
         <v>426</v>
       </c>
-      <c r="K66" s="179"/>
+      <c r="K66" s="198"/>
     </row>
     <row r="67" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="169"/>
+      <c r="A67" s="170"/>
       <c r="B67" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="C67" s="173"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="177"/>
-      <c r="G67" s="169"/>
+      <c r="C67" s="189"/>
+      <c r="D67" s="192"/>
+      <c r="E67" s="193"/>
+      <c r="G67" s="170"/>
       <c r="H67" s="114" t="s">
         <v>425</v>
       </c>
-      <c r="I67" s="173"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="181"/>
+      <c r="I67" s="189"/>
+      <c r="J67" s="199"/>
+      <c r="K67" s="200"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="146">
+      <c r="A68" s="147">
         <v>2</v>
       </c>
       <c r="B68" s="113" t="s">
         <v>404</v>
       </c>
-      <c r="C68" s="147">
-        <v>0</v>
-      </c>
-      <c r="D68" s="186" t="s">
+      <c r="C68" s="148">
+        <v>0</v>
+      </c>
+      <c r="D68" s="190" t="s">
         <v>411</v>
       </c>
-      <c r="E68" s="175"/>
-      <c r="G68" s="146">
+      <c r="E68" s="191"/>
+      <c r="G68" s="147">
         <v>2</v>
       </c>
       <c r="H68" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="I68" s="147">
+      <c r="I68" s="148">
         <v>5</v>
       </c>
-      <c r="J68" s="178" t="s">
+      <c r="J68" s="197" t="s">
         <v>429</v>
       </c>
-      <c r="K68" s="179"/>
+      <c r="K68" s="198"/>
     </row>
     <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="169"/>
+      <c r="A69" s="170"/>
       <c r="B69" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="C69" s="173"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="177"/>
-      <c r="G69" s="169"/>
+      <c r="C69" s="189"/>
+      <c r="D69" s="192"/>
+      <c r="E69" s="193"/>
+      <c r="G69" s="170"/>
       <c r="H69" s="114" t="s">
         <v>428</v>
       </c>
-      <c r="I69" s="173"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="181"/>
+      <c r="I69" s="189"/>
+      <c r="J69" s="199"/>
+      <c r="K69" s="200"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="146">
+      <c r="A70" s="147">
         <v>3</v>
       </c>
       <c r="B70" s="113" t="s">
         <v>406</v>
       </c>
-      <c r="C70" s="147">
-        <v>0</v>
-      </c>
-      <c r="D70" s="186" t="s">
+      <c r="C70" s="148">
+        <v>0</v>
+      </c>
+      <c r="D70" s="190" t="s">
         <v>412</v>
       </c>
-      <c r="E70" s="175"/>
-      <c r="G70" s="146">
+      <c r="E70" s="191"/>
+      <c r="G70" s="147">
         <v>3</v>
       </c>
       <c r="H70" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="I70" s="147">
-        <v>0</v>
-      </c>
-      <c r="J70" s="182" t="s">
+      <c r="I70" s="148">
+        <v>0</v>
+      </c>
+      <c r="J70" s="201" t="s">
         <v>432</v>
       </c>
-      <c r="K70" s="183"/>
+      <c r="K70" s="202"/>
     </row>
     <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="169"/>
+      <c r="A71" s="170"/>
       <c r="B71" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="C71" s="173"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="177"/>
-      <c r="G71" s="169"/>
+      <c r="C71" s="189"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="193"/>
+      <c r="G71" s="170"/>
       <c r="H71" s="114" t="s">
         <v>431</v>
       </c>
-      <c r="I71" s="173"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="185"/>
+      <c r="I71" s="189"/>
+      <c r="J71" s="203"/>
+      <c r="K71" s="204"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="146">
+      <c r="A72" s="147">
         <v>4</v>
       </c>
       <c r="B72" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C72" s="147">
+      <c r="C72" s="148">
         <v>2</v>
       </c>
-      <c r="D72" s="174" t="s">
+      <c r="D72" s="196" t="s">
         <v>413</v>
       </c>
-      <c r="E72" s="175"/>
-      <c r="G72" s="146">
+      <c r="E72" s="191"/>
+      <c r="G72" s="147">
         <v>4</v>
       </c>
       <c r="H72" s="113" t="s">
         <v>433</v>
       </c>
-      <c r="I72" s="147">
-        <v>0</v>
-      </c>
-      <c r="J72" s="174" t="s">
+      <c r="I72" s="148">
+        <v>0</v>
+      </c>
+      <c r="J72" s="196" t="s">
         <v>422</v>
       </c>
-      <c r="K72" s="175"/>
+      <c r="K72" s="191"/>
     </row>
     <row r="73" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="169"/>
+      <c r="A73" s="170"/>
       <c r="B73" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="C73" s="173"/>
-      <c r="D73" s="176"/>
-      <c r="E73" s="177"/>
-      <c r="G73" s="169"/>
+      <c r="C73" s="189"/>
+      <c r="D73" s="192"/>
+      <c r="E73" s="193"/>
+      <c r="G73" s="170"/>
       <c r="H73" s="114" t="s">
         <v>434</v>
       </c>
-      <c r="I73" s="173"/>
-      <c r="J73" s="176"/>
-      <c r="K73" s="177"/>
+      <c r="I73" s="189"/>
+      <c r="J73" s="192"/>
+      <c r="K73" s="193"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="146">
+      <c r="A74" s="147">
         <v>5</v>
       </c>
       <c r="B74" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="C74" s="147">
-        <v>0</v>
-      </c>
-      <c r="D74" s="186" t="s">
+      <c r="C74" s="148">
+        <v>0</v>
+      </c>
+      <c r="D74" s="190" t="s">
         <v>416</v>
       </c>
-      <c r="E74" s="175"/>
+      <c r="E74" s="191"/>
       <c r="G74" s="98"/>
       <c r="H74" s="98"/>
       <c r="I74" s="98"/>
@@ -9516,13 +9516,13 @@
       <c r="K74" s="101"/>
     </row>
     <row r="75" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="169"/>
+      <c r="A75" s="170"/>
       <c r="B75" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="C75" s="173"/>
-      <c r="D75" s="176"/>
-      <c r="E75" s="177"/>
+      <c r="C75" s="189"/>
+      <c r="D75" s="192"/>
+      <c r="E75" s="193"/>
       <c r="G75" s="98"/>
       <c r="H75" s="98"/>
       <c r="I75" s="98"/>
@@ -9530,19 +9530,19 @@
       <c r="K75" s="101"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="146">
+      <c r="A76" s="147">
         <v>6</v>
       </c>
       <c r="B76" s="113" t="s">
         <v>417</v>
       </c>
-      <c r="C76" s="147">
+      <c r="C76" s="148">
         <v>23</v>
       </c>
-      <c r="D76" s="174" t="s">
+      <c r="D76" s="196" t="s">
         <v>419</v>
       </c>
-      <c r="E76" s="175"/>
+      <c r="E76" s="191"/>
       <c r="G76" s="98"/>
       <c r="H76" s="98"/>
       <c r="I76" s="98"/>
@@ -9550,13 +9550,13 @@
       <c r="K76" s="101"/>
     </row>
     <row r="77" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="169"/>
+      <c r="A77" s="170"/>
       <c r="B77" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="C77" s="173"/>
-      <c r="D77" s="176"/>
-      <c r="E77" s="177"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="192"/>
+      <c r="E77" s="193"/>
       <c r="G77" s="98"/>
       <c r="H77" s="98"/>
       <c r="I77" s="98"/>
@@ -9564,19 +9564,19 @@
       <c r="K77" s="101"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="146">
+      <c r="A78" s="147">
         <v>7</v>
       </c>
       <c r="B78" s="113" t="s">
         <v>420</v>
       </c>
-      <c r="C78" s="147">
+      <c r="C78" s="148">
         <v>23</v>
       </c>
-      <c r="D78" s="174" t="s">
+      <c r="D78" s="196" t="s">
         <v>422</v>
       </c>
-      <c r="E78" s="175"/>
+      <c r="E78" s="191"/>
       <c r="G78" s="98"/>
       <c r="H78" s="98"/>
       <c r="I78" s="98"/>
@@ -9584,13 +9584,13 @@
       <c r="K78" s="101"/>
     </row>
     <row r="79" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="169"/>
+      <c r="A79" s="170"/>
       <c r="B79" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="173"/>
-      <c r="D79" s="176"/>
-      <c r="E79" s="177"/>
+      <c r="C79" s="189"/>
+      <c r="D79" s="192"/>
+      <c r="E79" s="193"/>
       <c r="G79" s="98"/>
       <c r="H79" s="98"/>
       <c r="I79" s="98"/>
@@ -9605,21 +9605,79 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:K73"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:K69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:E79"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:E69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:K65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G33:J33"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="E26:E27"/>
@@ -9644,79 +9702,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:E69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:K65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:K67"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:E79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:E75"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:K73"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:K69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:D5 J3:J5 D10:D12 J10:J12 D18:D20 J18:J20 D22:D24 J22:J24 D26:D28 J26:J28 D30:D32 J30:J32 D34:D36 J34:J36 D42:D44 J45:J47 D46:D48 D50:D52 D54:D56 D58:D60">
@@ -9746,23 +9746,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="28"/>
       <c r="F1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="206"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="207"/>
       <c r="D2" s="79" t="s">
         <v>313</v>
       </c>
@@ -9800,7 +9800,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
+      <c r="A4" s="205">
         <v>1</v>
       </c>
       <c r="B4" s="68">
@@ -9822,7 +9822,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="207"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="65">
         <v>20</v>
       </c>
@@ -9842,7 +9842,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="207"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="65">
         <v>30</v>
       </c>
@@ -9862,7 +9862,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="207"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="65">
         <v>40</v>
       </c>
@@ -9882,7 +9882,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="207"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="65">
         <v>50</v>
       </c>
@@ -9896,7 +9896,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="205"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="66">
         <v>60</v>
       </c>
@@ -9910,7 +9910,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="204">
+      <c r="A10" s="205">
         <v>10</v>
       </c>
       <c r="B10" s="68">
@@ -9926,7 +9926,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="207"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="65">
         <v>30</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="207"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="65">
         <v>40</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="207"/>
+      <c r="A13" s="208"/>
       <c r="B13" s="65">
         <v>50</v>
       </c>
@@ -9968,7 +9968,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="205"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="66">
         <v>60</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="204">
+      <c r="A15" s="205">
         <v>20</v>
       </c>
       <c r="B15" s="68">
@@ -9998,7 +9998,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="207"/>
+      <c r="A16" s="208"/>
       <c r="B16" s="65">
         <v>40</v>
       </c>
@@ -10012,7 +10012,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="207"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="65">
         <v>50</v>
       </c>
@@ -10026,7 +10026,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="205"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="66">
         <v>60</v>
       </c>
@@ -10040,7 +10040,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="204">
+      <c r="A19" s="205">
         <v>30</v>
       </c>
       <c r="B19" s="68">
@@ -10056,7 +10056,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="207"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="65">
         <v>50</v>
       </c>
@@ -10070,7 +10070,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="205"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="66">
         <v>60</v>
       </c>
@@ -10084,7 +10084,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="204">
+      <c r="A22" s="205">
         <v>40</v>
       </c>
       <c r="B22" s="68">
@@ -10100,7 +10100,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="205"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="66">
         <v>60</v>
       </c>
@@ -10164,21 +10164,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="157" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="208"/>
-      <c r="E1" s="164" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="209"/>
+      <c r="E1" s="157" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="208"/>
-      <c r="I1" s="164" t="s">
+      <c r="F1" s="158"/>
+      <c r="G1" s="209"/>
+      <c r="I1" s="157" t="s">
         <v>480</v>
       </c>
-      <c r="J1" s="165"/>
-      <c r="K1" s="208"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
@@ -12158,10 +12158,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="153" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="152"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="80" t="s">
         <v>331</v>
       </c>
@@ -12170,7 +12170,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="213" t="s">
         <v>441</v>
       </c>
       <c r="C2" s="123"/>
@@ -12182,7 +12182,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="213"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="124"/>
       <c r="D3" s="80">
         <v>2</v>
@@ -12192,7 +12192,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="213"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="124"/>
       <c r="D4" s="80">
         <v>3</v>
@@ -12202,7 +12202,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="215" t="s">
         <v>442</v>
       </c>
       <c r="C5" s="125"/>
@@ -12214,7 +12214,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="152"/>
+      <c r="B6" s="153"/>
       <c r="D6" s="80">
         <v>2</v>
       </c>
@@ -12223,7 +12223,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="152"/>
+      <c r="B7" s="153"/>
       <c r="D7" s="80">
         <v>3</v>
       </c>
@@ -12232,7 +12232,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="215" t="s">
         <v>443</v>
       </c>
       <c r="C8" s="125"/>
@@ -12244,7 +12244,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="152"/>
+      <c r="B9" s="153"/>
       <c r="D9" s="80">
         <v>2</v>
       </c>
@@ -12253,7 +12253,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="152"/>
+      <c r="B10" s="153"/>
       <c r="D10" s="80">
         <v>3</v>
       </c>
@@ -12262,7 +12262,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="210" t="s">
         <v>463</v>
       </c>
       <c r="C11" s="126"/>
@@ -12274,7 +12274,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="210"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="127"/>
       <c r="D12" s="80">
         <v>2</v>
@@ -12284,7 +12284,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="210"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="127"/>
       <c r="D13" s="80">
         <v>3</v>
@@ -12294,10 +12294,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="212" t="s">
         <v>471</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="153" t="s">
         <v>466</v>
       </c>
       <c r="D14" s="80">
@@ -12308,8 +12308,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="211"/>
-      <c r="C15" s="152"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="153"/>
       <c r="D15" s="80">
         <v>2</v>
       </c>
@@ -12318,8 +12318,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="211"/>
-      <c r="C16" s="152"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="80">
         <v>3</v>
       </c>
@@ -12328,8 +12328,8 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="211"/>
-      <c r="C17" s="152" t="s">
+      <c r="B17" s="212"/>
+      <c r="C17" s="153" t="s">
         <v>467</v>
       </c>
       <c r="D17" s="80">
@@ -12337,22 +12337,22 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="211"/>
-      <c r="C18" s="152"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="153"/>
       <c r="D18" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="211"/>
-      <c r="C19" s="152"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="211"/>
-      <c r="C20" s="152" t="s">
+      <c r="B20" s="212"/>
+      <c r="C20" s="153" t="s">
         <v>468</v>
       </c>
       <c r="D20" s="80">
@@ -12360,22 +12360,22 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="211"/>
-      <c r="C21" s="152"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="153"/>
       <c r="D21" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="211"/>
-      <c r="C22" s="152"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="153"/>
       <c r="D22" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="211"/>
-      <c r="C23" s="152" t="s">
+      <c r="B23" s="212"/>
+      <c r="C23" s="153" t="s">
         <v>469</v>
       </c>
       <c r="D23" s="80">
@@ -12383,22 +12383,22 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="211"/>
-      <c r="C24" s="152"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="211"/>
-      <c r="C25" s="152"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="211"/>
-      <c r="C26" s="152" t="s">
+      <c r="B26" s="212"/>
+      <c r="C26" s="153" t="s">
         <v>470</v>
       </c>
       <c r="D26" s="80">
@@ -12406,24 +12406,24 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="211"/>
-      <c r="C27" s="152"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="153"/>
       <c r="D27" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="211"/>
-      <c r="C28" s="152"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="153"/>
       <c r="D28" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="211" t="s">
+      <c r="B29" s="212" t="s">
         <v>472</v>
       </c>
-      <c r="C29" s="152" t="s">
+      <c r="C29" s="153" t="s">
         <v>474</v>
       </c>
       <c r="D29" s="80">
@@ -12431,22 +12431,22 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="211"/>
-      <c r="C30" s="152"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="153"/>
       <c r="D30" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="211"/>
-      <c r="C31" s="152"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="153"/>
       <c r="D31" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="211"/>
-      <c r="C32" s="152" t="s">
+      <c r="B32" s="212"/>
+      <c r="C32" s="153" t="s">
         <v>478</v>
       </c>
       <c r="D32" s="80">
@@ -12454,22 +12454,22 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="211"/>
-      <c r="C33" s="152"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="153"/>
       <c r="D33" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="211"/>
-      <c r="C34" s="152"/>
+      <c r="B34" s="212"/>
+      <c r="C34" s="153"/>
       <c r="D34" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="211"/>
-      <c r="C35" s="152" t="s">
+      <c r="B35" s="212"/>
+      <c r="C35" s="153" t="s">
         <v>476</v>
       </c>
       <c r="D35" s="80">
@@ -12477,22 +12477,22 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="211"/>
-      <c r="C36" s="152"/>
+      <c r="B36" s="212"/>
+      <c r="C36" s="153"/>
       <c r="D36" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="211"/>
-      <c r="C37" s="152"/>
+      <c r="B37" s="212"/>
+      <c r="C37" s="153"/>
       <c r="D37" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="211"/>
-      <c r="C38" s="152" t="s">
+      <c r="B38" s="212"/>
+      <c r="C38" s="153" t="s">
         <v>479</v>
       </c>
       <c r="D38" s="80">
@@ -12500,22 +12500,22 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="211"/>
-      <c r="C39" s="152"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="153"/>
       <c r="D39" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="211"/>
-      <c r="C40" s="152"/>
+      <c r="B40" s="212"/>
+      <c r="C40" s="153"/>
       <c r="D40" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="211"/>
-      <c r="C41" s="152" t="s">
+      <c r="B41" s="212"/>
+      <c r="C41" s="153" t="s">
         <v>477</v>
       </c>
       <c r="D41" s="80">
@@ -12523,24 +12523,24 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="211"/>
-      <c r="C42" s="152"/>
+      <c r="B42" s="212"/>
+      <c r="C42" s="153"/>
       <c r="D42" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="211"/>
-      <c r="C43" s="152"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="153"/>
       <c r="D43" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="211" t="s">
+      <c r="B44" s="212" t="s">
         <v>473</v>
       </c>
-      <c r="C44" s="152" t="s">
+      <c r="C44" s="153" t="s">
         <v>474</v>
       </c>
       <c r="D44" s="80">
@@ -12548,22 +12548,22 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="211"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="153"/>
       <c r="D45" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="211"/>
-      <c r="C46" s="152"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="153"/>
       <c r="D46" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="211"/>
-      <c r="C47" s="152" t="s">
+      <c r="B47" s="212"/>
+      <c r="C47" s="153" t="s">
         <v>478</v>
       </c>
       <c r="D47" s="80">
@@ -12571,22 +12571,22 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="211"/>
-      <c r="C48" s="152"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="153"/>
       <c r="D48" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="211"/>
-      <c r="C49" s="152"/>
+      <c r="B49" s="212"/>
+      <c r="C49" s="153"/>
       <c r="D49" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="211"/>
-      <c r="C50" s="152" t="s">
+      <c r="B50" s="212"/>
+      <c r="C50" s="153" t="s">
         <v>476</v>
       </c>
       <c r="D50" s="80">
@@ -12594,22 +12594,22 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="211"/>
-      <c r="C51" s="152"/>
+      <c r="B51" s="212"/>
+      <c r="C51" s="153"/>
       <c r="D51" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="211"/>
-      <c r="C52" s="152"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="153"/>
       <c r="D52" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="211"/>
-      <c r="C53" s="152" t="s">
+      <c r="B53" s="212"/>
+      <c r="C53" s="153" t="s">
         <v>479</v>
       </c>
       <c r="D53" s="80">
@@ -12617,22 +12617,22 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="211"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="212"/>
+      <c r="C54" s="153"/>
       <c r="D54" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="211"/>
-      <c r="C55" s="152"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="153"/>
       <c r="D55" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="211"/>
-      <c r="C56" s="152" t="s">
+      <c r="B56" s="212"/>
+      <c r="C56" s="153" t="s">
         <v>477</v>
       </c>
       <c r="D56" s="80">
@@ -12640,21 +12640,21 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="211"/>
-      <c r="C57" s="152"/>
+      <c r="B57" s="212"/>
+      <c r="C57" s="153"/>
       <c r="D57" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="211"/>
-      <c r="C58" s="152"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="153"/>
       <c r="D58" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="210" t="s">
         <v>475</v>
       </c>
       <c r="C59" s="126"/>
@@ -12666,7 +12666,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="210"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="127"/>
       <c r="D60" s="80">
         <v>2</v>
@@ -12676,7 +12676,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="210"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="127"/>
       <c r="D61" s="80">
         <v>3</v>
@@ -12687,6 +12687,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B14:B28"/>
@@ -12698,19 +12711,6 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B29:B43"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12719,10 +12719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12C6B92-D86B-452D-A61E-39691D9EAD57}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12741,19 +12741,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>657</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="153" t="s">
         <v>658</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="L1" s="144" t="s">
         <v>437</v>
       </c>
@@ -12765,7 +12765,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
+      <c r="A2" s="153"/>
       <c r="B2" s="144" t="s">
         <v>58</v>
       </c>
@@ -12867,6 +12867,11 @@
       </c>
       <c r="T3" s="144" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="145" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -12895,29 +12900,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
+      <c r="B1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
+      <c r="A2" s="153"/>
       <c r="B2" s="144">
         <v>1</v>
       </c>
@@ -12968,49 +12973,49 @@
       <c r="A3" s="144" t="s">
         <v>670</v>
       </c>
-      <c r="B3" s="215">
+      <c r="B3" s="146">
         <v>9.5399999999999991</v>
       </c>
-      <c r="C3" s="215">
+      <c r="C3" s="146">
         <v>10.94</v>
       </c>
-      <c r="D3" s="215">
+      <c r="D3" s="146">
         <v>12.34</v>
       </c>
-      <c r="E3" s="215">
+      <c r="E3" s="146">
         <v>13.75</v>
       </c>
-      <c r="F3" s="215">
+      <c r="F3" s="146">
         <v>15.15</v>
       </c>
-      <c r="G3" s="215">
+      <c r="G3" s="146">
         <v>16.55</v>
       </c>
-      <c r="H3" s="215">
+      <c r="H3" s="146">
         <v>17.95</v>
       </c>
-      <c r="I3" s="215">
+      <c r="I3" s="146">
         <v>19.350000000000001</v>
       </c>
-      <c r="J3" s="215">
+      <c r="J3" s="146">
         <v>20.75</v>
       </c>
-      <c r="K3" s="215">
+      <c r="K3" s="146">
         <v>22.15</v>
       </c>
-      <c r="L3" s="215">
+      <c r="L3" s="146">
         <v>23.56</v>
       </c>
-      <c r="M3" s="215">
+      <c r="M3" s="146">
         <v>24.96</v>
       </c>
-      <c r="N3" s="215">
+      <c r="N3" s="146">
         <v>26.36</v>
       </c>
-      <c r="O3" s="215">
+      <c r="O3" s="146">
         <v>27.76</v>
       </c>
-      <c r="P3" s="215">
+      <c r="P3" s="146">
         <v>29.16</v>
       </c>
     </row>
@@ -13018,49 +13023,49 @@
       <c r="A4" s="144" t="s">
         <v>671</v>
       </c>
-      <c r="B4" s="215">
+      <c r="B4" s="146">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C4" s="215">
+      <c r="C4" s="146">
         <v>5.47</v>
       </c>
-      <c r="D4" s="215">
+      <c r="D4" s="146">
         <v>6.18</v>
       </c>
-      <c r="E4" s="215">
+      <c r="E4" s="146">
         <v>6.88</v>
       </c>
-      <c r="F4" s="215">
+      <c r="F4" s="146">
         <v>7.59</v>
       </c>
-      <c r="G4" s="215">
+      <c r="G4" s="146">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H4" s="215">
+      <c r="H4" s="146">
         <v>9</v>
       </c>
-      <c r="I4" s="215">
+      <c r="I4" s="146">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J4" s="215">
+      <c r="J4" s="146">
         <v>10.4</v>
       </c>
-      <c r="K4" s="215">
+      <c r="K4" s="146">
         <v>11.11</v>
       </c>
-      <c r="L4" s="215">
+      <c r="L4" s="146">
         <v>11.81</v>
       </c>
-      <c r="M4" s="215">
+      <c r="M4" s="146">
         <v>12.52</v>
       </c>
-      <c r="N4" s="215">
+      <c r="N4" s="146">
         <v>13.22</v>
       </c>
-      <c r="O4" s="215">
+      <c r="O4" s="146">
         <v>13.93</v>
       </c>
-      <c r="P4" s="215">
+      <c r="P4" s="146">
         <v>14.63</v>
       </c>
     </row>
@@ -13068,49 +13073,49 @@
       <c r="A5" s="144" t="s">
         <v>672</v>
       </c>
-      <c r="B5" s="215">
+      <c r="B5" s="146">
         <v>27.84</v>
       </c>
-      <c r="C5" s="215">
+      <c r="C5" s="146">
         <v>31.95</v>
       </c>
-      <c r="D5" s="215">
+      <c r="D5" s="146">
         <v>36.06</v>
       </c>
-      <c r="E5" s="215">
+      <c r="E5" s="146">
         <v>40.17</v>
       </c>
-      <c r="F5" s="215">
+      <c r="F5" s="146">
         <v>44.28</v>
       </c>
-      <c r="G5" s="215">
+      <c r="G5" s="146">
         <v>48.39</v>
       </c>
-      <c r="H5" s="215">
+      <c r="H5" s="146">
         <v>52.5</v>
       </c>
-      <c r="I5" s="215">
+      <c r="I5" s="146">
         <v>56.6</v>
       </c>
-      <c r="J5" s="215">
+      <c r="J5" s="146">
         <v>60.71</v>
       </c>
-      <c r="K5" s="215">
+      <c r="K5" s="146">
         <v>64.819999999999993</v>
       </c>
-      <c r="L5" s="215">
+      <c r="L5" s="146">
         <v>68.930000000000007</v>
       </c>
-      <c r="M5" s="215">
+      <c r="M5" s="146">
         <v>73.040000000000006</v>
       </c>
-      <c r="N5" s="215">
+      <c r="N5" s="146">
         <v>77.150000000000006</v>
       </c>
-      <c r="O5" s="215">
+      <c r="O5" s="146">
         <v>81.260000000000005</v>
       </c>
-      <c r="P5" s="215">
+      <c r="P5" s="146">
         <v>85.37</v>
       </c>
     </row>
@@ -13118,49 +13123,49 @@
       <c r="A6" s="144" t="s">
         <v>673</v>
       </c>
-      <c r="B6" s="215">
+      <c r="B6" s="146">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C6" s="215">
+      <c r="C6" s="146">
         <v>5.47</v>
       </c>
-      <c r="D6" s="215">
+      <c r="D6" s="146">
         <v>6.18</v>
       </c>
-      <c r="E6" s="215">
+      <c r="E6" s="146">
         <v>6.88</v>
       </c>
-      <c r="F6" s="215">
+      <c r="F6" s="146">
         <v>7.59</v>
       </c>
-      <c r="G6" s="215">
+      <c r="G6" s="146">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H6" s="215">
+      <c r="H6" s="146">
         <v>9</v>
       </c>
-      <c r="I6" s="215">
+      <c r="I6" s="146">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J6" s="215">
+      <c r="J6" s="146">
         <v>10.4</v>
       </c>
-      <c r="K6" s="215">
+      <c r="K6" s="146">
         <v>11.11</v>
       </c>
-      <c r="L6" s="215">
+      <c r="L6" s="146">
         <v>11.81</v>
       </c>
-      <c r="M6" s="215">
+      <c r="M6" s="146">
         <v>12.52</v>
       </c>
-      <c r="N6" s="215">
+      <c r="N6" s="146">
         <v>13.22</v>
       </c>
-      <c r="O6" s="215">
+      <c r="O6" s="146">
         <v>13.93</v>
       </c>
-      <c r="P6" s="215">
+      <c r="P6" s="146">
         <v>14.63</v>
       </c>
     </row>
@@ -13168,49 +13173,49 @@
       <c r="A7" s="144" t="s">
         <v>674</v>
       </c>
-      <c r="B7" s="215">
+      <c r="B7" s="146">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C7" s="215">
+      <c r="C7" s="146">
         <v>5.47</v>
       </c>
-      <c r="D7" s="215">
+      <c r="D7" s="146">
         <v>6.18</v>
       </c>
-      <c r="E7" s="215">
+      <c r="E7" s="146">
         <v>6.88</v>
       </c>
-      <c r="F7" s="215">
+      <c r="F7" s="146">
         <v>7.59</v>
       </c>
-      <c r="G7" s="215">
+      <c r="G7" s="146">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H7" s="215">
+      <c r="H7" s="146">
         <v>9</v>
       </c>
-      <c r="I7" s="215">
+      <c r="I7" s="146">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J7" s="215">
+      <c r="J7" s="146">
         <v>10.4</v>
       </c>
-      <c r="K7" s="215">
+      <c r="K7" s="146">
         <v>11.11</v>
       </c>
-      <c r="L7" s="215">
+      <c r="L7" s="146">
         <v>11.81</v>
       </c>
-      <c r="M7" s="215">
+      <c r="M7" s="146">
         <v>12.52</v>
       </c>
-      <c r="N7" s="215">
+      <c r="N7" s="146">
         <v>13.22</v>
       </c>
-      <c r="O7" s="215">
+      <c r="O7" s="146">
         <v>13.93</v>
       </c>
-      <c r="P7" s="215">
+      <c r="P7" s="146">
         <v>14.63</v>
       </c>
     </row>
@@ -13218,49 +13223,49 @@
       <c r="A8" s="144" t="s">
         <v>675</v>
       </c>
-      <c r="B8" s="215">
+      <c r="B8" s="146">
         <v>1.98</v>
       </c>
-      <c r="C8" s="215">
+      <c r="C8" s="146">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D8" s="215">
+      <c r="D8" s="146">
         <v>2.57</v>
       </c>
-      <c r="E8" s="215">
+      <c r="E8" s="146">
         <v>2.86</v>
       </c>
-      <c r="F8" s="215">
+      <c r="F8" s="146">
         <v>3.16</v>
       </c>
-      <c r="G8" s="215">
+      <c r="G8" s="146">
         <v>3.45</v>
       </c>
-      <c r="H8" s="215">
+      <c r="H8" s="146">
         <v>3.75</v>
       </c>
-      <c r="I8" s="215">
+      <c r="I8" s="146">
         <v>4.04</v>
       </c>
-      <c r="J8" s="215">
+      <c r="J8" s="146">
         <v>4.33</v>
       </c>
-      <c r="K8" s="215">
+      <c r="K8" s="146">
         <v>4.63</v>
       </c>
-      <c r="L8" s="215">
+      <c r="L8" s="146">
         <v>4.92</v>
       </c>
-      <c r="M8" s="215">
+      <c r="M8" s="146">
         <v>5.21</v>
       </c>
-      <c r="N8" s="215">
+      <c r="N8" s="146">
         <v>5.51</v>
       </c>
-      <c r="O8" s="215">
+      <c r="O8" s="146">
         <v>5.8</v>
       </c>
-      <c r="P8" s="215">
+      <c r="P8" s="146">
         <v>6.09</v>
       </c>
     </row>
@@ -13268,49 +13273,49 @@
       <c r="A9" s="144" t="s">
         <v>676</v>
       </c>
-      <c r="B9" s="215">
+      <c r="B9" s="146">
         <v>6.64</v>
       </c>
-      <c r="C9" s="215">
+      <c r="C9" s="146">
         <v>7.62</v>
       </c>
-      <c r="D9" s="215">
+      <c r="D9" s="146">
         <v>8.6</v>
       </c>
-      <c r="E9" s="215">
+      <c r="E9" s="146">
         <v>9.58</v>
       </c>
-      <c r="F9" s="215">
+      <c r="F9" s="146">
         <v>10.56</v>
       </c>
-      <c r="G9" s="215">
+      <c r="G9" s="146">
         <v>11.54</v>
       </c>
-      <c r="H9" s="215">
+      <c r="H9" s="146">
         <v>12.52</v>
       </c>
-      <c r="I9" s="215">
+      <c r="I9" s="146">
         <v>13.5</v>
       </c>
-      <c r="J9" s="215">
+      <c r="J9" s="146">
         <v>14.48</v>
       </c>
-      <c r="K9" s="215">
+      <c r="K9" s="146">
         <v>15.46</v>
       </c>
-      <c r="L9" s="215">
+      <c r="L9" s="146">
         <v>16.440000000000001</v>
       </c>
-      <c r="M9" s="215">
+      <c r="M9" s="146">
         <v>17.420000000000002</v>
       </c>
-      <c r="N9" s="215">
+      <c r="N9" s="146">
         <v>18.399999999999999</v>
       </c>
-      <c r="O9" s="215">
+      <c r="O9" s="146">
         <v>19.38</v>
       </c>
-      <c r="P9" s="215">
+      <c r="P9" s="146">
         <v>20.36</v>
       </c>
     </row>
@@ -13318,49 +13323,49 @@
       <c r="A10" s="144" t="s">
         <v>677</v>
       </c>
-      <c r="B10" s="215">
+      <c r="B10" s="146">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C10" s="215">
+      <c r="C10" s="146">
         <v>2.64</v>
       </c>
-      <c r="D10" s="215">
+      <c r="D10" s="146">
         <v>2.98</v>
       </c>
-      <c r="E10" s="215">
+      <c r="E10" s="146">
         <v>3.32</v>
       </c>
-      <c r="F10" s="215">
+      <c r="F10" s="146">
         <v>3.66</v>
       </c>
-      <c r="G10" s="215">
+      <c r="G10" s="146">
         <v>4</v>
       </c>
-      <c r="H10" s="215">
+      <c r="H10" s="146">
         <v>4.3499999999999996</v>
       </c>
-      <c r="I10" s="215">
+      <c r="I10" s="146">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J10" s="215">
+      <c r="J10" s="146">
         <v>5.03</v>
       </c>
-      <c r="K10" s="215">
+      <c r="K10" s="146">
         <v>5.37</v>
       </c>
-      <c r="L10" s="215">
+      <c r="L10" s="146">
         <v>5.7</v>
       </c>
-      <c r="M10" s="215">
+      <c r="M10" s="146">
         <v>6.05</v>
       </c>
-      <c r="N10" s="215">
+      <c r="N10" s="146">
         <v>6.39</v>
       </c>
-      <c r="O10" s="215">
+      <c r="O10" s="146">
         <v>6.73</v>
       </c>
-      <c r="P10" s="215">
+      <c r="P10" s="146">
         <v>7.07</v>
       </c>
     </row>
@@ -13368,49 +13373,49 @@
       <c r="A11" s="144" t="s">
         <v>678</v>
       </c>
-      <c r="B11" s="215">
+      <c r="B11" s="146">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C11" s="215">
+      <c r="C11" s="146">
         <v>5.47</v>
       </c>
-      <c r="D11" s="215">
+      <c r="D11" s="146">
         <v>6.18</v>
       </c>
-      <c r="E11" s="215">
+      <c r="E11" s="146">
         <v>6.88</v>
       </c>
-      <c r="F11" s="215">
+      <c r="F11" s="146">
         <v>7.59</v>
       </c>
-      <c r="G11" s="215">
+      <c r="G11" s="146">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H11" s="215">
+      <c r="H11" s="146">
         <v>9</v>
       </c>
-      <c r="I11" s="215">
+      <c r="I11" s="146">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J11" s="215">
+      <c r="J11" s="146">
         <v>10.4</v>
       </c>
-      <c r="K11" s="215">
+      <c r="K11" s="146">
         <v>11.11</v>
       </c>
-      <c r="L11" s="215">
+      <c r="L11" s="146">
         <v>11.81</v>
       </c>
-      <c r="M11" s="215">
+      <c r="M11" s="146">
         <v>12.52</v>
       </c>
-      <c r="N11" s="215">
+      <c r="N11" s="146">
         <v>13.22</v>
       </c>
-      <c r="O11" s="215">
+      <c r="O11" s="146">
         <v>13.93</v>
       </c>
-      <c r="P11" s="215">
+      <c r="P11" s="146">
         <v>14.63</v>
       </c>
     </row>
@@ -13446,11 +13451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="164" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
       <c r="D1" s="46" t="s">
         <v>49</v>
       </c>
@@ -13471,7 +13476,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="165" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="129" t="s">
@@ -13496,7 +13501,7 @@
       <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="156"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -13517,7 +13522,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157"/>
+      <c r="A4" s="167"/>
       <c r="B4" s="25" t="s">
         <v>48</v>
       </c>
@@ -13540,11 +13545,11 @@
       <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="121">
         <f>COUNTA(D2:D4)</f>
         <v>0</v>
@@ -13568,7 +13573,7 @@
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="160" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -13593,7 +13598,7 @@
       <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="159"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -13614,7 +13619,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="159"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="131" t="s">
         <v>48</v>
       </c>
@@ -13635,11 +13640,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
       <c r="D9" s="121">
         <f>COUNTA(D6:D8)</f>
         <v>0</v>
@@ -13663,7 +13668,7 @@
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="168" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -13688,7 +13693,7 @@
       <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="161"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="17" t="s">
         <v>47</v>
       </c>
@@ -13709,7 +13714,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="161"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="131" t="s">
         <v>48</v>
       </c>
@@ -13730,11 +13735,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="121">
         <f>COUNTA(D10:D12)</f>
         <v>0</v>
@@ -13758,7 +13763,7 @@
       <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="160" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -13783,7 +13788,7 @@
       <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="159"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
@@ -13804,7 +13809,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="159"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="25" t="s">
         <v>48</v>
       </c>
@@ -13827,11 +13832,11 @@
       <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="121">
         <f>COUNTA(D14:D16)</f>
         <v>0</v>
@@ -13855,7 +13860,7 @@
       <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="162" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="130" t="s">
@@ -13880,7 +13885,7 @@
       <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="168"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="17" t="s">
         <v>47</v>
       </c>
@@ -13903,7 +13908,7 @@
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="168"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="51" t="s">
         <v>48</v>
       </c>
@@ -13926,11 +13931,11 @@
       <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
       <c r="D21" s="121">
         <f>COUNTA(D18:D20)</f>
         <v>0</v>
@@ -13954,12 +13959,12 @@
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="157" t="s">
         <v>308</v>
       </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
       <c r="E22" s="46">
         <f>SUM(E21,E17,E13,E9,E5)</f>
         <v>0</v>
@@ -14001,18 +14006,18 @@
     <row r="34" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14058,14 +14063,14 @@
       <c r="F1" s="117" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="171" t="s">
         <v>487</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="147" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -14090,7 +14095,7 @@
       <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="156"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
@@ -14111,7 +14116,7 @@
       <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="169"/>
+      <c r="A4" s="170"/>
       <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
@@ -14129,7 +14134,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="147" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="83" t="s">
@@ -14149,7 +14154,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="156"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
@@ -14167,7 +14172,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="169"/>
+      <c r="A7" s="170"/>
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -14185,7 +14190,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="147" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="83" t="s">
@@ -14205,7 +14210,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="156"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
@@ -14223,7 +14228,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="169"/>
+      <c r="A10" s="170"/>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
@@ -14241,7 +14246,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="83" t="s">
@@ -14261,7 +14266,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="156"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="10" t="s">
         <v>47</v>
       </c>
@@ -14279,7 +14284,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="169"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="13" t="s">
         <v>48</v>
       </c>
@@ -14297,7 +14302,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="147" t="s">
         <v>228</v>
       </c>
       <c r="B14" s="83" t="s">
@@ -14317,7 +14322,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="10" t="s">
         <v>47</v>
       </c>
@@ -14335,7 +14340,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="169"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
@@ -14392,15 +14397,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="136" t="s">
@@ -14449,59 +14454,59 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="172" t="s">
         <v>499</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="172" t="s">
         <v>500</v>
       </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="172" t="s">
         <v>501</v>
       </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="172" t="s">
         <v>502</v>
       </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -14521,26 +14526,26 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="172" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="172" t="s">
         <v>505</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
@@ -14558,15 +14563,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="171" t="s">
+      <c r="A20" s="172" t="s">
         <v>510</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="s">
@@ -14634,10 +14639,10 @@
       <c r="B1" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="153" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="152"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="133" t="s">
         <v>58</v>
       </c>
@@ -14647,11 +14652,11 @@
       <c r="G1" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="H1" s="153" t="s">
         <v>615</v>
       </c>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
       <c r="K1" s="133" t="s">
         <v>616</v>
       </c>
@@ -18747,7 +18752,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="152">
+      <c r="A4" s="153">
         <v>3</v>
       </c>
       <c r="B4" s="133">
@@ -18765,7 +18770,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="133">
         <v>1</v>
       </c>
@@ -18781,7 +18786,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="152">
+      <c r="A6" s="153">
         <v>4</v>
       </c>
       <c r="B6" s="133">
@@ -18799,7 +18804,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="133">
         <v>1</v>
       </c>
@@ -18815,7 +18820,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="133">
         <v>2</v>
       </c>
@@ -18831,7 +18836,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="152">
+      <c r="A9" s="153">
         <v>5</v>
       </c>
       <c r="B9" s="133">
@@ -18849,7 +18854,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="133">
         <v>1</v>
       </c>
@@ -18865,7 +18870,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="133">
         <v>2</v>
       </c>
@@ -18881,7 +18886,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="152">
+      <c r="A12" s="153">
         <v>6</v>
       </c>
       <c r="B12" s="133">
@@ -18899,7 +18904,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="133">
         <v>1</v>
       </c>
@@ -18915,7 +18920,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="133">
         <v>2</v>
       </c>
@@ -19336,15 +19341,15 @@
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="172" t="s">
+      <c r="B35" s="173" t="s">
         <v>451</v>
       </c>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">

--- a/게임 파일.xlsx
+++ b/게임 파일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luto\Desktop\Git Project\Game file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEDDF9-AFD9-4986-AE58-A4D3BB7C143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6FECC-2B28-4E4C-87C8-AB2FDB6E5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="680">
   <si>
     <t>진급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2912,6 +2912,10 @@
   </si>
   <si>
     <t>방어력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4305,6 +4309,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4320,36 +4348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4362,13 +4366,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4377,83 +4456,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7776,23 +7780,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="189" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="182" t="s">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="204" t="s">
         <v>338</v>
       </c>
       <c r="F1" s="94"/>
-      <c r="G1" s="180" t="s">
+      <c r="G1" s="189" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="177" t="s">
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="202" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7809,7 +7813,7 @@
       <c r="D2" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="183"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="95"/>
       <c r="G2" s="103" t="s">
         <v>331</v>
@@ -7823,7 +7827,7 @@
       <c r="J2" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="K2" s="178"/>
+      <c r="K2" s="203"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="80">
@@ -7937,23 +7941,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="93">
         <f>SUM(E3:E5)</f>
         <v>76</v>
       </c>
       <c r="F6" s="96"/>
-      <c r="G6" s="179" t="s">
+      <c r="G6" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="93">
         <f>SUM(K3:K5)</f>
         <v>450</v>
@@ -7973,23 +7977,23 @@
       <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="189" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="182" t="s">
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="204" t="s">
         <v>338</v>
       </c>
       <c r="F8" s="94"/>
-      <c r="G8" s="180" t="s">
+      <c r="G8" s="189" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="204" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8006,7 +8010,7 @@
       <c r="D9" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="183"/>
+      <c r="E9" s="200"/>
       <c r="F9" s="95"/>
       <c r="G9" s="103" t="s">
         <v>331</v>
@@ -8020,7 +8024,7 @@
       <c r="J9" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="183"/>
+      <c r="K9" s="200"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
@@ -8134,23 +8138,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
       <c r="E13" s="93">
         <f>SUM(E10:E12)</f>
         <v>321</v>
       </c>
       <c r="F13" s="96"/>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
       <c r="K13" s="93">
         <f>SUM(K10:K12)</f>
         <v>235</v>
@@ -8170,65 +8174,65 @@
       <c r="K14" s="101"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="189" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="184"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="191"/>
       <c r="F15" s="97"/>
-      <c r="G15" s="180" t="s">
+      <c r="G15" s="189" t="s">
         <v>356</v>
       </c>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="184"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="196" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="196" t="s">
         <v>330</v>
       </c>
-      <c r="D16" s="185" t="s">
+      <c r="D16" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="199" t="s">
         <v>338</v>
       </c>
       <c r="G16" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="H16" s="179" t="s">
+      <c r="H16" s="196" t="s">
         <v>332</v>
       </c>
-      <c r="I16" s="179" t="s">
+      <c r="I16" s="196" t="s">
         <v>330</v>
       </c>
-      <c r="J16" s="185" t="s">
+      <c r="J16" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="174" t="s">
+      <c r="K16" s="199" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="171"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="175"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="188"/>
       <c r="G17" s="171"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="175"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="188"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="105">
@@ -8241,7 +8245,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="107"/>
-      <c r="E18" s="176">
+      <c r="E18" s="194">
         <f>INT((INT(C18/3)+C19)/3)</f>
         <v>15</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>114</v>
       </c>
       <c r="J18" s="107"/>
-      <c r="K18" s="176">
+      <c r="K18" s="194">
         <f>INT((INT(I18/3)+I19)/3)</f>
         <v>20</v>
       </c>
@@ -8271,7 +8275,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="109"/>
-      <c r="E19" s="175"/>
+      <c r="E19" s="188"/>
       <c r="G19" s="108">
         <v>2</v>
       </c>
@@ -8282,7 +8286,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="109"/>
-      <c r="K19" s="175"/>
+      <c r="K19" s="188"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="108">
@@ -8315,23 +8319,23 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
       <c r="E21" s="111">
         <f>SUM(E18:E20)</f>
         <v>16</v>
       </c>
       <c r="F21" s="112"/>
-      <c r="G21" s="157" t="s">
+      <c r="G21" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
       <c r="K21" s="111">
         <f>SUM(K18:K20)</f>
         <v>20</v>
@@ -8348,7 +8352,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="109"/>
-      <c r="E22" s="175">
+      <c r="E22" s="188">
         <f>INT((INT(C22/3)+C23)/3)</f>
         <v>2</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>34</v>
       </c>
       <c r="J22" s="109"/>
-      <c r="K22" s="175">
+      <c r="K22" s="188">
         <f>INT((INT(I22/3)+I23)/3)</f>
         <v>21</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="109"/>
-      <c r="E23" s="175"/>
+      <c r="E23" s="188"/>
       <c r="G23" s="108">
         <v>2</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>52</v>
       </c>
       <c r="J23" s="109"/>
-      <c r="K23" s="175"/>
+      <c r="K23" s="188"/>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="108">
@@ -8422,23 +8426,23 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="111">
         <f>SUM(E22:E24)</f>
         <v>3</v>
       </c>
       <c r="F25" s="112"/>
-      <c r="G25" s="157" t="s">
+      <c r="G25" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
       <c r="K25" s="111">
         <f>SUM(K22:K24)</f>
         <v>29</v>
@@ -8455,7 +8459,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="109"/>
-      <c r="E26" s="175">
+      <c r="E26" s="188">
         <f>INT((INT(C26/3)+C27)/3)</f>
         <v>15</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="109"/>
-      <c r="K26" s="175">
+      <c r="K26" s="188">
         <f>INT((INT(I26/3)+I27)/3)</f>
         <v>8</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="109"/>
-      <c r="E27" s="175"/>
+      <c r="E27" s="188"/>
       <c r="G27" s="108">
         <v>2</v>
       </c>
@@ -8496,7 +8500,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="109"/>
-      <c r="K27" s="175"/>
+      <c r="K27" s="188"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="108">
@@ -8529,23 +8533,23 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
       <c r="E29" s="111">
         <f>SUM(E26:E28)</f>
         <v>27</v>
       </c>
       <c r="F29" s="112"/>
-      <c r="G29" s="157" t="s">
+      <c r="G29" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
       <c r="K29" s="111">
         <f>SUM(K26:K28)</f>
         <v>12</v>
@@ -8562,7 +8566,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="109"/>
-      <c r="E30" s="175">
+      <c r="E30" s="188">
         <f>INT((INT(C30/3)+C31)/3)</f>
         <v>22</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="109"/>
-      <c r="K30" s="175">
+      <c r="K30" s="188">
         <f>INT((INT(I30/3)+I31)/3)</f>
         <v>4</v>
       </c>
@@ -8592,7 +8596,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="109"/>
-      <c r="E31" s="175"/>
+      <c r="E31" s="188"/>
       <c r="G31" s="108">
         <v>2</v>
       </c>
@@ -8603,7 +8607,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="109"/>
-      <c r="K31" s="175"/>
+      <c r="K31" s="188"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="108">
@@ -8636,23 +8640,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
       <c r="E33" s="111">
         <f>SUM(E30:E32)</f>
         <v>23</v>
       </c>
       <c r="F33" s="112"/>
-      <c r="G33" s="157" t="s">
+      <c r="G33" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
       <c r="K33" s="111">
         <f>SUM(K30:K32)</f>
         <v>5</v>
@@ -8669,7 +8673,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="109"/>
-      <c r="E34" s="175">
+      <c r="E34" s="188">
         <f>INT((INT(C34/3)+C35)/3)</f>
         <v>5</v>
       </c>
@@ -8683,7 +8687,7 @@
         <v>69</v>
       </c>
       <c r="J34" s="109"/>
-      <c r="K34" s="175">
+      <c r="K34" s="188">
         <f>INT((INT(I34/3)+I35)/3)</f>
         <v>15</v>
       </c>
@@ -8699,7 +8703,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="109"/>
-      <c r="E35" s="175"/>
+      <c r="E35" s="188"/>
       <c r="G35" s="108">
         <v>2</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="109"/>
-      <c r="K35" s="175"/>
+      <c r="K35" s="188"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="108">
@@ -8743,23 +8747,23 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="157" t="s">
+      <c r="A37" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="111">
         <f>SUM(E34:E36)</f>
         <v>6</v>
       </c>
       <c r="F37" s="112"/>
-      <c r="G37" s="157" t="s">
+      <c r="G37" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
       <c r="K37" s="111">
         <f>SUM(K34:K36)</f>
         <v>21</v>
@@ -8772,13 +8776,13 @@
       <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="189" t="s">
         <v>387</v>
       </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="184"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="191"/>
       <c r="G39" s="153" t="s">
         <v>392</v>
       </c>
@@ -8791,34 +8795,34 @@
       <c r="A40" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="179" t="s">
+      <c r="B40" s="196" t="s">
         <v>332</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="196" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="185" t="s">
+      <c r="D40" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="174" t="s">
+      <c r="E40" s="199" t="s">
         <v>338</v>
       </c>
       <c r="G40" s="153" t="s">
         <v>330</v>
       </c>
       <c r="H40" s="153"/>
-      <c r="I40" s="186">
+      <c r="I40" s="201">
         <v>7</v>
       </c>
-      <c r="J40" s="186"/>
-      <c r="K40" s="186"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="201"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="171"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="175"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="188"/>
       <c r="G41" s="98"/>
       <c r="H41" s="98"/>
       <c r="I41" s="98"/>
@@ -8836,17 +8840,17 @@
         <v>50</v>
       </c>
       <c r="D42" s="107"/>
-      <c r="E42" s="176">
+      <c r="E42" s="194">
         <f>INT((INT(C42/3)+C43)/3)</f>
         <v>14</v>
       </c>
-      <c r="G42" s="180" t="s">
+      <c r="G42" s="189" t="s">
         <v>393</v>
       </c>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="184"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="191"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="108">
@@ -8859,20 +8863,20 @@
         <v>28</v>
       </c>
       <c r="D43" s="109"/>
-      <c r="E43" s="175"/>
+      <c r="E43" s="188"/>
       <c r="G43" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="H43" s="179" t="s">
+      <c r="H43" s="196" t="s">
         <v>332</v>
       </c>
-      <c r="I43" s="179" t="s">
+      <c r="I43" s="196" t="s">
         <v>330</v>
       </c>
-      <c r="J43" s="185" t="s">
+      <c r="J43" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="K43" s="174" t="s">
+      <c r="K43" s="199" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8891,19 +8895,19 @@
         <f>C44</f>
         <v>16</v>
       </c>
-      <c r="G44" s="187"/>
+      <c r="G44" s="195"/>
       <c r="H44" s="154"/>
       <c r="I44" s="154"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="183"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="200"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="111">
         <f>SUM(E42:E44)</f>
         <v>30</v>
@@ -8918,7 +8922,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="109"/>
-      <c r="K45" s="175">
+      <c r="K45" s="188">
         <f>INT((INT(I45/3)+I46)/3)</f>
         <v>4</v>
       </c>
@@ -8934,7 +8938,7 @@
         <v>149</v>
       </c>
       <c r="D46" s="107"/>
-      <c r="E46" s="176">
+      <c r="E46" s="194">
         <f>INT((INT(C46/3)+C47)/3)</f>
         <v>17</v>
       </c>
@@ -8948,7 +8952,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="109"/>
-      <c r="K46" s="175"/>
+      <c r="K46" s="188"/>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="108">
@@ -8961,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="109"/>
-      <c r="E47" s="175"/>
+      <c r="E47" s="188"/>
       <c r="G47" s="108">
         <v>3</v>
       </c>
@@ -8992,24 +8996,24 @@
         <f>C48</f>
         <v>8</v>
       </c>
-      <c r="G48" s="157" t="s">
+      <c r="G48" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
       <c r="K48" s="111">
         <f>SUM(K45:K47)</f>
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="157" t="s">
+      <c r="A49" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B49" s="158"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="111">
         <f>SUM(E46:E48)</f>
         <v>25</v>
@@ -9031,7 +9035,7 @@
         <v>118</v>
       </c>
       <c r="D50" s="107"/>
-      <c r="E50" s="176">
+      <c r="E50" s="194">
         <f>INT((INT(C50/3)+C51)/3)</f>
         <v>18</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="109"/>
-      <c r="E51" s="175"/>
+      <c r="E51" s="188"/>
       <c r="G51" s="98"/>
       <c r="H51" s="98"/>
       <c r="I51" s="98"/>
@@ -9081,12 +9085,12 @@
       <c r="K52" s="101"/>
     </row>
     <row r="53" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="157" t="s">
+      <c r="A53" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
       <c r="E53" s="111">
         <f>SUM(E50:E52)</f>
         <v>20</v>
@@ -9108,7 +9112,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="107"/>
-      <c r="E54" s="176">
+      <c r="E54" s="194">
         <f>INT((INT(C54/3)+C55)/3)</f>
         <v>4</v>
       </c>
@@ -9129,7 +9133,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="109"/>
-      <c r="E55" s="175"/>
+      <c r="E55" s="188"/>
       <c r="G55" s="98"/>
       <c r="H55" s="98"/>
       <c r="I55" s="98"/>
@@ -9158,12 +9162,12 @@
       <c r="K56" s="101"/>
     </row>
     <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="157" t="s">
+      <c r="A57" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B57" s="158"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
       <c r="E57" s="111">
         <f>SUM(E54:E56)</f>
         <v>55</v>
@@ -9185,7 +9189,7 @@
         <v>70</v>
       </c>
       <c r="D58" s="107"/>
-      <c r="E58" s="176">
+      <c r="E58" s="194">
         <f>INT((INT(C58/3)+C59)/3)</f>
         <v>18</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="109"/>
-      <c r="E59" s="175"/>
+      <c r="E59" s="188"/>
       <c r="G59" s="98"/>
       <c r="H59" s="98"/>
       <c r="I59" s="98"/>
@@ -9235,12 +9239,12 @@
       <c r="K60" s="101"/>
     </row>
     <row r="61" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="165" t="s">
         <v>333</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="111">
         <f>SUM(E58:E60)</f>
         <v>40</v>
@@ -9258,21 +9262,21 @@
       <c r="K62" s="101"/>
     </row>
     <row r="63" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="180" t="s">
+      <c r="A63" s="189" t="s">
         <v>397</v>
       </c>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
-      <c r="E63" s="184"/>
+      <c r="B63" s="190"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="191"/>
       <c r="F63" s="112"/>
-      <c r="G63" s="180" t="s">
+      <c r="G63" s="189" t="s">
         <v>423</v>
       </c>
-      <c r="H63" s="181"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="184"/>
+      <c r="H63" s="190"/>
+      <c r="I63" s="190"/>
+      <c r="J63" s="190"/>
+      <c r="K63" s="191"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="147" t="s">
@@ -9281,43 +9285,43 @@
       <c r="B64" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="C64" s="194" t="s">
+      <c r="C64" s="192" t="s">
         <v>400</v>
       </c>
-      <c r="D64" s="196" t="s">
+      <c r="D64" s="175" t="s">
         <v>401</v>
       </c>
-      <c r="E64" s="191"/>
+      <c r="E64" s="176"/>
       <c r="G64" s="147" t="s">
         <v>398</v>
       </c>
       <c r="H64" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="I64" s="194" t="s">
+      <c r="I64" s="192" t="s">
         <v>400</v>
       </c>
-      <c r="J64" s="196" t="s">
+      <c r="J64" s="175" t="s">
         <v>401</v>
       </c>
-      <c r="K64" s="191"/>
+      <c r="K64" s="176"/>
     </row>
     <row r="65" spans="1:11" s="91" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="170"/>
       <c r="B65" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="192"/>
-      <c r="E65" s="193"/>
+      <c r="C65" s="193"/>
+      <c r="D65" s="177"/>
+      <c r="E65" s="178"/>
       <c r="F65" s="98"/>
       <c r="G65" s="170"/>
       <c r="H65" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I65" s="195"/>
-      <c r="J65" s="192"/>
-      <c r="K65" s="193"/>
+      <c r="I65" s="193"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="178"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="147">
@@ -9329,10 +9333,10 @@
       <c r="C66" s="148">
         <v>23</v>
       </c>
-      <c r="D66" s="190" t="s">
+      <c r="D66" s="187" t="s">
         <v>410</v>
       </c>
-      <c r="E66" s="191"/>
+      <c r="E66" s="176"/>
       <c r="G66" s="147">
         <v>1</v>
       </c>
@@ -9342,26 +9346,26 @@
       <c r="I66" s="148">
         <v>0</v>
       </c>
-      <c r="J66" s="197" t="s">
+      <c r="J66" s="179" t="s">
         <v>426</v>
       </c>
-      <c r="K66" s="198"/>
+      <c r="K66" s="180"/>
     </row>
     <row r="67" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="170"/>
       <c r="B67" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="C67" s="189"/>
-      <c r="D67" s="192"/>
-      <c r="E67" s="193"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="177"/>
+      <c r="E67" s="178"/>
       <c r="G67" s="170"/>
       <c r="H67" s="114" t="s">
         <v>425</v>
       </c>
-      <c r="I67" s="189"/>
-      <c r="J67" s="199"/>
-      <c r="K67" s="200"/>
+      <c r="I67" s="174"/>
+      <c r="J67" s="181"/>
+      <c r="K67" s="182"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="147">
@@ -9373,10 +9377,10 @@
       <c r="C68" s="148">
         <v>0</v>
       </c>
-      <c r="D68" s="190" t="s">
+      <c r="D68" s="187" t="s">
         <v>411</v>
       </c>
-      <c r="E68" s="191"/>
+      <c r="E68" s="176"/>
       <c r="G68" s="147">
         <v>2</v>
       </c>
@@ -9386,26 +9390,26 @@
       <c r="I68" s="148">
         <v>5</v>
       </c>
-      <c r="J68" s="197" t="s">
+      <c r="J68" s="179" t="s">
         <v>429</v>
       </c>
-      <c r="K68" s="198"/>
+      <c r="K68" s="180"/>
     </row>
     <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="170"/>
       <c r="B69" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="C69" s="189"/>
-      <c r="D69" s="192"/>
-      <c r="E69" s="193"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="177"/>
+      <c r="E69" s="178"/>
       <c r="G69" s="170"/>
       <c r="H69" s="114" t="s">
         <v>428</v>
       </c>
-      <c r="I69" s="189"/>
-      <c r="J69" s="199"/>
-      <c r="K69" s="200"/>
+      <c r="I69" s="174"/>
+      <c r="J69" s="181"/>
+      <c r="K69" s="182"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="147">
@@ -9417,10 +9421,10 @@
       <c r="C70" s="148">
         <v>0</v>
       </c>
-      <c r="D70" s="190" t="s">
+      <c r="D70" s="187" t="s">
         <v>412</v>
       </c>
-      <c r="E70" s="191"/>
+      <c r="E70" s="176"/>
       <c r="G70" s="147">
         <v>3</v>
       </c>
@@ -9430,26 +9434,26 @@
       <c r="I70" s="148">
         <v>0</v>
       </c>
-      <c r="J70" s="201" t="s">
+      <c r="J70" s="183" t="s">
         <v>432</v>
       </c>
-      <c r="K70" s="202"/>
+      <c r="K70" s="184"/>
     </row>
     <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="170"/>
       <c r="B71" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="C71" s="189"/>
-      <c r="D71" s="192"/>
-      <c r="E71" s="193"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="177"/>
+      <c r="E71" s="178"/>
       <c r="G71" s="170"/>
       <c r="H71" s="114" t="s">
         <v>431</v>
       </c>
-      <c r="I71" s="189"/>
-      <c r="J71" s="203"/>
-      <c r="K71" s="204"/>
+      <c r="I71" s="174"/>
+      <c r="J71" s="185"/>
+      <c r="K71" s="186"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="147">
@@ -9461,10 +9465,10 @@
       <c r="C72" s="148">
         <v>2</v>
       </c>
-      <c r="D72" s="196" t="s">
+      <c r="D72" s="175" t="s">
         <v>413</v>
       </c>
-      <c r="E72" s="191"/>
+      <c r="E72" s="176"/>
       <c r="G72" s="147">
         <v>4</v>
       </c>
@@ -9474,26 +9478,26 @@
       <c r="I72" s="148">
         <v>0</v>
       </c>
-      <c r="J72" s="196" t="s">
+      <c r="J72" s="175" t="s">
         <v>422</v>
       </c>
-      <c r="K72" s="191"/>
+      <c r="K72" s="176"/>
     </row>
     <row r="73" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="170"/>
       <c r="B73" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="C73" s="189"/>
-      <c r="D73" s="192"/>
-      <c r="E73" s="193"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="177"/>
+      <c r="E73" s="178"/>
       <c r="G73" s="170"/>
       <c r="H73" s="114" t="s">
         <v>434</v>
       </c>
-      <c r="I73" s="189"/>
-      <c r="J73" s="192"/>
-      <c r="K73" s="193"/>
+      <c r="I73" s="174"/>
+      <c r="J73" s="177"/>
+      <c r="K73" s="178"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="147">
@@ -9505,10 +9509,10 @@
       <c r="C74" s="148">
         <v>0</v>
       </c>
-      <c r="D74" s="190" t="s">
+      <c r="D74" s="187" t="s">
         <v>416</v>
       </c>
-      <c r="E74" s="191"/>
+      <c r="E74" s="176"/>
       <c r="G74" s="98"/>
       <c r="H74" s="98"/>
       <c r="I74" s="98"/>
@@ -9520,9 +9524,9 @@
       <c r="B75" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="C75" s="189"/>
-      <c r="D75" s="192"/>
-      <c r="E75" s="193"/>
+      <c r="C75" s="174"/>
+      <c r="D75" s="177"/>
+      <c r="E75" s="178"/>
       <c r="G75" s="98"/>
       <c r="H75" s="98"/>
       <c r="I75" s="98"/>
@@ -9539,10 +9543,10 @@
       <c r="C76" s="148">
         <v>23</v>
       </c>
-      <c r="D76" s="196" t="s">
+      <c r="D76" s="175" t="s">
         <v>419</v>
       </c>
-      <c r="E76" s="191"/>
+      <c r="E76" s="176"/>
       <c r="G76" s="98"/>
       <c r="H76" s="98"/>
       <c r="I76" s="98"/>
@@ -9554,9 +9558,9 @@
       <c r="B77" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="C77" s="189"/>
-      <c r="D77" s="192"/>
-      <c r="E77" s="193"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="177"/>
+      <c r="E77" s="178"/>
       <c r="G77" s="98"/>
       <c r="H77" s="98"/>
       <c r="I77" s="98"/>
@@ -9573,10 +9577,10 @@
       <c r="C78" s="148">
         <v>23</v>
       </c>
-      <c r="D78" s="196" t="s">
+      <c r="D78" s="175" t="s">
         <v>422</v>
       </c>
-      <c r="E78" s="191"/>
+      <c r="E78" s="176"/>
       <c r="G78" s="98"/>
       <c r="H78" s="98"/>
       <c r="I78" s="98"/>
@@ -9588,9 +9592,9 @@
       <c r="B79" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="189"/>
-      <c r="D79" s="192"/>
-      <c r="E79" s="193"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="177"/>
+      <c r="E79" s="178"/>
       <c r="G79" s="98"/>
       <c r="H79" s="98"/>
       <c r="I79" s="98"/>
@@ -9605,27 +9609,73 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:K73"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:K69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:K71"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:E79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:E69"/>
@@ -9650,73 +9700,27 @@
     <mergeCell ref="J66:K67"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:E79"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:K73"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:K69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:K71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:D5 J3:J5 D10:D12 J10:J12 D18:D20 J18:J20 D22:D24 J22:J24 D26:D28 J26:J28 D30:D32 J30:J32 D34:D36 J34:J36 D42:D44 J45:J47 D46:D48 D50:D52 D54:D56 D58:D60">
@@ -9758,10 +9762,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="156" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="168"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="207"/>
       <c r="D2" s="79" t="s">
         <v>313</v>
@@ -10164,20 +10168,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="165" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="209"/>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="165" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="158"/>
+      <c r="F1" s="166"/>
       <c r="G1" s="209"/>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="165" t="s">
         <v>480</v>
       </c>
-      <c r="J1" s="158"/>
+      <c r="J1" s="166"/>
       <c r="K1" s="209"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -12687,19 +12691,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B29:B43"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B14:B28"/>
@@ -12711,6 +12702,19 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12722,7 +12726,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12872,6 +12876,9 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="145" t="s">
         <v>494</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -13451,7 +13458,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="155" t="s">
         <v>307</v>
       </c>
       <c r="B1" s="151"/>
@@ -13476,7 +13483,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="156" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="129" t="s">
@@ -13501,7 +13508,7 @@
       <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -13522,7 +13529,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="167"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="25" t="s">
         <v>48</v>
       </c>
@@ -13545,11 +13552,11 @@
       <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="163" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="121">
         <f>COUNTA(D2:D4)</f>
         <v>0</v>
@@ -13573,7 +13580,7 @@
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="159" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -13598,7 +13605,7 @@
       <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="161"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -13619,7 +13626,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="161"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="131" t="s">
         <v>48</v>
       </c>
@@ -13640,11 +13647,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="163" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="121">
         <f>COUNTA(D6:D8)</f>
         <v>0</v>
@@ -13668,7 +13675,7 @@
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="161" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -13693,7 +13700,7 @@
       <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="169"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="17" t="s">
         <v>47</v>
       </c>
@@ -13714,7 +13721,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="169"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="131" t="s">
         <v>48</v>
       </c>
@@ -13735,11 +13742,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="163" t="s">
         <v>439</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="121">
         <f>COUNTA(D10:D12)</f>
         <v>0</v>
@@ -13763,7 +13770,7 @@
       <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="159" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -13788,7 +13795,7 @@
       <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="161"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
@@ -13809,7 +13816,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="161"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="25" t="s">
         <v>48</v>
       </c>
@@ -13832,11 +13839,11 @@
       <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="163" t="s">
         <v>439</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="121">
         <f>COUNTA(D14:D16)</f>
         <v>0</v>
@@ -13860,7 +13867,7 @@
       <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="168" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="130" t="s">
@@ -13885,7 +13892,7 @@
       <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="17" t="s">
         <v>47</v>
       </c>
@@ -13908,7 +13915,7 @@
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" s="15" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="163"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="51" t="s">
         <v>48</v>
       </c>
@@ -13931,11 +13938,11 @@
       <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="163" t="s">
         <v>439</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="121">
         <f>COUNTA(D18:D20)</f>
         <v>0</v>
@@ -13959,12 +13966,12 @@
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="46">
         <f>SUM(E21,E17,E13,E9,E5)</f>
         <v>0</v>
@@ -14006,18 +14013,18 @@
     <row r="34" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14095,7 +14102,7 @@
       <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
@@ -14154,7 +14161,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="166"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
@@ -14210,7 +14217,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="166"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
@@ -14266,7 +14273,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="166"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="10" t="s">
         <v>47</v>
       </c>
@@ -14322,7 +14329,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="166"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="10" t="s">
         <v>47</v>
       </c>
